--- a/src/data-graphql/production_volumes.xlsx
+++ b/src/data-graphql/production_volumes.xlsx
@@ -98,7 +98,7 @@
     <t>Native American</t>
   </si>
   <si>
-    <t>Coal (ton)</t>
+    <t>Coal Prod Vol (ton)</t>
   </si>
 </sst>
 </file>
@@ -562,7 +562,7 @@
   <dimension ref="A1:F1057"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1036" workbookViewId="0">
-      <selection activeCell="E1057" sqref="E1057"/>
+      <selection activeCell="S1055" sqref="S1055"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/data-graphql/production_volumes.xlsx
+++ b/src/data-graphql/production_volumes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malcolmj\Documents\GitHub\doi-extractives-data\src\data-graphql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mentastc\Documents\GitHub\doi-extractives-data\src\data-graphql\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4230" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4262" uniqueCount="25">
   <si>
     <t>Month</t>
   </si>
@@ -559,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1057"/>
+  <dimension ref="A1:F1065"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1036" workbookViewId="0">
-      <selection activeCell="S1055" sqref="S1055"/>
+    <sheetView tabSelected="1" topLeftCell="A1032" workbookViewId="0">
+      <selection activeCell="H1055" sqref="H1055"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,7 +672,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="1">
-        <v>312660127</v>
+        <v>312660129</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -692,7 +692,7 @@
         <v>9</v>
       </c>
       <c r="F6" s="1">
-        <v>8220146</v>
+        <v>8220194</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -732,7 +732,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="1">
-        <v>24637906</v>
+        <v>24637393</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -752,7 +752,7 @@
         <v>9</v>
       </c>
       <c r="F9" s="1">
-        <v>949788</v>
+        <v>949729</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -832,7 +832,7 @@
         <v>21</v>
       </c>
       <c r="F13" s="1">
-        <v>295539275</v>
+        <v>295539278</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -852,7 +852,7 @@
         <v>9</v>
       </c>
       <c r="F14" s="1">
-        <v>7771345</v>
+        <v>7771392</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -892,7 +892,7 @@
         <v>21</v>
       </c>
       <c r="F16" s="1">
-        <v>23270130</v>
+        <v>23269874</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -912,7 +912,7 @@
         <v>9</v>
       </c>
       <c r="F17" s="1">
-        <v>889735</v>
+        <v>889673</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -992,7 +992,7 @@
         <v>21</v>
       </c>
       <c r="F21" s="1">
-        <v>330378705</v>
+        <v>330378708</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1012,7 +1012,7 @@
         <v>9</v>
       </c>
       <c r="F22" s="1">
-        <v>8445144</v>
+        <v>8445189</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1052,7 +1052,7 @@
         <v>21</v>
       </c>
       <c r="F24" s="1">
-        <v>25869895</v>
+        <v>25869768</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1072,7 +1072,7 @@
         <v>9</v>
       </c>
       <c r="F25" s="1">
-        <v>978483</v>
+        <v>978417</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1152,7 +1152,7 @@
         <v>21</v>
       </c>
       <c r="F29" s="1">
-        <v>320365372</v>
+        <v>320365374</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1172,7 +1172,7 @@
         <v>9</v>
       </c>
       <c r="F30" s="1">
-        <v>8203039</v>
+        <v>8203085</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1212,7 +1212,7 @@
         <v>21</v>
       </c>
       <c r="F32" s="1">
-        <v>24927065</v>
+        <v>24926987</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1232,7 +1232,7 @@
         <v>9</v>
       </c>
       <c r="F33" s="1">
-        <v>969556</v>
+        <v>969526</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1312,7 +1312,7 @@
         <v>21</v>
       </c>
       <c r="F37" s="1">
-        <v>328688161</v>
+        <v>328688164</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1332,7 +1332,7 @@
         <v>9</v>
       </c>
       <c r="F38" s="1">
-        <v>8416957</v>
+        <v>8417004</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1372,7 +1372,7 @@
         <v>21</v>
       </c>
       <c r="F40" s="1">
-        <v>25782143</v>
+        <v>25782062</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1392,7 +1392,7 @@
         <v>9</v>
       </c>
       <c r="F41" s="1">
-        <v>988269</v>
+        <v>988234</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1472,7 +1472,7 @@
         <v>21</v>
       </c>
       <c r="F45" s="1">
-        <v>318546835</v>
+        <v>318546837</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1492,7 +1492,7 @@
         <v>9</v>
       </c>
       <c r="F46" s="1">
-        <v>8122752</v>
+        <v>8122796</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1532,7 +1532,7 @@
         <v>21</v>
       </c>
       <c r="F48" s="1">
-        <v>24926716</v>
+        <v>24926540</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1552,7 +1552,7 @@
         <v>9</v>
       </c>
       <c r="F49" s="1">
-        <v>931851</v>
+        <v>931760</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1632,7 +1632,7 @@
         <v>21</v>
       </c>
       <c r="F53" s="1">
-        <v>333959919</v>
+        <v>333959923</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1652,7 +1652,7 @@
         <v>9</v>
       </c>
       <c r="F54" s="1">
-        <v>8379221</v>
+        <v>8379267</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1692,7 +1692,7 @@
         <v>21</v>
       </c>
       <c r="F56" s="1">
-        <v>26046904</v>
+        <v>26046689</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1712,7 +1712,7 @@
         <v>9</v>
       </c>
       <c r="F57" s="1">
-        <v>982213</v>
+        <v>982151</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1792,7 +1792,7 @@
         <v>21</v>
       </c>
       <c r="F61" s="1">
-        <v>333048369</v>
+        <v>333048372</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1812,7 +1812,7 @@
         <v>9</v>
       </c>
       <c r="F62" s="1">
-        <v>8408385</v>
+        <v>8408431</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -1852,7 +1852,7 @@
         <v>21</v>
       </c>
       <c r="F64" s="1">
-        <v>25588708</v>
+        <v>25588500</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -1872,7 +1872,7 @@
         <v>9</v>
       </c>
       <c r="F65" s="1">
-        <v>995918</v>
+        <v>995867</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -1952,7 +1952,7 @@
         <v>21</v>
       </c>
       <c r="F69" s="1">
-        <v>307716132</v>
+        <v>307716137</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -1972,7 +1972,7 @@
         <v>9</v>
       </c>
       <c r="F70" s="1">
-        <v>7991789</v>
+        <v>7991833</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2012,7 +2012,7 @@
         <v>21</v>
       </c>
       <c r="F72" s="1">
-        <v>24929424</v>
+        <v>24929264</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2032,7 +2032,7 @@
         <v>9</v>
       </c>
       <c r="F73" s="1">
-        <v>982877</v>
+        <v>982840</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2112,7 +2112,7 @@
         <v>21</v>
       </c>
       <c r="F77" s="1">
-        <v>335787411</v>
+        <v>335787416</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2132,7 +2132,7 @@
         <v>9</v>
       </c>
       <c r="F78" s="1">
-        <v>8638454</v>
+        <v>8638501</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2172,7 +2172,7 @@
         <v>21</v>
       </c>
       <c r="F80" s="1">
-        <v>25749320</v>
+        <v>25749156</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2192,7 +2192,7 @@
         <v>9</v>
       </c>
       <c r="F81" s="1">
-        <v>1040945</v>
+        <v>1040903</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2272,7 +2272,7 @@
         <v>21</v>
       </c>
       <c r="F85" s="1">
-        <v>333842799</v>
+        <v>333842804</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2292,7 +2292,7 @@
         <v>9</v>
       </c>
       <c r="F86" s="1">
-        <v>8516900</v>
+        <v>8516956</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2332,7 +2332,7 @@
         <v>21</v>
       </c>
       <c r="F88" s="1">
-        <v>24890621</v>
+        <v>24890411</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2352,7 +2352,7 @@
         <v>9</v>
       </c>
       <c r="F89" s="1">
-        <v>1006895</v>
+        <v>1006857</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2432,7 +2432,7 @@
         <v>21</v>
       </c>
       <c r="F93" s="1">
-        <v>339550359</v>
+        <v>339550361</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -2452,7 +2452,7 @@
         <v>9</v>
       </c>
       <c r="F94" s="1">
-        <v>8620362</v>
+        <v>8620414</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -2492,7 +2492,7 @@
         <v>21</v>
       </c>
       <c r="F96" s="1">
-        <v>24914182</v>
+        <v>24914074</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -2512,7 +2512,7 @@
         <v>9</v>
       </c>
       <c r="F97" s="1">
-        <v>1008222</v>
+        <v>1008216</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -2612,7 +2612,7 @@
         <v>9</v>
       </c>
       <c r="F102" s="1">
-        <v>8746101</v>
+        <v>8746150</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -2652,7 +2652,7 @@
         <v>21</v>
       </c>
       <c r="F104" s="1">
-        <v>24814287</v>
+        <v>24814199</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -2672,7 +2672,7 @@
         <v>9</v>
       </c>
       <c r="F105" s="1">
-        <v>991105</v>
+        <v>991103</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -2752,7 +2752,7 @@
         <v>21</v>
       </c>
       <c r="F109" s="1">
-        <v>317365955</v>
+        <v>317362492</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -2772,7 +2772,7 @@
         <v>9</v>
       </c>
       <c r="F110" s="1">
-        <v>8022809</v>
+        <v>8022838</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -2812,7 +2812,7 @@
         <v>21</v>
       </c>
       <c r="F112" s="1">
-        <v>23261919</v>
+        <v>23261845</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -2912,7 +2912,7 @@
         <v>21</v>
       </c>
       <c r="F117" s="1">
-        <v>348511294</v>
+        <v>348465709</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -2932,7 +2932,7 @@
         <v>9</v>
       </c>
       <c r="F118" s="1">
-        <v>8758043</v>
+        <v>8757879</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -2972,7 +2972,7 @@
         <v>21</v>
       </c>
       <c r="F120" s="1">
-        <v>25595712</v>
+        <v>25595627</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3072,7 +3072,7 @@
         <v>21</v>
       </c>
       <c r="F125" s="1">
-        <v>331710022</v>
+        <v>331667322</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3092,7 +3092,7 @@
         <v>9</v>
       </c>
       <c r="F126" s="1">
-        <v>8441323</v>
+        <v>8441209</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3132,7 +3132,7 @@
         <v>21</v>
       </c>
       <c r="F128" s="1">
-        <v>24528045</v>
+        <v>24527956</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3232,7 +3232,7 @@
         <v>21</v>
       </c>
       <c r="F133" s="1">
-        <v>338859193</v>
+        <v>338813614</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -3252,7 +3252,7 @@
         <v>9</v>
       </c>
       <c r="F134" s="1">
-        <v>8681516</v>
+        <v>8681357</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3292,7 +3292,7 @@
         <v>21</v>
       </c>
       <c r="F136" s="1">
-        <v>25113455</v>
+        <v>25113352</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -3312,7 +3312,7 @@
         <v>9</v>
       </c>
       <c r="F137" s="1">
-        <v>996835</v>
+        <v>996833</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -3392,7 +3392,7 @@
         <v>21</v>
       </c>
       <c r="F141" s="1">
-        <v>324459267</v>
+        <v>324421326</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -3412,7 +3412,7 @@
         <v>9</v>
       </c>
       <c r="F142" s="1">
-        <v>8389305</v>
+        <v>8389179</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -3452,7 +3452,7 @@
         <v>21</v>
       </c>
       <c r="F144" s="1">
-        <v>23403817</v>
+        <v>23403687</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -3472,7 +3472,7 @@
         <v>9</v>
       </c>
       <c r="F145" s="1">
-        <v>959039</v>
+        <v>959037</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -3552,7 +3552,7 @@
         <v>21</v>
       </c>
       <c r="F149" s="1">
-        <v>319873864</v>
+        <v>319839782</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -3572,7 +3572,7 @@
         <v>9</v>
       </c>
       <c r="F150" s="1">
-        <v>8502639</v>
+        <v>8502519</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -3612,7 +3612,7 @@
         <v>21</v>
       </c>
       <c r="F152" s="1">
-        <v>25111722</v>
+        <v>25111605</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -3632,7 +3632,7 @@
         <v>9</v>
       </c>
       <c r="F153" s="1">
-        <v>987921</v>
+        <v>987911</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -3712,7 +3712,7 @@
         <v>21</v>
       </c>
       <c r="F157" s="1">
-        <v>331249735</v>
+        <v>331219116</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -3732,7 +3732,7 @@
         <v>9</v>
       </c>
       <c r="F158" s="1">
-        <v>8556392</v>
+        <v>8556320</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -3772,7 +3772,7 @@
         <v>21</v>
       </c>
       <c r="F160" s="1">
-        <v>25137161</v>
+        <v>25137020</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -3872,7 +3872,7 @@
         <v>21</v>
       </c>
       <c r="F165" s="1">
-        <v>309680567</v>
+        <v>309654311</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -3892,7 +3892,7 @@
         <v>9</v>
       </c>
       <c r="F166" s="1">
-        <v>8359909</v>
+        <v>8359865</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -3932,7 +3932,7 @@
         <v>21</v>
       </c>
       <c r="F168" s="1">
-        <v>23774811</v>
+        <v>23774673</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -3952,7 +3952,7 @@
         <v>9</v>
       </c>
       <c r="F169" s="1">
-        <v>1007138</v>
+        <v>1007136</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -4032,7 +4032,7 @@
         <v>21</v>
       </c>
       <c r="F173" s="1">
-        <v>337892524</v>
+        <v>337866468</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -4052,7 +4052,7 @@
         <v>9</v>
       </c>
       <c r="F174" s="1">
-        <v>8702094</v>
+        <v>8702033</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -4092,7 +4092,7 @@
         <v>21</v>
       </c>
       <c r="F176" s="1">
-        <v>24526224</v>
+        <v>24526007</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -4112,7 +4112,7 @@
         <v>9</v>
       </c>
       <c r="F177" s="1">
-        <v>1091658</v>
+        <v>1091648</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -4192,7 +4192,7 @@
         <v>21</v>
       </c>
       <c r="F181" s="1">
-        <v>334012569</v>
+        <v>333990734</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -4212,7 +4212,7 @@
         <v>9</v>
       </c>
       <c r="F182" s="1">
-        <v>8584616</v>
+        <v>8584570</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -4252,7 +4252,7 @@
         <v>21</v>
       </c>
       <c r="F184" s="1">
-        <v>23547187</v>
+        <v>23547046</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -4272,7 +4272,7 @@
         <v>9</v>
       </c>
       <c r="F185" s="1">
-        <v>1035693</v>
+        <v>1035686</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -4352,7 +4352,7 @@
         <v>21</v>
       </c>
       <c r="F189" s="1">
-        <v>335552984</v>
+        <v>335530432</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -4372,7 +4372,7 @@
         <v>9</v>
       </c>
       <c r="F190" s="1">
-        <v>8650790</v>
+        <v>8650743</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -4412,7 +4412,7 @@
         <v>21</v>
       </c>
       <c r="F192" s="1">
-        <v>23295664</v>
+        <v>23295510</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -4432,7 +4432,7 @@
         <v>9</v>
       </c>
       <c r="F193" s="1">
-        <v>1034158</v>
+        <v>1034155</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -4512,7 +4512,7 @@
         <v>21</v>
       </c>
       <c r="F197" s="1">
-        <v>335279046</v>
+        <v>335257263</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -4532,7 +4532,7 @@
         <v>9</v>
       </c>
       <c r="F198" s="1">
-        <v>8665968</v>
+        <v>8665947</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -4572,7 +4572,7 @@
         <v>21</v>
       </c>
       <c r="F200" s="1">
-        <v>23515461</v>
+        <v>23515285</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -4592,7 +4592,7 @@
         <v>9</v>
       </c>
       <c r="F201" s="1">
-        <v>1033579</v>
+        <v>1033578</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -4672,7 +4672,7 @@
         <v>21</v>
       </c>
       <c r="F205" s="1">
-        <v>302681342</v>
+        <v>302664532</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -4692,7 +4692,7 @@
         <v>9</v>
       </c>
       <c r="F206" s="1">
-        <v>8037014</v>
+        <v>8036995</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -4732,7 +4732,7 @@
         <v>21</v>
       </c>
       <c r="F208" s="1">
-        <v>21554381</v>
+        <v>21554312</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -4752,7 +4752,7 @@
         <v>9</v>
       </c>
       <c r="F209" s="1">
-        <v>1009024</v>
+        <v>1009015</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -4832,7 +4832,7 @@
         <v>21</v>
       </c>
       <c r="F213" s="1">
-        <v>335936277</v>
+        <v>335918712</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -4852,7 +4852,7 @@
         <v>9</v>
       </c>
       <c r="F214" s="1">
-        <v>9117171</v>
+        <v>9117148</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -4892,7 +4892,7 @@
         <v>21</v>
       </c>
       <c r="F216" s="1">
-        <v>24142012</v>
+        <v>24141864</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -4912,7 +4912,7 @@
         <v>9</v>
       </c>
       <c r="F217" s="1">
-        <v>1215674</v>
+        <v>1215660</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -4992,7 +4992,7 @@
         <v>21</v>
       </c>
       <c r="F221" s="1">
-        <v>327335510</v>
+        <v>327320157</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -5012,7 +5012,7 @@
         <v>9</v>
       </c>
       <c r="F222" s="1">
-        <v>8721025</v>
+        <v>8721028</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -5052,7 +5052,7 @@
         <v>21</v>
       </c>
       <c r="F224" s="1">
-        <v>23736415</v>
+        <v>23736250</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -5072,7 +5072,7 @@
         <v>9</v>
       </c>
       <c r="F225" s="1">
-        <v>1221041</v>
+        <v>1221028</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -5152,7 +5152,7 @@
         <v>21</v>
       </c>
       <c r="F229" s="1">
-        <v>334320883</v>
+        <v>334302782</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -5172,7 +5172,7 @@
         <v>9</v>
       </c>
       <c r="F230" s="1">
-        <v>9178810</v>
+        <v>9178791</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -5212,7 +5212,7 @@
         <v>21</v>
       </c>
       <c r="F232" s="1">
-        <v>24988453</v>
+        <v>24988233</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -5232,7 +5232,7 @@
         <v>9</v>
       </c>
       <c r="F233" s="1">
-        <v>1268428</v>
+        <v>1268405</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -5312,7 +5312,7 @@
         <v>21</v>
       </c>
       <c r="F237" s="1">
-        <v>310806470</v>
+        <v>310790707</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
@@ -5332,7 +5332,7 @@
         <v>9</v>
       </c>
       <c r="F238" s="1">
-        <v>8799755</v>
+        <v>8799734</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
@@ -5372,7 +5372,7 @@
         <v>21</v>
       </c>
       <c r="F240" s="1">
-        <v>24319442</v>
+        <v>24319280</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -5392,7 +5392,7 @@
         <v>9</v>
       </c>
       <c r="F241" s="1">
-        <v>1327536</v>
+        <v>1327508</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -5472,7 +5472,7 @@
         <v>21</v>
       </c>
       <c r="F245" s="1">
-        <v>328209279</v>
+        <v>328194346</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -5492,7 +5492,7 @@
         <v>9</v>
       </c>
       <c r="F246" s="1">
-        <v>9196616</v>
+        <v>9196602</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -5532,7 +5532,7 @@
         <v>21</v>
       </c>
       <c r="F248" s="1">
-        <v>24884740</v>
+        <v>24884572</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -5552,7 +5552,7 @@
         <v>9</v>
       </c>
       <c r="F249" s="1">
-        <v>1435498</v>
+        <v>1435458</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -5652,7 +5652,7 @@
         <v>9</v>
       </c>
       <c r="F254" s="1">
-        <v>9204613</v>
+        <v>9204660</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -5692,7 +5692,7 @@
         <v>21</v>
       </c>
       <c r="F256" s="1">
-        <v>25422101</v>
+        <v>25421924</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
@@ -5712,7 +5712,7 @@
         <v>9</v>
       </c>
       <c r="F257" s="1">
-        <v>1545747</v>
+        <v>1545701</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
@@ -5792,7 +5792,7 @@
         <v>21</v>
       </c>
       <c r="F261" s="1">
-        <v>319279397</v>
+        <v>319265720</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
@@ -5812,7 +5812,7 @@
         <v>9</v>
       </c>
       <c r="F262" s="1">
-        <v>8921406</v>
+        <v>8921397</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -5852,7 +5852,7 @@
         <v>21</v>
       </c>
       <c r="F264" s="1">
-        <v>24878841</v>
+        <v>24878594</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
@@ -5872,7 +5872,7 @@
         <v>9</v>
       </c>
       <c r="F265" s="1">
-        <v>1550545</v>
+        <v>1550349</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
@@ -5952,7 +5952,7 @@
         <v>21</v>
       </c>
       <c r="F269" s="1">
-        <v>327813412</v>
+        <v>327800331</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
@@ -5972,7 +5972,7 @@
         <v>9</v>
       </c>
       <c r="F270" s="1">
-        <v>9322618</v>
+        <v>9322637</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
@@ -6012,7 +6012,7 @@
         <v>21</v>
       </c>
       <c r="F272" s="1">
-        <v>26008834</v>
+        <v>26008734</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
@@ -6032,7 +6032,7 @@
         <v>9</v>
       </c>
       <c r="F273" s="1">
-        <v>1642647</v>
+        <v>1642614</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
@@ -6112,7 +6112,7 @@
         <v>21</v>
       </c>
       <c r="F277" s="1">
-        <v>321462818</v>
+        <v>321450180</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
@@ -6132,7 +6132,7 @@
         <v>9</v>
       </c>
       <c r="F278" s="1">
-        <v>9098990</v>
+        <v>9098984</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
@@ -6172,7 +6172,7 @@
         <v>21</v>
       </c>
       <c r="F280" s="1">
-        <v>25354166</v>
+        <v>25354037</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
@@ -6192,7 +6192,7 @@
         <v>9</v>
       </c>
       <c r="F281" s="1">
-        <v>1589439</v>
+        <v>1589382</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
@@ -6292,7 +6292,7 @@
         <v>9</v>
       </c>
       <c r="F286" s="1">
-        <v>9183831</v>
+        <v>9183884</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
@@ -6332,7 +6332,7 @@
         <v>21</v>
       </c>
       <c r="F288" s="1">
-        <v>26113217</v>
+        <v>26113209</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
@@ -6352,7 +6352,7 @@
         <v>9</v>
       </c>
       <c r="F289" s="1">
-        <v>1627167</v>
+        <v>1627137</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
@@ -6432,7 +6432,7 @@
         <v>21</v>
       </c>
       <c r="F293" s="1">
-        <v>318888631</v>
+        <v>318850146</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
@@ -6452,7 +6452,7 @@
         <v>9</v>
       </c>
       <c r="F294" s="1">
-        <v>9149014</v>
+        <v>9146041</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
@@ -6512,7 +6512,7 @@
         <v>9</v>
       </c>
       <c r="F297" s="1">
-        <v>1636558</v>
+        <v>1636555</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
@@ -6592,7 +6592,7 @@
         <v>21</v>
       </c>
       <c r="F301" s="1">
-        <v>287428676</v>
+        <v>287392450</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
@@ -6612,7 +6612,7 @@
         <v>9</v>
       </c>
       <c r="F302" s="1">
-        <v>8119593</v>
+        <v>8116611</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
@@ -6672,7 +6672,7 @@
         <v>9</v>
       </c>
       <c r="F305" s="1">
-        <v>1508005</v>
+        <v>1507999</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
@@ -6752,7 +6752,7 @@
         <v>21</v>
       </c>
       <c r="F309" s="1">
-        <v>325062525</v>
+        <v>325015988</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
@@ -6772,7 +6772,7 @@
         <v>9</v>
       </c>
       <c r="F310" s="1">
-        <v>9496022</v>
+        <v>9492101</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
@@ -6832,7 +6832,7 @@
         <v>9</v>
       </c>
       <c r="F313" s="1">
-        <v>1744271</v>
+        <v>1744267</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
@@ -6912,7 +6912,7 @@
         <v>21</v>
       </c>
       <c r="F317" s="1">
-        <v>317886949</v>
+        <v>318088455</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
@@ -6932,7 +6932,7 @@
         <v>9</v>
       </c>
       <c r="F318" s="1">
-        <v>9282669</v>
+        <v>9323222</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
@@ -6992,7 +6992,7 @@
         <v>9</v>
       </c>
       <c r="F321" s="1">
-        <v>1766431</v>
+        <v>1766420</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
@@ -7072,7 +7072,7 @@
         <v>21</v>
       </c>
       <c r="F325" s="1">
-        <v>327741085</v>
+        <v>327718711</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
@@ -7092,7 +7092,7 @@
         <v>9</v>
       </c>
       <c r="F326" s="1">
-        <v>9667541</v>
+        <v>9686105</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
@@ -7232,7 +7232,7 @@
         <v>21</v>
       </c>
       <c r="F333" s="1">
-        <v>314994867</v>
+        <v>314960146</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
@@ -7252,7 +7252,7 @@
         <v>9</v>
       </c>
       <c r="F334" s="1">
-        <v>9343402</v>
+        <v>9361056</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
@@ -7312,7 +7312,7 @@
         <v>9</v>
       </c>
       <c r="F337" s="1">
-        <v>1935099</v>
+        <v>1935098</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
@@ -7392,7 +7392,7 @@
         <v>21</v>
       </c>
       <c r="F341" s="1">
-        <v>328157247</v>
+        <v>328130851</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
@@ -7412,7 +7412,7 @@
         <v>9</v>
       </c>
       <c r="F342" s="1">
-        <v>9739388</v>
+        <v>9757479</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
@@ -7552,7 +7552,7 @@
         <v>21</v>
       </c>
       <c r="F349" s="1">
-        <v>310499632</v>
+        <v>310498696</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
@@ -7572,7 +7572,7 @@
         <v>9</v>
       </c>
       <c r="F350" s="1">
-        <v>9810543</v>
+        <v>9828326</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
@@ -7712,7 +7712,7 @@
         <v>21</v>
       </c>
       <c r="F357" s="1">
-        <v>314558993</v>
+        <v>314535990</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
@@ -7732,7 +7732,7 @@
         <v>9</v>
       </c>
       <c r="F358" s="1">
-        <v>9534857</v>
+        <v>9552119</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
@@ -7772,7 +7772,7 @@
         <v>21</v>
       </c>
       <c r="F360" s="1">
-        <v>25036788</v>
+        <v>25054472</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
@@ -7792,7 +7792,7 @@
         <v>9</v>
       </c>
       <c r="F361" s="1">
-        <v>2082244</v>
+        <v>2083140</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
@@ -7872,7 +7872,7 @@
         <v>21</v>
       </c>
       <c r="F365" s="1">
-        <v>332623656</v>
+        <v>332615486</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
@@ -7892,7 +7892,7 @@
         <v>9</v>
       </c>
       <c r="F366" s="1">
-        <v>10023343</v>
+        <v>10041599</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
@@ -7932,7 +7932,7 @@
         <v>21</v>
       </c>
       <c r="F368" s="1">
-        <v>26084033</v>
+        <v>26150474</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
@@ -7952,7 +7952,7 @@
         <v>9</v>
       </c>
       <c r="F369" s="1">
-        <v>2382898</v>
+        <v>2385648</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
@@ -8032,7 +8032,7 @@
         <v>21</v>
       </c>
       <c r="F373" s="1">
-        <v>323664659</v>
+        <v>323655780</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
@@ -8052,7 +8052,7 @@
         <v>9</v>
       </c>
       <c r="F374" s="1">
-        <v>9917685</v>
+        <v>9934726</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
@@ -8092,7 +8092,7 @@
         <v>21</v>
       </c>
       <c r="F376" s="1">
-        <v>25535240</v>
+        <v>25578157</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
@@ -8112,7 +8112,7 @@
         <v>9</v>
       </c>
       <c r="F377" s="1">
-        <v>2476372</v>
+        <v>2477766</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
@@ -8192,7 +8192,7 @@
         <v>21</v>
       </c>
       <c r="F381" s="1">
-        <v>329246240</v>
+        <v>329242836</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
@@ -8212,7 +8212,7 @@
         <v>9</v>
       </c>
       <c r="F382" s="1">
-        <v>10157442</v>
+        <v>10175621</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
@@ -8252,7 +8252,7 @@
         <v>21</v>
       </c>
       <c r="F384" s="1">
-        <v>25879019</v>
+        <v>25913876</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
@@ -8272,7 +8272,7 @@
         <v>9</v>
       </c>
       <c r="F385" s="1">
-        <v>2491640</v>
+        <v>2492697</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
@@ -8352,7 +8352,7 @@
         <v>21</v>
       </c>
       <c r="F389" s="1">
-        <v>332462651</v>
+        <v>332462200</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
@@ -8372,7 +8372,7 @@
         <v>9</v>
       </c>
       <c r="F390" s="1">
-        <v>10278149</v>
+        <v>10296139</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
@@ -8412,7 +8412,7 @@
         <v>21</v>
       </c>
       <c r="F392" s="1">
-        <v>26416365</v>
+        <v>26447719</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
@@ -8432,7 +8432,7 @@
         <v>9</v>
       </c>
       <c r="F393" s="1">
-        <v>2678884</v>
+        <v>2679795</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
@@ -8512,7 +8512,7 @@
         <v>21</v>
       </c>
       <c r="F397" s="1">
-        <v>308943567</v>
+        <v>308928832</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
@@ -8532,7 +8532,7 @@
         <v>9</v>
       </c>
       <c r="F398" s="1">
-        <v>9743536</v>
+        <v>9761160</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
@@ -8572,7 +8572,7 @@
         <v>21</v>
       </c>
       <c r="F400" s="1">
-        <v>24879827</v>
+        <v>24908030</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
@@ -8592,7 +8592,7 @@
         <v>9</v>
       </c>
       <c r="F401" s="1">
-        <v>2546203</v>
+        <v>2546955</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
@@ -8672,7 +8672,7 @@
         <v>21</v>
       </c>
       <c r="F405" s="1">
-        <v>328373491</v>
+        <v>328366752</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
@@ -8692,7 +8692,7 @@
         <v>9</v>
       </c>
       <c r="F406" s="1">
-        <v>10532624</v>
+        <v>10551851</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
@@ -8732,7 +8732,7 @@
         <v>21</v>
       </c>
       <c r="F408" s="1">
-        <v>26450958</v>
+        <v>26477623</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
@@ -8752,7 +8752,7 @@
         <v>9</v>
       </c>
       <c r="F409" s="1">
-        <v>2783399</v>
+        <v>2784075</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
@@ -8832,7 +8832,7 @@
         <v>21</v>
       </c>
       <c r="F413" s="1">
-        <v>313471418</v>
+        <v>313474984</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
@@ -8852,7 +8852,7 @@
         <v>9</v>
       </c>
       <c r="F414" s="1">
-        <v>10032450</v>
+        <v>10050927</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
@@ -8892,7 +8892,7 @@
         <v>21</v>
       </c>
       <c r="F416" s="1">
-        <v>25558418</v>
+        <v>25580244</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
@@ -8912,7 +8912,7 @@
         <v>9</v>
       </c>
       <c r="F417" s="1">
-        <v>2790670</v>
+        <v>2791276</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
@@ -8992,7 +8992,7 @@
         <v>21</v>
       </c>
       <c r="F421" s="1">
-        <v>319894560</v>
+        <v>319864300</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
@@ -9012,7 +9012,7 @@
         <v>9</v>
       </c>
       <c r="F422" s="1">
-        <v>10428149</v>
+        <v>10446779</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
@@ -9052,7 +9052,7 @@
         <v>21</v>
       </c>
       <c r="F424" s="1">
-        <v>26394805</v>
+        <v>26415704</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
@@ -9072,7 +9072,7 @@
         <v>9</v>
       </c>
       <c r="F425" s="1">
-        <v>2812082</v>
+        <v>2812533</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
@@ -9152,7 +9152,7 @@
         <v>21</v>
       </c>
       <c r="F429" s="1">
-        <v>307839301</v>
+        <v>307811796</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
@@ -9172,7 +9172,7 @@
         <v>9</v>
       </c>
       <c r="F430" s="1">
-        <v>10128821</v>
+        <v>10146026</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
@@ -9212,7 +9212,7 @@
         <v>21</v>
       </c>
       <c r="F432" s="1">
-        <v>25295990</v>
+        <v>25315082</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
@@ -9232,7 +9232,7 @@
         <v>9</v>
       </c>
       <c r="F433" s="1">
-        <v>2845944</v>
+        <v>2846386</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
@@ -9312,7 +9312,7 @@
         <v>21</v>
       </c>
       <c r="F437" s="1">
-        <v>317225253</v>
+        <v>317209855</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
@@ -9332,7 +9332,7 @@
         <v>9</v>
       </c>
       <c r="F438" s="1">
-        <v>10672363</v>
+        <v>10690476</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
@@ -9372,7 +9372,7 @@
         <v>21</v>
       </c>
       <c r="F440" s="1">
-        <v>26079391</v>
+        <v>26097978</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
@@ -9392,7 +9392,7 @@
         <v>9</v>
       </c>
       <c r="F441" s="1">
-        <v>3051926</v>
+        <v>3052337</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.25">
@@ -9472,7 +9472,7 @@
         <v>21</v>
       </c>
       <c r="F445" s="1">
-        <v>311054135</v>
+        <v>311034398</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
@@ -9492,7 +9492,7 @@
         <v>9</v>
       </c>
       <c r="F446" s="1">
-        <v>10763943</v>
+        <v>10783001</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
@@ -9532,7 +9532,7 @@
         <v>21</v>
       </c>
       <c r="F448" s="1">
-        <v>26265000</v>
+        <v>26282174</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
@@ -9552,7 +9552,7 @@
         <v>9</v>
       </c>
       <c r="F449" s="1">
-        <v>3142296</v>
+        <v>3142680</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
@@ -9632,7 +9632,7 @@
         <v>21</v>
       </c>
       <c r="F453" s="1">
-        <v>300026471</v>
+        <v>300058274</v>
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
@@ -9652,7 +9652,7 @@
         <v>9</v>
       </c>
       <c r="F454" s="1">
-        <v>10581926</v>
+        <v>10607307</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
@@ -9692,7 +9692,7 @@
         <v>21</v>
       </c>
       <c r="F456" s="1">
-        <v>25669724</v>
+        <v>25685065</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
@@ -9712,7 +9712,7 @@
         <v>9</v>
       </c>
       <c r="F457" s="1">
-        <v>3265686</v>
+        <v>3266049</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
@@ -9792,7 +9792,7 @@
         <v>21</v>
       </c>
       <c r="F461" s="1">
-        <v>310990747</v>
+        <v>311046785</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
@@ -9812,7 +9812,7 @@
         <v>9</v>
       </c>
       <c r="F462" s="1">
-        <v>11168781</v>
+        <v>11195326</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
@@ -9852,7 +9852,7 @@
         <v>21</v>
       </c>
       <c r="F464" s="1">
-        <v>26971343</v>
+        <v>26986752</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.25">
@@ -9872,7 +9872,7 @@
         <v>9</v>
       </c>
       <c r="F465" s="1">
-        <v>3734108</v>
+        <v>3734436</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
@@ -9952,7 +9952,7 @@
         <v>21</v>
       </c>
       <c r="F469" s="1">
-        <v>300192188</v>
+        <v>300280589</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
@@ -9972,7 +9972,7 @@
         <v>9</v>
       </c>
       <c r="F470" s="1">
-        <v>10857634</v>
+        <v>10894711</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
@@ -10012,7 +10012,7 @@
         <v>21</v>
       </c>
       <c r="F472" s="1">
-        <v>25867067</v>
+        <v>25880842</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
@@ -10032,7 +10032,7 @@
         <v>9</v>
       </c>
       <c r="F473" s="1">
-        <v>3692565</v>
+        <v>3692822</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
@@ -10112,7 +10112,7 @@
         <v>21</v>
       </c>
       <c r="F477" s="1">
-        <v>304620452</v>
+        <v>304664066</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
@@ -10132,7 +10132,7 @@
         <v>9</v>
       </c>
       <c r="F478" s="1">
-        <v>11149552</v>
+        <v>11179396</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
@@ -10172,7 +10172,7 @@
         <v>21</v>
       </c>
       <c r="F480" s="1">
-        <v>26167559</v>
+        <v>26180800</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
@@ -10192,7 +10192,7 @@
         <v>9</v>
       </c>
       <c r="F481" s="1">
-        <v>3826348</v>
+        <v>3826603</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.25">
@@ -10272,7 +10272,7 @@
         <v>21</v>
       </c>
       <c r="F485" s="1">
-        <v>297077008</v>
+        <v>297306327</v>
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
@@ -10292,7 +10292,7 @@
         <v>9</v>
       </c>
       <c r="F486" s="1">
-        <v>10950969</v>
+        <v>11020984</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.25">
@@ -10332,7 +10332,7 @@
         <v>21</v>
       </c>
       <c r="F488" s="1">
-        <v>24687748</v>
+        <v>24692322</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
@@ -10352,7 +10352,7 @@
         <v>9</v>
       </c>
       <c r="F489" s="1">
-        <v>3557715</v>
+        <v>3557952</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.25">
@@ -10432,7 +10432,7 @@
         <v>21</v>
       </c>
       <c r="F493" s="1">
-        <v>273788806</v>
+        <v>274024920</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
@@ -10452,7 +10452,7 @@
         <v>9</v>
       </c>
       <c r="F494" s="1">
-        <v>10098489</v>
+        <v>10158105</v>
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.25">
@@ -10492,7 +10492,7 @@
         <v>21</v>
       </c>
       <c r="F496" s="1">
-        <v>23458764</v>
+        <v>23464769</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.25">
@@ -10512,7 +10512,7 @@
         <v>9</v>
       </c>
       <c r="F497" s="1">
-        <v>3504821</v>
+        <v>3505029</v>
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.25">
@@ -10532,7 +10532,7 @@
         <v>21</v>
       </c>
       <c r="F498" s="1">
-        <v>123267356</v>
+        <v>123267355</v>
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.25">
@@ -10552,7 +10552,7 @@
         <v>9</v>
       </c>
       <c r="F499" s="1">
-        <v>40616915</v>
+        <v>40560521</v>
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.25">
@@ -10592,7 +10592,7 @@
         <v>21</v>
       </c>
       <c r="F501" s="1">
-        <v>303093645</v>
+        <v>303366120</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.25">
@@ -10612,7 +10612,7 @@
         <v>9</v>
       </c>
       <c r="F502" s="1">
-        <v>11436706</v>
+        <v>11498671</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.25">
@@ -10652,7 +10652,7 @@
         <v>21</v>
       </c>
       <c r="F504" s="1">
-        <v>26474598</v>
+        <v>26479328</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.25">
@@ -10672,7 +10672,7 @@
         <v>9</v>
       </c>
       <c r="F505" s="1">
-        <v>4194974</v>
+        <v>4195188</v>
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.25">
@@ -10712,7 +10712,7 @@
         <v>9</v>
       </c>
       <c r="F507" s="1">
-        <v>41776058</v>
+        <v>41776587</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.25">
@@ -10752,7 +10752,7 @@
         <v>21</v>
       </c>
       <c r="F509" s="1">
-        <v>294571474</v>
+        <v>295036312</v>
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.25">
@@ -10772,7 +10772,7 @@
         <v>9</v>
       </c>
       <c r="F510" s="1">
-        <v>11174448</v>
+        <v>11267703</v>
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.25">
@@ -10812,7 +10812,7 @@
         <v>21</v>
       </c>
       <c r="F512" s="1">
-        <v>25944631</v>
+        <v>25948712</v>
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.25">
@@ -10832,7 +10832,7 @@
         <v>9</v>
       </c>
       <c r="F513" s="1">
-        <v>4037170</v>
+        <v>4037369</v>
       </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.25">
@@ -10912,7 +10912,7 @@
         <v>21</v>
       </c>
       <c r="F517" s="1">
-        <v>297430057</v>
+        <v>297651155</v>
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.25">
@@ -10932,7 +10932,7 @@
         <v>9</v>
       </c>
       <c r="F518" s="1">
-        <v>11465941</v>
+        <v>11517029</v>
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.25">
@@ -10972,7 +10972,7 @@
         <v>21</v>
       </c>
       <c r="F520" s="1">
-        <v>26623252</v>
+        <v>26633972</v>
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.25">
@@ -10992,7 +10992,7 @@
         <v>9</v>
       </c>
       <c r="F521" s="1">
-        <v>4243436</v>
+        <v>4243627</v>
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.25">
@@ -11072,7 +11072,7 @@
         <v>21</v>
       </c>
       <c r="F525" s="1">
-        <v>289682563</v>
+        <v>289889674</v>
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.25">
@@ -11092,7 +11092,7 @@
         <v>9</v>
       </c>
       <c r="F526" s="1">
-        <v>11208761</v>
+        <v>11254913</v>
       </c>
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.25">
@@ -11132,7 +11132,7 @@
         <v>21</v>
       </c>
       <c r="F528" s="1">
-        <v>26158253</v>
+        <v>26161731</v>
       </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.25">
@@ -11152,7 +11152,7 @@
         <v>9</v>
       </c>
       <c r="F529" s="1">
-        <v>4176978</v>
+        <v>4177156</v>
       </c>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.25">
@@ -11232,7 +11232,7 @@
         <v>21</v>
       </c>
       <c r="F533" s="1">
-        <v>298120931</v>
+        <v>298357510</v>
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.25">
@@ -11252,7 +11252,7 @@
         <v>9</v>
       </c>
       <c r="F534" s="1">
-        <v>11688064</v>
+        <v>11736093</v>
       </c>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.25">
@@ -11292,7 +11292,7 @@
         <v>21</v>
       </c>
       <c r="F536" s="1">
-        <v>27406901</v>
+        <v>27416660</v>
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.25">
@@ -11312,7 +11312,7 @@
         <v>9</v>
       </c>
       <c r="F537" s="1">
-        <v>4622981</v>
+        <v>4623155</v>
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.25">
@@ -11392,7 +11392,7 @@
         <v>21</v>
       </c>
       <c r="F541" s="1">
-        <v>298197562</v>
+        <v>298407544</v>
       </c>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.25">
@@ -11412,7 +11412,7 @@
         <v>9</v>
       </c>
       <c r="F542" s="1">
-        <v>11728982</v>
+        <v>11775134</v>
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.25">
@@ -11452,7 +11452,7 @@
         <v>21</v>
       </c>
       <c r="F544" s="1">
-        <v>27204696</v>
+        <v>27213900</v>
       </c>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.25">
@@ -11472,7 +11472,7 @@
         <v>9</v>
       </c>
       <c r="F545" s="1">
-        <v>4908579</v>
+        <v>4908753</v>
       </c>
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.25">
@@ -11552,7 +11552,7 @@
         <v>21</v>
       </c>
       <c r="F549" s="1">
-        <v>276216949</v>
+        <v>276410258</v>
       </c>
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.25">
@@ -11572,7 +11572,7 @@
         <v>9</v>
       </c>
       <c r="F550" s="1">
-        <v>11454703</v>
+        <v>11498023</v>
       </c>
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.25">
@@ -11612,7 +11612,7 @@
         <v>21</v>
       </c>
       <c r="F552" s="1">
-        <v>26281750</v>
+        <v>26290124</v>
       </c>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.25">
@@ -11632,7 +11632,7 @@
         <v>9</v>
       </c>
       <c r="F553" s="1">
-        <v>4739213</v>
+        <v>4739375</v>
       </c>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.25">
@@ -11712,7 +11712,7 @@
         <v>21</v>
       </c>
       <c r="F557" s="1">
-        <v>303557414</v>
+        <v>303755477</v>
       </c>
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.25">
@@ -11732,7 +11732,7 @@
         <v>9</v>
       </c>
       <c r="F558" s="1">
-        <v>11894825</v>
+        <v>11938024</v>
       </c>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.25">
@@ -11772,7 +11772,7 @@
         <v>21</v>
       </c>
       <c r="F560" s="1">
-        <v>27510177</v>
+        <v>27518587</v>
       </c>
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.25">
@@ -11792,7 +11792,7 @@
         <v>9</v>
       </c>
       <c r="F561" s="1">
-        <v>4963052</v>
+        <v>4963217</v>
       </c>
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.25">
@@ -11872,7 +11872,7 @@
         <v>21</v>
       </c>
       <c r="F565" s="1">
-        <v>293266002</v>
+        <v>293450565</v>
       </c>
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.25">
@@ -11892,7 +11892,7 @@
         <v>9</v>
       </c>
       <c r="F566" s="1">
-        <v>11475443</v>
+        <v>11516191</v>
       </c>
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.25">
@@ -11932,7 +11932,7 @@
         <v>21</v>
       </c>
       <c r="F568" s="1">
-        <v>26299896</v>
+        <v>26308996</v>
       </c>
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.25">
@@ -11952,7 +11952,7 @@
         <v>9</v>
       </c>
       <c r="F569" s="1">
-        <v>4754486</v>
+        <v>4754641</v>
       </c>
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.25">
@@ -12032,7 +12032,7 @@
         <v>21</v>
       </c>
       <c r="F573" s="1">
-        <v>293582709</v>
+        <v>293667414</v>
       </c>
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.25">
@@ -12052,7 +12052,7 @@
         <v>9</v>
       </c>
       <c r="F574" s="1">
-        <v>11764740</v>
+        <v>11796402</v>
       </c>
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.25">
@@ -12092,7 +12092,7 @@
         <v>21</v>
       </c>
       <c r="F576" s="1">
-        <v>25982174</v>
+        <v>25991355</v>
       </c>
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.25">
@@ -12112,7 +12112,7 @@
         <v>9</v>
       </c>
       <c r="F577" s="1">
-        <v>4686751</v>
+        <v>4686882</v>
       </c>
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.25">
@@ -12192,7 +12192,7 @@
         <v>21</v>
       </c>
       <c r="F581" s="1">
-        <v>295999356</v>
+        <v>296097696</v>
       </c>
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.25">
@@ -12212,7 +12212,7 @@
         <v>9</v>
       </c>
       <c r="F582" s="1">
-        <v>12145647</v>
+        <v>12177186</v>
       </c>
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.25">
@@ -12252,7 +12252,7 @@
         <v>21</v>
       </c>
       <c r="F584" s="1">
-        <v>26528921</v>
+        <v>26537823</v>
       </c>
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.25">
@@ -12272,7 +12272,7 @@
         <v>9</v>
       </c>
       <c r="F585" s="1">
-        <v>4676294</v>
+        <v>4676444</v>
       </c>
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.25">
@@ -12352,7 +12352,7 @@
         <v>21</v>
       </c>
       <c r="F589" s="1">
-        <v>268881113</v>
+        <v>268958748</v>
       </c>
     </row>
     <row r="590" spans="1:6" x14ac:dyDescent="0.25">
@@ -12372,7 +12372,7 @@
         <v>9</v>
       </c>
       <c r="F590" s="1">
-        <v>11236648</v>
+        <v>11264285</v>
       </c>
     </row>
     <row r="591" spans="1:6" x14ac:dyDescent="0.25">
@@ -12412,7 +12412,7 @@
         <v>21</v>
       </c>
       <c r="F592" s="1">
-        <v>24572334</v>
+        <v>24580088</v>
       </c>
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.25">
@@ -12432,7 +12432,7 @@
         <v>9</v>
       </c>
       <c r="F593" s="1">
-        <v>4398011</v>
+        <v>4398133</v>
       </c>
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.25">
@@ -12512,7 +12512,7 @@
         <v>21</v>
       </c>
       <c r="F597" s="1">
-        <v>299862480</v>
+        <v>299961901</v>
       </c>
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.25">
@@ -12532,7 +12532,7 @@
         <v>9</v>
       </c>
       <c r="F598" s="1">
-        <v>12804302</v>
+        <v>12835628</v>
       </c>
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.25">
@@ -12572,7 +12572,7 @@
         <v>21</v>
       </c>
       <c r="F600" s="1">
-        <v>27360813</v>
+        <v>27369279</v>
       </c>
     </row>
     <row r="601" spans="1:6" x14ac:dyDescent="0.25">
@@ -12592,7 +12592,7 @@
         <v>9</v>
       </c>
       <c r="F601" s="1">
-        <v>4861945</v>
+        <v>4862084</v>
       </c>
     </row>
     <row r="602" spans="1:6" x14ac:dyDescent="0.25">
@@ -12612,7 +12612,7 @@
         <v>21</v>
       </c>
       <c r="F602" s="1">
-        <v>110646699</v>
+        <v>110598146</v>
       </c>
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.25">
@@ -12672,7 +12672,7 @@
         <v>21</v>
       </c>
       <c r="F605" s="1">
-        <v>288514082</v>
+        <v>288603712</v>
       </c>
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.25">
@@ -12692,7 +12692,7 @@
         <v>9</v>
       </c>
       <c r="F606" s="1">
-        <v>12573334</v>
+        <v>12603415</v>
       </c>
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.25">
@@ -12732,7 +12732,7 @@
         <v>21</v>
       </c>
       <c r="F608" s="1">
-        <v>27010049</v>
+        <v>27017866</v>
       </c>
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.25">
@@ -12752,7 +12752,7 @@
         <v>9</v>
       </c>
       <c r="F609" s="1">
-        <v>4877240</v>
+        <v>4877372</v>
       </c>
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.25">
@@ -12772,7 +12772,7 @@
         <v>21</v>
       </c>
       <c r="F610" s="1">
-        <v>116309543</v>
+        <v>116318512</v>
       </c>
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.25">
@@ -12832,7 +12832,7 @@
         <v>21</v>
       </c>
       <c r="F613" s="1">
-        <v>294794322</v>
+        <v>294862938</v>
       </c>
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.25">
@@ -12852,7 +12852,7 @@
         <v>9</v>
       </c>
       <c r="F614" s="1">
-        <v>12954459</v>
+        <v>12986938</v>
       </c>
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.25">
@@ -12892,7 +12892,7 @@
         <v>21</v>
       </c>
       <c r="F616" s="1">
-        <v>27573057</v>
+        <v>27580950</v>
       </c>
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.25">
@@ -12912,7 +12912,7 @@
         <v>9</v>
       </c>
       <c r="F617" s="1">
-        <v>5147230</v>
+        <v>5147358</v>
       </c>
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.25">
@@ -12932,7 +12932,7 @@
         <v>21</v>
       </c>
       <c r="F618" s="1">
-        <v>112480077</v>
+        <v>112472505</v>
       </c>
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.25">
@@ -12992,7 +12992,7 @@
         <v>21</v>
       </c>
       <c r="F621" s="1">
-        <v>285887310</v>
+        <v>285958501</v>
       </c>
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.25">
@@ -13012,7 +13012,7 @@
         <v>9</v>
       </c>
       <c r="F622" s="1">
-        <v>12723786</v>
+        <v>12754656</v>
       </c>
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.25">
@@ -13052,7 +13052,7 @@
         <v>21</v>
       </c>
       <c r="F624" s="1">
-        <v>26694479</v>
+        <v>26701928</v>
       </c>
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.25">
@@ -13072,7 +13072,7 @@
         <v>9</v>
       </c>
       <c r="F625" s="1">
-        <v>5229101</v>
+        <v>5229224</v>
       </c>
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.25">
@@ -13092,7 +13092,7 @@
         <v>21</v>
       </c>
       <c r="F626" s="1">
-        <v>115224162</v>
+        <v>115206785</v>
       </c>
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.25">
@@ -13152,7 +13152,7 @@
         <v>21</v>
       </c>
       <c r="F629" s="1">
-        <v>293184226</v>
+        <v>293292009</v>
       </c>
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.25">
@@ -13172,7 +13172,7 @@
         <v>9</v>
       </c>
       <c r="F630" s="1">
-        <v>13451424</v>
+        <v>13482380</v>
       </c>
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.25">
@@ -13212,7 +13212,7 @@
         <v>21</v>
       </c>
       <c r="F632" s="1">
-        <v>27601281</v>
+        <v>27604351</v>
       </c>
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.25">
@@ -13232,7 +13232,7 @@
         <v>9</v>
       </c>
       <c r="F633" s="1">
-        <v>5247710</v>
+        <v>5247828</v>
       </c>
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.25">
@@ -13252,7 +13252,7 @@
         <v>21</v>
       </c>
       <c r="F634" s="1">
-        <v>116216361</v>
+        <v>116220000</v>
       </c>
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.25">
@@ -13312,7 +13312,7 @@
         <v>21</v>
       </c>
       <c r="F637" s="1">
-        <v>288250041</v>
+        <v>288269159</v>
       </c>
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.25">
@@ -13332,7 +13332,7 @@
         <v>9</v>
       </c>
       <c r="F638" s="1">
-        <v>13301745</v>
+        <v>13327684</v>
       </c>
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.25">
@@ -13372,7 +13372,7 @@
         <v>21</v>
       </c>
       <c r="F640" s="1">
-        <v>28265020</v>
+        <v>28268271</v>
       </c>
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.25">
@@ -13392,7 +13392,7 @@
         <v>9</v>
       </c>
       <c r="F641" s="1">
-        <v>5530477</v>
+        <v>5530602</v>
       </c>
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.25">
@@ -13412,7 +13412,7 @@
         <v>21</v>
       </c>
       <c r="F642" s="1">
-        <v>111874566</v>
+        <v>111807367</v>
       </c>
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.25">
@@ -13472,7 +13472,7 @@
         <v>21</v>
       </c>
       <c r="F645" s="1">
-        <v>283681126</v>
+        <v>283752444</v>
       </c>
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.25">
@@ -13492,7 +13492,7 @@
         <v>9</v>
       </c>
       <c r="F646" s="1">
-        <v>12923857</v>
+        <v>12954072</v>
       </c>
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.25">
@@ -13532,7 +13532,7 @@
         <v>21</v>
       </c>
       <c r="F648" s="1">
-        <v>26913657</v>
+        <v>26920523</v>
       </c>
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.25">
@@ -13552,7 +13552,7 @@
         <v>9</v>
       </c>
       <c r="F649" s="1">
-        <v>5370148</v>
+        <v>5370079</v>
       </c>
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.25">
@@ -13572,7 +13572,7 @@
         <v>21</v>
       </c>
       <c r="F650" s="1">
-        <v>116153256</v>
+        <v>116032514</v>
       </c>
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.25">
@@ -13632,7 +13632,7 @@
         <v>21</v>
       </c>
       <c r="F653" s="1">
-        <v>292794612</v>
+        <v>292879105</v>
       </c>
     </row>
     <row r="654" spans="1:6" x14ac:dyDescent="0.25">
@@ -13652,7 +13652,7 @@
         <v>9</v>
       </c>
       <c r="F654" s="1">
-        <v>14110656</v>
+        <v>14142687</v>
       </c>
     </row>
     <row r="655" spans="1:6" x14ac:dyDescent="0.25">
@@ -13692,7 +13692,7 @@
         <v>21</v>
       </c>
       <c r="F656" s="1">
-        <v>27104739</v>
+        <v>27111696</v>
       </c>
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.25">
@@ -13712,7 +13712,7 @@
         <v>9</v>
       </c>
       <c r="F657" s="1">
-        <v>5420098</v>
+        <v>5420214</v>
       </c>
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.25">
@@ -13732,7 +13732,7 @@
         <v>21</v>
       </c>
       <c r="F658" s="1">
-        <v>106817518</v>
+        <v>106651377</v>
       </c>
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.25">
@@ -13752,7 +13752,7 @@
         <v>9</v>
       </c>
       <c r="F659" s="1">
-        <v>43285176</v>
+        <v>43284793</v>
       </c>
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.25">
@@ -13792,7 +13792,7 @@
         <v>21</v>
       </c>
       <c r="F661" s="1">
-        <v>285987804</v>
+        <v>286046402</v>
       </c>
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.25">
@@ -13812,7 +13812,7 @@
         <v>9</v>
       </c>
       <c r="F662" s="1">
-        <v>13745274</v>
+        <v>13754557</v>
       </c>
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.25">
@@ -13852,7 +13852,7 @@
         <v>21</v>
       </c>
       <c r="F664" s="1">
-        <v>26233165</v>
+        <v>26234849</v>
       </c>
     </row>
     <row r="665" spans="1:6" x14ac:dyDescent="0.25">
@@ -13872,7 +13872,7 @@
         <v>9</v>
       </c>
       <c r="F665" s="1">
-        <v>5304487</v>
+        <v>5304471</v>
       </c>
     </row>
     <row r="666" spans="1:6" x14ac:dyDescent="0.25">
@@ -13892,7 +13892,7 @@
         <v>21</v>
       </c>
       <c r="F666" s="1">
-        <v>113158824</v>
+        <v>112968887</v>
       </c>
     </row>
     <row r="667" spans="1:6" x14ac:dyDescent="0.25">
@@ -13952,7 +13952,7 @@
         <v>21</v>
       </c>
       <c r="F669" s="1">
-        <v>292934751</v>
+        <v>292986170</v>
       </c>
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="0.25">
@@ -13972,7 +13972,7 @@
         <v>9</v>
       </c>
       <c r="F670" s="1">
-        <v>14749571</v>
+        <v>14756412</v>
       </c>
     </row>
     <row r="671" spans="1:6" x14ac:dyDescent="0.25">
@@ -14012,7 +14012,7 @@
         <v>21</v>
       </c>
       <c r="F672" s="1">
-        <v>27011029</v>
+        <v>27011549</v>
       </c>
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.25">
@@ -14032,7 +14032,7 @@
         <v>9</v>
       </c>
       <c r="F673" s="1">
-        <v>5381618</v>
+        <v>5381875</v>
       </c>
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.25">
@@ -14052,7 +14052,7 @@
         <v>21</v>
       </c>
       <c r="F674" s="1">
-        <v>113282870</v>
+        <v>113288046</v>
       </c>
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.25">
@@ -14112,7 +14112,7 @@
         <v>21</v>
       </c>
       <c r="F677" s="1">
-        <v>288423599</v>
+        <v>288472413</v>
       </c>
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.25">
@@ -14132,7 +14132,7 @@
         <v>9</v>
       </c>
       <c r="F678" s="1">
-        <v>14698515</v>
+        <v>14704704</v>
       </c>
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.25">
@@ -14172,7 +14172,7 @@
         <v>21</v>
       </c>
       <c r="F680" s="1">
-        <v>26615377</v>
+        <v>26622181</v>
       </c>
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.25">
@@ -14192,7 +14192,7 @@
         <v>9</v>
       </c>
       <c r="F681" s="1">
-        <v>5406270</v>
+        <v>5406381</v>
       </c>
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.25">
@@ -14212,7 +14212,7 @@
         <v>21</v>
       </c>
       <c r="F682" s="1">
-        <v>100524379</v>
+        <v>100508072</v>
       </c>
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.25">
@@ -14272,7 +14272,7 @@
         <v>21</v>
       </c>
       <c r="F685" s="1">
-        <v>262934520</v>
+        <v>262976716</v>
       </c>
     </row>
     <row r="686" spans="1:6" x14ac:dyDescent="0.25">
@@ -14292,7 +14292,7 @@
         <v>9</v>
       </c>
       <c r="F686" s="1">
-        <v>13641505</v>
+        <v>13647581</v>
       </c>
     </row>
     <row r="687" spans="1:6" x14ac:dyDescent="0.25">
@@ -14332,7 +14332,7 @@
         <v>21</v>
       </c>
       <c r="F688" s="1">
-        <v>23943565</v>
+        <v>23949135</v>
       </c>
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.25">
@@ -14352,7 +14352,7 @@
         <v>9</v>
       </c>
       <c r="F689" s="1">
-        <v>5032837</v>
+        <v>5032926</v>
       </c>
     </row>
     <row r="690" spans="1:6" x14ac:dyDescent="0.25">
@@ -14372,7 +14372,7 @@
         <v>21</v>
       </c>
       <c r="F690" s="1">
-        <v>101983085</v>
+        <v>101992368</v>
       </c>
     </row>
     <row r="691" spans="1:6" x14ac:dyDescent="0.25">
@@ -14432,7 +14432,7 @@
         <v>21</v>
       </c>
       <c r="F693" s="1">
-        <v>294755614</v>
+        <v>294805521</v>
       </c>
     </row>
     <row r="694" spans="1:6" x14ac:dyDescent="0.25">
@@ -14452,7 +14452,7 @@
         <v>9</v>
       </c>
       <c r="F694" s="1">
-        <v>15776486</v>
+        <v>15781122</v>
       </c>
     </row>
     <row r="695" spans="1:6" x14ac:dyDescent="0.25">
@@ -14492,7 +14492,7 @@
         <v>21</v>
       </c>
       <c r="F696" s="1">
-        <v>26913064</v>
+        <v>26912706</v>
       </c>
     </row>
     <row r="697" spans="1:6" x14ac:dyDescent="0.25">
@@ -14512,7 +14512,7 @@
         <v>9</v>
       </c>
       <c r="F697" s="1">
-        <v>5581138</v>
+        <v>5575799</v>
       </c>
     </row>
     <row r="698" spans="1:6" x14ac:dyDescent="0.25">
@@ -14532,7 +14532,7 @@
         <v>21</v>
       </c>
       <c r="F698" s="1">
-        <v>113075342</v>
+        <v>113075702</v>
       </c>
     </row>
     <row r="699" spans="1:6" x14ac:dyDescent="0.25">
@@ -14592,7 +14592,7 @@
         <v>21</v>
       </c>
       <c r="F701" s="1">
-        <v>287710919</v>
+        <v>287779254</v>
       </c>
     </row>
     <row r="702" spans="1:6" x14ac:dyDescent="0.25">
@@ -14612,7 +14612,7 @@
         <v>9</v>
       </c>
       <c r="F702" s="1">
-        <v>15371134</v>
+        <v>15379566</v>
       </c>
     </row>
     <row r="703" spans="1:6" x14ac:dyDescent="0.25">
@@ -14652,7 +14652,7 @@
         <v>21</v>
       </c>
       <c r="F704" s="1">
-        <v>25633959</v>
+        <v>25602183</v>
       </c>
     </row>
     <row r="705" spans="1:6" x14ac:dyDescent="0.25">
@@ -14672,7 +14672,7 @@
         <v>9</v>
       </c>
       <c r="F705" s="1">
-        <v>5042122</v>
+        <v>5025055</v>
       </c>
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.25">
@@ -14692,7 +14692,7 @@
         <v>21</v>
       </c>
       <c r="F706" s="1">
-        <v>117233925</v>
+        <v>117224384</v>
       </c>
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.25">
@@ -14752,7 +14752,7 @@
         <v>21</v>
       </c>
       <c r="F709" s="1">
-        <v>292326744</v>
+        <v>292458900</v>
       </c>
     </row>
     <row r="710" spans="1:6" x14ac:dyDescent="0.25">
@@ -14772,7 +14772,7 @@
         <v>9</v>
       </c>
       <c r="F710" s="1">
-        <v>15570201</v>
+        <v>15599743</v>
       </c>
     </row>
     <row r="711" spans="1:6" x14ac:dyDescent="0.25">
@@ -14812,7 +14812,7 @@
         <v>21</v>
       </c>
       <c r="F712" s="1">
-        <v>26307012</v>
+        <v>26264258</v>
       </c>
     </row>
     <row r="713" spans="1:6" x14ac:dyDescent="0.25">
@@ -14832,7 +14832,7 @@
         <v>9</v>
       </c>
       <c r="F713" s="1">
-        <v>5082768</v>
+        <v>5070057</v>
       </c>
     </row>
     <row r="714" spans="1:6" x14ac:dyDescent="0.25">
@@ -14912,7 +14912,7 @@
         <v>21</v>
       </c>
       <c r="F717" s="1">
-        <v>282961532</v>
+        <v>283354176</v>
       </c>
     </row>
     <row r="718" spans="1:6" x14ac:dyDescent="0.25">
@@ -14932,7 +14932,7 @@
         <v>9</v>
       </c>
       <c r="F718" s="1">
-        <v>15176142</v>
+        <v>15190968</v>
       </c>
     </row>
     <row r="719" spans="1:6" x14ac:dyDescent="0.25">
@@ -14972,7 +14972,7 @@
         <v>21</v>
       </c>
       <c r="F720" s="1">
-        <v>25149412</v>
+        <v>25116475</v>
       </c>
     </row>
     <row r="721" spans="1:6" x14ac:dyDescent="0.25">
@@ -14992,7 +14992,7 @@
         <v>9</v>
       </c>
       <c r="F721" s="1">
-        <v>5114712</v>
+        <v>5105447</v>
       </c>
     </row>
     <row r="722" spans="1:6" x14ac:dyDescent="0.25">
@@ -15012,7 +15012,7 @@
         <v>21</v>
       </c>
       <c r="F722" s="1">
-        <v>121286212</v>
+        <v>121272614</v>
       </c>
     </row>
     <row r="723" spans="1:6" x14ac:dyDescent="0.25">
@@ -15072,7 +15072,7 @@
         <v>21</v>
       </c>
       <c r="F725" s="1">
-        <v>289727194</v>
+        <v>289799938</v>
       </c>
     </row>
     <row r="726" spans="1:6" x14ac:dyDescent="0.25">
@@ -15092,7 +15092,7 @@
         <v>9</v>
       </c>
       <c r="F726" s="1">
-        <v>15199350</v>
+        <v>15209576</v>
       </c>
     </row>
     <row r="727" spans="1:6" x14ac:dyDescent="0.25">
@@ -15132,7 +15132,7 @@
         <v>21</v>
       </c>
       <c r="F728" s="1">
-        <v>27083436</v>
+        <v>27045386</v>
       </c>
     </row>
     <row r="729" spans="1:6" x14ac:dyDescent="0.25">
@@ -15152,7 +15152,7 @@
         <v>9</v>
       </c>
       <c r="F729" s="1">
-        <v>5549593</v>
+        <v>5541714</v>
       </c>
     </row>
     <row r="730" spans="1:6" x14ac:dyDescent="0.25">
@@ -15172,7 +15172,7 @@
         <v>21</v>
       </c>
       <c r="F730" s="1">
-        <v>123406108</v>
+        <v>123399474</v>
       </c>
     </row>
     <row r="731" spans="1:6" x14ac:dyDescent="0.25">
@@ -15232,7 +15232,7 @@
         <v>21</v>
       </c>
       <c r="F733" s="1">
-        <v>289630017</v>
+        <v>289724608</v>
       </c>
     </row>
     <row r="734" spans="1:6" x14ac:dyDescent="0.25">
@@ -15252,7 +15252,7 @@
         <v>9</v>
       </c>
       <c r="F734" s="1">
-        <v>15036882</v>
+        <v>15055899</v>
       </c>
     </row>
     <row r="735" spans="1:6" x14ac:dyDescent="0.25">
@@ -15292,7 +15292,7 @@
         <v>21</v>
       </c>
       <c r="F736" s="1">
-        <v>27083219</v>
+        <v>27043521</v>
       </c>
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="0.25">
@@ -15312,7 +15312,7 @@
         <v>9</v>
       </c>
       <c r="F737" s="1">
-        <v>5531852</v>
+        <v>5525186</v>
       </c>
     </row>
     <row r="738" spans="1:6" x14ac:dyDescent="0.25">
@@ -15392,7 +15392,7 @@
         <v>21</v>
       </c>
       <c r="F741" s="1">
-        <v>281434897</v>
+        <v>281523476</v>
       </c>
     </row>
     <row r="742" spans="1:6" x14ac:dyDescent="0.25">
@@ -15412,7 +15412,7 @@
         <v>9</v>
       </c>
       <c r="F742" s="1">
-        <v>14425018</v>
+        <v>14440582</v>
       </c>
     </row>
     <row r="743" spans="1:6" x14ac:dyDescent="0.25">
@@ -15452,7 +15452,7 @@
         <v>21</v>
       </c>
       <c r="F744" s="1">
-        <v>26094926</v>
+        <v>26059885</v>
       </c>
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.25">
@@ -15472,7 +15472,7 @@
         <v>9</v>
       </c>
       <c r="F745" s="1">
-        <v>5225974</v>
+        <v>5220699</v>
       </c>
     </row>
     <row r="746" spans="1:6" x14ac:dyDescent="0.25">
@@ -15492,7 +15492,7 @@
         <v>21</v>
       </c>
       <c r="F746" s="1">
-        <v>115405431</v>
+        <v>115401695</v>
       </c>
     </row>
     <row r="747" spans="1:6" x14ac:dyDescent="0.25">
@@ -15552,7 +15552,7 @@
         <v>21</v>
       </c>
       <c r="F749" s="1">
-        <v>289554037</v>
+        <v>289622233</v>
       </c>
     </row>
     <row r="750" spans="1:6" x14ac:dyDescent="0.25">
@@ -15572,7 +15572,7 @@
         <v>9</v>
       </c>
       <c r="F750" s="1">
-        <v>14685205</v>
+        <v>14689369</v>
       </c>
     </row>
     <row r="751" spans="1:6" x14ac:dyDescent="0.25">
@@ -15612,7 +15612,7 @@
         <v>21</v>
       </c>
       <c r="F752" s="1">
-        <v>27674637</v>
+        <v>27646520</v>
       </c>
     </row>
     <row r="753" spans="1:6" x14ac:dyDescent="0.25">
@@ -15632,7 +15632,7 @@
         <v>9</v>
       </c>
       <c r="F753" s="1">
-        <v>5410673</v>
+        <v>5406151</v>
       </c>
     </row>
     <row r="754" spans="1:6" x14ac:dyDescent="0.25">
@@ -15652,7 +15652,7 @@
         <v>21</v>
       </c>
       <c r="F754" s="1">
-        <v>105693326</v>
+        <v>105735295</v>
       </c>
     </row>
     <row r="755" spans="1:6" x14ac:dyDescent="0.25">
@@ -15712,7 +15712,7 @@
         <v>21</v>
       </c>
       <c r="F757" s="1">
-        <v>281653619</v>
+        <v>281715770</v>
       </c>
     </row>
     <row r="758" spans="1:6" x14ac:dyDescent="0.25">
@@ -15732,7 +15732,7 @@
         <v>9</v>
       </c>
       <c r="F758" s="1">
-        <v>14450831</v>
+        <v>14454573</v>
       </c>
     </row>
     <row r="759" spans="1:6" x14ac:dyDescent="0.25">
@@ -15772,7 +15772,7 @@
         <v>21</v>
       </c>
       <c r="F760" s="1">
-        <v>27028084</v>
+        <v>27000083</v>
       </c>
     </row>
     <row r="761" spans="1:6" x14ac:dyDescent="0.25">
@@ -15792,7 +15792,7 @@
         <v>9</v>
       </c>
       <c r="F761" s="1">
-        <v>5330165</v>
+        <v>5325890</v>
       </c>
     </row>
     <row r="762" spans="1:6" x14ac:dyDescent="0.25">
@@ -15812,7 +15812,7 @@
         <v>21</v>
       </c>
       <c r="F762" s="1">
-        <v>112668130</v>
+        <v>112701896</v>
       </c>
     </row>
     <row r="763" spans="1:6" x14ac:dyDescent="0.25">
@@ -15872,7 +15872,7 @@
         <v>21</v>
       </c>
       <c r="F765" s="1">
-        <v>283380470</v>
+        <v>283416865</v>
       </c>
     </row>
     <row r="766" spans="1:6" x14ac:dyDescent="0.25">
@@ -15892,7 +15892,7 @@
         <v>9</v>
       </c>
       <c r="F766" s="1">
-        <v>13973066</v>
+        <v>13976923</v>
       </c>
     </row>
     <row r="767" spans="1:6" x14ac:dyDescent="0.25">
@@ -15932,7 +15932,7 @@
         <v>21</v>
       </c>
       <c r="F768" s="1">
-        <v>27535431</v>
+        <v>27505006</v>
       </c>
     </row>
     <row r="769" spans="1:6" x14ac:dyDescent="0.25">
@@ -15952,7 +15952,7 @@
         <v>9</v>
       </c>
       <c r="F769" s="1">
-        <v>5349861</v>
+        <v>5345894</v>
       </c>
     </row>
     <row r="770" spans="1:6" x14ac:dyDescent="0.25">
@@ -15972,7 +15972,7 @@
         <v>21</v>
       </c>
       <c r="F770" s="1">
-        <v>109681328</v>
+        <v>109681329</v>
       </c>
     </row>
     <row r="771" spans="1:6" x14ac:dyDescent="0.25">
@@ -16032,7 +16032,7 @@
         <v>21</v>
       </c>
       <c r="F773" s="1">
-        <v>277519819</v>
+        <v>277652599</v>
       </c>
     </row>
     <row r="774" spans="1:6" x14ac:dyDescent="0.25">
@@ -16052,7 +16052,7 @@
         <v>9</v>
       </c>
       <c r="F774" s="1">
-        <v>14006859</v>
+        <v>14001258</v>
       </c>
     </row>
     <row r="775" spans="1:6" x14ac:dyDescent="0.25">
@@ -16092,7 +16092,7 @@
         <v>21</v>
       </c>
       <c r="F776" s="1">
-        <v>27458600</v>
+        <v>27428569</v>
       </c>
     </row>
     <row r="777" spans="1:6" x14ac:dyDescent="0.25">
@@ -16112,7 +16112,7 @@
         <v>9</v>
       </c>
       <c r="F777" s="1">
-        <v>5228730</v>
+        <v>5224745</v>
       </c>
     </row>
     <row r="778" spans="1:6" x14ac:dyDescent="0.25">
@@ -16132,7 +16132,7 @@
         <v>21</v>
       </c>
       <c r="F778" s="1">
-        <v>101595065</v>
+        <v>101591666</v>
       </c>
     </row>
     <row r="779" spans="1:6" x14ac:dyDescent="0.25">
@@ -16152,7 +16152,7 @@
         <v>9</v>
       </c>
       <c r="F779" s="1">
-        <v>45505139</v>
+        <v>45504807</v>
       </c>
     </row>
     <row r="780" spans="1:6" x14ac:dyDescent="0.25">
@@ -16192,7 +16192,7 @@
         <v>21</v>
       </c>
       <c r="F781" s="1">
-        <v>261525290</v>
+        <v>261664352</v>
       </c>
     </row>
     <row r="782" spans="1:6" x14ac:dyDescent="0.25">
@@ -16212,7 +16212,7 @@
         <v>9</v>
       </c>
       <c r="F782" s="1">
-        <v>13520149</v>
+        <v>13515232</v>
       </c>
     </row>
     <row r="783" spans="1:6" x14ac:dyDescent="0.25">
@@ -16252,7 +16252,7 @@
         <v>21</v>
       </c>
       <c r="F784" s="1">
-        <v>25729530</v>
+        <v>25703906</v>
       </c>
     </row>
     <row r="785" spans="1:6" x14ac:dyDescent="0.25">
@@ -16272,7 +16272,7 @@
         <v>9</v>
       </c>
       <c r="F785" s="1">
-        <v>4804308</v>
+        <v>4800999</v>
       </c>
     </row>
     <row r="786" spans="1:6" x14ac:dyDescent="0.25">
@@ -16292,7 +16292,7 @@
         <v>21</v>
       </c>
       <c r="F786" s="1">
-        <v>111974039</v>
+        <v>111965628</v>
       </c>
     </row>
     <row r="787" spans="1:6" x14ac:dyDescent="0.25">
@@ -16312,7 +16312,7 @@
         <v>9</v>
       </c>
       <c r="F787" s="1">
-        <v>50566861</v>
+        <v>50567539</v>
       </c>
     </row>
     <row r="788" spans="1:6" x14ac:dyDescent="0.25">
@@ -16352,7 +16352,7 @@
         <v>21</v>
       </c>
       <c r="F789" s="1">
-        <v>282760536</v>
+        <v>282798312</v>
       </c>
     </row>
     <row r="790" spans="1:6" x14ac:dyDescent="0.25">
@@ -16372,7 +16372,7 @@
         <v>9</v>
       </c>
       <c r="F790" s="1">
-        <v>14433991</v>
+        <v>14429394</v>
       </c>
     </row>
     <row r="791" spans="1:6" x14ac:dyDescent="0.25">
@@ -16412,7 +16412,7 @@
         <v>21</v>
       </c>
       <c r="F792" s="1">
-        <v>27687590</v>
+        <v>27661632</v>
       </c>
     </row>
     <row r="793" spans="1:6" x14ac:dyDescent="0.25">
@@ -16432,7 +16432,7 @@
         <v>9</v>
       </c>
       <c r="F793" s="1">
-        <v>5348678</v>
+        <v>5345511</v>
       </c>
     </row>
     <row r="794" spans="1:6" x14ac:dyDescent="0.25">
@@ -16452,7 +16452,7 @@
         <v>21</v>
       </c>
       <c r="F794" s="1">
-        <v>102156910</v>
+        <v>102156913</v>
       </c>
     </row>
     <row r="795" spans="1:6" x14ac:dyDescent="0.25">
@@ -16472,7 +16472,7 @@
         <v>9</v>
       </c>
       <c r="F795" s="1">
-        <v>47770404</v>
+        <v>47770403</v>
       </c>
     </row>
     <row r="796" spans="1:6" x14ac:dyDescent="0.25">
@@ -16512,7 +16512,7 @@
         <v>21</v>
       </c>
       <c r="F797" s="1">
-        <v>269893131</v>
+        <v>269930453</v>
       </c>
     </row>
     <row r="798" spans="1:6" x14ac:dyDescent="0.25">
@@ -16532,7 +16532,7 @@
         <v>9</v>
       </c>
       <c r="F798" s="1">
-        <v>13640494</v>
+        <v>13636319</v>
       </c>
     </row>
     <row r="799" spans="1:6" x14ac:dyDescent="0.25">
@@ -16572,7 +16572,7 @@
         <v>21</v>
       </c>
       <c r="F800" s="1">
-        <v>26386447</v>
+        <v>26362299</v>
       </c>
     </row>
     <row r="801" spans="1:6" x14ac:dyDescent="0.25">
@@ -16592,7 +16592,7 @@
         <v>9</v>
       </c>
       <c r="F801" s="1">
-        <v>4917129</v>
+        <v>4914472</v>
       </c>
     </row>
     <row r="802" spans="1:6" x14ac:dyDescent="0.25">
@@ -16612,7 +16612,7 @@
         <v>21</v>
       </c>
       <c r="F802" s="1">
-        <v>111172559</v>
+        <v>111172615</v>
       </c>
     </row>
     <row r="803" spans="1:6" x14ac:dyDescent="0.25">
@@ -16632,7 +16632,7 @@
         <v>9</v>
       </c>
       <c r="F803" s="1">
-        <v>50009631</v>
+        <v>50009629</v>
       </c>
     </row>
     <row r="804" spans="1:6" x14ac:dyDescent="0.25">
@@ -16672,7 +16672,7 @@
         <v>21</v>
       </c>
       <c r="F805" s="1">
-        <v>271589518</v>
+        <v>271624644</v>
       </c>
     </row>
     <row r="806" spans="1:6" x14ac:dyDescent="0.25">
@@ -16692,7 +16692,7 @@
         <v>9</v>
       </c>
       <c r="F806" s="1">
-        <v>13720224</v>
+        <v>13712690</v>
       </c>
     </row>
     <row r="807" spans="1:6" x14ac:dyDescent="0.25">
@@ -16732,7 +16732,7 @@
         <v>21</v>
       </c>
       <c r="F808" s="1">
-        <v>26927937</v>
+        <v>26903564</v>
       </c>
     </row>
     <row r="809" spans="1:6" x14ac:dyDescent="0.25">
@@ -16752,7 +16752,7 @@
         <v>9</v>
       </c>
       <c r="F809" s="1">
-        <v>4905046</v>
+        <v>4902404</v>
       </c>
     </row>
     <row r="810" spans="1:6" x14ac:dyDescent="0.25">
@@ -16772,7 +16772,7 @@
         <v>21</v>
       </c>
       <c r="F810" s="1">
-        <v>98048969</v>
+        <v>98049134</v>
       </c>
     </row>
     <row r="811" spans="1:6" x14ac:dyDescent="0.25">
@@ -16832,7 +16832,7 @@
         <v>21</v>
       </c>
       <c r="F813" s="1">
-        <v>266001670</v>
+        <v>266058787</v>
       </c>
     </row>
     <row r="814" spans="1:6" x14ac:dyDescent="0.25">
@@ -16852,7 +16852,7 @@
         <v>9</v>
       </c>
       <c r="F814" s="1">
-        <v>13177315</v>
+        <v>13171758</v>
       </c>
     </row>
     <row r="815" spans="1:6" x14ac:dyDescent="0.25">
@@ -16892,7 +16892,7 @@
         <v>21</v>
       </c>
       <c r="F816" s="1">
-        <v>25603071</v>
+        <v>25575052</v>
       </c>
     </row>
     <row r="817" spans="1:6" x14ac:dyDescent="0.25">
@@ -16912,7 +16912,7 @@
         <v>9</v>
       </c>
       <c r="F817" s="1">
-        <v>4704240</v>
+        <v>4701752</v>
       </c>
     </row>
     <row r="818" spans="1:6" x14ac:dyDescent="0.25">
@@ -16932,7 +16932,7 @@
         <v>21</v>
       </c>
       <c r="F818" s="1">
-        <v>103362187</v>
+        <v>103362188</v>
       </c>
     </row>
     <row r="819" spans="1:6" x14ac:dyDescent="0.25">
@@ -16952,7 +16952,7 @@
         <v>9</v>
       </c>
       <c r="F819" s="1">
-        <v>49150435</v>
+        <v>49150434</v>
       </c>
     </row>
     <row r="820" spans="1:6" x14ac:dyDescent="0.25">
@@ -16992,7 +16992,7 @@
         <v>21</v>
       </c>
       <c r="F821" s="1">
-        <v>260675560</v>
+        <v>260709544</v>
       </c>
     </row>
     <row r="822" spans="1:6" x14ac:dyDescent="0.25">
@@ -17012,7 +17012,7 @@
         <v>9</v>
       </c>
       <c r="F822" s="1">
-        <v>13731336</v>
+        <v>13727371</v>
       </c>
     </row>
     <row r="823" spans="1:6" x14ac:dyDescent="0.25">
@@ -17052,7 +17052,7 @@
         <v>21</v>
       </c>
       <c r="F824" s="1">
-        <v>26189345</v>
+        <v>26165518</v>
       </c>
     </row>
     <row r="825" spans="1:6" x14ac:dyDescent="0.25">
@@ -17072,7 +17072,7 @@
         <v>9</v>
       </c>
       <c r="F825" s="1">
-        <v>4956774</v>
+        <v>4954352</v>
       </c>
     </row>
     <row r="826" spans="1:6" x14ac:dyDescent="0.25">
@@ -17092,7 +17092,7 @@
         <v>21</v>
       </c>
       <c r="F826" s="1">
-        <v>106467143</v>
+        <v>106467138</v>
       </c>
     </row>
     <row r="827" spans="1:6" x14ac:dyDescent="0.25">
@@ -17152,7 +17152,7 @@
         <v>21</v>
       </c>
       <c r="F829" s="1">
-        <v>263686292</v>
+        <v>263716320</v>
       </c>
     </row>
     <row r="830" spans="1:6" x14ac:dyDescent="0.25">
@@ -17172,7 +17172,7 @@
         <v>9</v>
       </c>
       <c r="F830" s="1">
-        <v>13523049</v>
+        <v>13516245</v>
       </c>
     </row>
     <row r="831" spans="1:6" x14ac:dyDescent="0.25">
@@ -17212,7 +17212,7 @@
         <v>21</v>
       </c>
       <c r="F832" s="1">
-        <v>26613218</v>
+        <v>26592983</v>
       </c>
     </row>
     <row r="833" spans="1:6" x14ac:dyDescent="0.25">
@@ -17232,7 +17232,7 @@
         <v>9</v>
       </c>
       <c r="F833" s="1">
-        <v>4796114</v>
+        <v>4793594</v>
       </c>
     </row>
     <row r="834" spans="1:6" x14ac:dyDescent="0.25">
@@ -17252,7 +17252,7 @@
         <v>21</v>
       </c>
       <c r="F834" s="1">
-        <v>98243352</v>
+        <v>98243357</v>
       </c>
     </row>
     <row r="835" spans="1:6" x14ac:dyDescent="0.25">
@@ -17272,7 +17272,7 @@
         <v>9</v>
       </c>
       <c r="F835" s="1">
-        <v>45795152</v>
+        <v>45795150</v>
       </c>
     </row>
     <row r="836" spans="1:6" x14ac:dyDescent="0.25">
@@ -17312,7 +17312,7 @@
         <v>21</v>
       </c>
       <c r="F837" s="1">
-        <v>267920609</v>
+        <v>267954516</v>
       </c>
     </row>
     <row r="838" spans="1:6" x14ac:dyDescent="0.25">
@@ -17332,7 +17332,7 @@
         <v>9</v>
       </c>
       <c r="F838" s="1">
-        <v>13008102</v>
+        <v>13003925</v>
       </c>
     </row>
     <row r="839" spans="1:6" x14ac:dyDescent="0.25">
@@ -17372,7 +17372,7 @@
         <v>21</v>
       </c>
       <c r="F840" s="1">
-        <v>26094006</v>
+        <v>26092909</v>
       </c>
     </row>
     <row r="841" spans="1:6" x14ac:dyDescent="0.25">
@@ -17392,7 +17392,7 @@
         <v>9</v>
       </c>
       <c r="F841" s="1">
-        <v>4711972</v>
+        <v>4711464</v>
       </c>
     </row>
     <row r="842" spans="1:6" x14ac:dyDescent="0.25">
@@ -17412,7 +17412,7 @@
         <v>21</v>
       </c>
       <c r="F842" s="1">
-        <v>104899394</v>
+        <v>104864403</v>
       </c>
     </row>
     <row r="843" spans="1:6" x14ac:dyDescent="0.25">
@@ -17432,7 +17432,7 @@
         <v>9</v>
       </c>
       <c r="F843" s="1">
-        <v>50360210</v>
+        <v>50360211</v>
       </c>
     </row>
     <row r="844" spans="1:6" x14ac:dyDescent="0.25">
@@ -17472,7 +17472,7 @@
         <v>21</v>
       </c>
       <c r="F845" s="1">
-        <v>280381856</v>
+        <v>280400874</v>
       </c>
     </row>
     <row r="846" spans="1:6" x14ac:dyDescent="0.25">
@@ -17492,7 +17492,7 @@
         <v>9</v>
       </c>
       <c r="F846" s="1">
-        <v>14115913</v>
+        <v>14108907</v>
       </c>
     </row>
     <row r="847" spans="1:6" x14ac:dyDescent="0.25">
@@ -17532,7 +17532,7 @@
         <v>21</v>
       </c>
       <c r="F848" s="1">
-        <v>27085507</v>
+        <v>27089537</v>
       </c>
     </row>
     <row r="849" spans="1:6" x14ac:dyDescent="0.25">
@@ -17552,7 +17552,7 @@
         <v>9</v>
       </c>
       <c r="F849" s="1">
-        <v>5442305</v>
+        <v>5442287</v>
       </c>
     </row>
     <row r="850" spans="1:6" x14ac:dyDescent="0.25">
@@ -17572,7 +17572,7 @@
         <v>21</v>
       </c>
       <c r="F850" s="1">
-        <v>102199689</v>
+        <v>102199690</v>
       </c>
     </row>
     <row r="851" spans="1:6" x14ac:dyDescent="0.25">
@@ -17592,7 +17592,7 @@
         <v>9</v>
       </c>
       <c r="F851" s="1">
-        <v>51137536</v>
+        <v>51137537</v>
       </c>
     </row>
     <row r="852" spans="1:6" x14ac:dyDescent="0.25">
@@ -17632,7 +17632,7 @@
         <v>21</v>
       </c>
       <c r="F853" s="1">
-        <v>268583066</v>
+        <v>268607020</v>
       </c>
     </row>
     <row r="854" spans="1:6" x14ac:dyDescent="0.25">
@@ -17652,7 +17652,7 @@
         <v>9</v>
       </c>
       <c r="F854" s="1">
-        <v>13554424</v>
+        <v>13548686</v>
       </c>
     </row>
     <row r="855" spans="1:6" x14ac:dyDescent="0.25">
@@ -17692,7 +17692,7 @@
         <v>21</v>
       </c>
       <c r="F856" s="1">
-        <v>25770805</v>
+        <v>25773174</v>
       </c>
     </row>
     <row r="857" spans="1:6" x14ac:dyDescent="0.25">
@@ -17712,7 +17712,7 @@
         <v>9</v>
       </c>
       <c r="F857" s="1">
-        <v>5065035</v>
+        <v>5064383</v>
       </c>
     </row>
     <row r="858" spans="1:6" x14ac:dyDescent="0.25">
@@ -17732,7 +17732,7 @@
         <v>21</v>
       </c>
       <c r="F858" s="1">
-        <v>108173641</v>
+        <v>108173646</v>
       </c>
     </row>
     <row r="859" spans="1:6" x14ac:dyDescent="0.25">
@@ -17752,7 +17752,7 @@
         <v>9</v>
       </c>
       <c r="F859" s="1">
-        <v>54386289</v>
+        <v>54386288</v>
       </c>
     </row>
     <row r="860" spans="1:6" x14ac:dyDescent="0.25">
@@ -17792,7 +17792,7 @@
         <v>21</v>
       </c>
       <c r="F861" s="1">
-        <v>272587203</v>
+        <v>272609048</v>
       </c>
     </row>
     <row r="862" spans="1:6" x14ac:dyDescent="0.25">
@@ -17812,7 +17812,7 @@
         <v>9</v>
       </c>
       <c r="F862" s="1">
-        <v>13634355</v>
+        <v>13617644</v>
       </c>
     </row>
     <row r="863" spans="1:6" x14ac:dyDescent="0.25">
@@ -17852,7 +17852,7 @@
         <v>21</v>
       </c>
       <c r="F864" s="1">
-        <v>26157931</v>
+        <v>26185303</v>
       </c>
     </row>
     <row r="865" spans="1:6" x14ac:dyDescent="0.25">
@@ -17872,7 +17872,7 @@
         <v>9</v>
       </c>
       <c r="F865" s="1">
-        <v>5262991</v>
+        <v>5262129</v>
       </c>
     </row>
     <row r="866" spans="1:6" x14ac:dyDescent="0.25">
@@ -17892,7 +17892,7 @@
         <v>21</v>
       </c>
       <c r="F866" s="1">
-        <v>106460563</v>
+        <v>106459067</v>
       </c>
     </row>
     <row r="867" spans="1:6" x14ac:dyDescent="0.25">
@@ -17912,7 +17912,7 @@
         <v>9</v>
       </c>
       <c r="F867" s="1">
-        <v>54839209</v>
+        <v>54839205</v>
       </c>
     </row>
     <row r="868" spans="1:6" x14ac:dyDescent="0.25">
@@ -17952,7 +17952,7 @@
         <v>21</v>
       </c>
       <c r="F869" s="1">
-        <v>266514257</v>
+        <v>266529984</v>
       </c>
     </row>
     <row r="870" spans="1:6" x14ac:dyDescent="0.25">
@@ -17972,7 +17972,7 @@
         <v>9</v>
       </c>
       <c r="F870" s="1">
-        <v>13699617</v>
+        <v>13692539</v>
       </c>
     </row>
     <row r="871" spans="1:6" x14ac:dyDescent="0.25">
@@ -18012,7 +18012,7 @@
         <v>21</v>
       </c>
       <c r="F872" s="1">
-        <v>25558726</v>
+        <v>25558286</v>
       </c>
     </row>
     <row r="873" spans="1:6" x14ac:dyDescent="0.25">
@@ -18032,7 +18032,7 @@
         <v>9</v>
       </c>
       <c r="F873" s="1">
-        <v>5437167</v>
+        <v>5436088</v>
       </c>
     </row>
     <row r="874" spans="1:6" x14ac:dyDescent="0.25">
@@ -18052,7 +18052,7 @@
         <v>21</v>
       </c>
       <c r="F874" s="1">
-        <v>93181525</v>
+        <v>93180035</v>
       </c>
     </row>
     <row r="875" spans="1:6" x14ac:dyDescent="0.25">
@@ -18112,7 +18112,7 @@
         <v>21</v>
       </c>
       <c r="F877" s="1">
-        <v>244206805</v>
+        <v>244198117</v>
       </c>
     </row>
     <row r="878" spans="1:6" x14ac:dyDescent="0.25">
@@ -18132,7 +18132,7 @@
         <v>9</v>
       </c>
       <c r="F878" s="1">
-        <v>13072971</v>
+        <v>13062404</v>
       </c>
     </row>
     <row r="879" spans="1:6" x14ac:dyDescent="0.25">
@@ -18172,7 +18172,7 @@
         <v>21</v>
       </c>
       <c r="F880" s="1">
-        <v>23332568</v>
+        <v>23331732</v>
       </c>
     </row>
     <row r="881" spans="1:6" x14ac:dyDescent="0.25">
@@ -18192,7 +18192,7 @@
         <v>9</v>
       </c>
       <c r="F881" s="1">
-        <v>5058202</v>
+        <v>5057055</v>
       </c>
     </row>
     <row r="882" spans="1:6" x14ac:dyDescent="0.25">
@@ -18212,7 +18212,7 @@
         <v>21</v>
       </c>
       <c r="F882" s="1">
-        <v>106424409</v>
+        <v>106424414</v>
       </c>
     </row>
     <row r="883" spans="1:6" x14ac:dyDescent="0.25">
@@ -18232,7 +18232,7 @@
         <v>9</v>
       </c>
       <c r="F883" s="1">
-        <v>55603462</v>
+        <v>55603463</v>
       </c>
     </row>
     <row r="884" spans="1:6" x14ac:dyDescent="0.25">
@@ -18272,7 +18272,7 @@
         <v>21</v>
       </c>
       <c r="F885" s="1">
-        <v>273340855</v>
+        <v>273435469</v>
       </c>
     </row>
     <row r="886" spans="1:6" x14ac:dyDescent="0.25">
@@ -18292,7 +18292,7 @@
         <v>9</v>
       </c>
       <c r="F886" s="1">
-        <v>14920742</v>
+        <v>14897370</v>
       </c>
     </row>
     <row r="887" spans="1:6" x14ac:dyDescent="0.25">
@@ -18332,7 +18332,7 @@
         <v>21</v>
       </c>
       <c r="F888" s="1">
-        <v>26110194</v>
+        <v>26107770</v>
       </c>
     </row>
     <row r="889" spans="1:6" x14ac:dyDescent="0.25">
@@ -18352,7 +18352,7 @@
         <v>9</v>
       </c>
       <c r="F889" s="1">
-        <v>5743033</v>
+        <v>5741519</v>
       </c>
     </row>
     <row r="890" spans="1:6" x14ac:dyDescent="0.25">
@@ -18372,7 +18372,7 @@
         <v>21</v>
       </c>
       <c r="F890" s="1">
-        <v>95410649</v>
+        <v>95410646</v>
       </c>
     </row>
     <row r="891" spans="1:6" x14ac:dyDescent="0.25">
@@ -18432,7 +18432,7 @@
         <v>21</v>
       </c>
       <c r="F893" s="1">
-        <v>265908888</v>
+        <v>266031345</v>
       </c>
     </row>
     <row r="894" spans="1:6" x14ac:dyDescent="0.25">
@@ -18452,7 +18452,7 @@
         <v>9</v>
       </c>
       <c r="F894" s="1">
-        <v>14516094</v>
+        <v>14503200</v>
       </c>
     </row>
     <row r="895" spans="1:6" x14ac:dyDescent="0.25">
@@ -18492,7 +18492,7 @@
         <v>21</v>
       </c>
       <c r="F896" s="1">
-        <v>25509401</v>
+        <v>25504112</v>
       </c>
     </row>
     <row r="897" spans="1:6" x14ac:dyDescent="0.25">
@@ -18512,7 +18512,7 @@
         <v>9</v>
       </c>
       <c r="F897" s="1">
-        <v>5594116</v>
+        <v>5592614</v>
       </c>
     </row>
     <row r="898" spans="1:6" x14ac:dyDescent="0.25">
@@ -18552,7 +18552,7 @@
         <v>9</v>
       </c>
       <c r="F899" s="1">
-        <v>52786542</v>
+        <v>52785368</v>
       </c>
     </row>
     <row r="900" spans="1:6" x14ac:dyDescent="0.25">
@@ -18592,7 +18592,7 @@
         <v>21</v>
       </c>
       <c r="F901" s="1">
-        <v>268702488</v>
+        <v>268794373</v>
       </c>
     </row>
     <row r="902" spans="1:6" x14ac:dyDescent="0.25">
@@ -18612,7 +18612,7 @@
         <v>9</v>
       </c>
       <c r="F902" s="1">
-        <v>15473804</v>
+        <v>15460236</v>
       </c>
     </row>
     <row r="903" spans="1:6" x14ac:dyDescent="0.25">
@@ -18652,7 +18652,7 @@
         <v>21</v>
       </c>
       <c r="F904" s="1">
-        <v>27126358</v>
+        <v>27128939</v>
       </c>
     </row>
     <row r="905" spans="1:6" x14ac:dyDescent="0.25">
@@ -18672,7 +18672,7 @@
         <v>9</v>
       </c>
       <c r="F905" s="1">
-        <v>5784614</v>
+        <v>5784967</v>
       </c>
     </row>
     <row r="906" spans="1:6" x14ac:dyDescent="0.25">
@@ -18692,7 +18692,7 @@
         <v>21</v>
       </c>
       <c r="F906" s="1">
-        <v>90696647</v>
+        <v>90698924</v>
       </c>
     </row>
     <row r="907" spans="1:6" x14ac:dyDescent="0.25">
@@ -18712,7 +18712,7 @@
         <v>9</v>
       </c>
       <c r="F907" s="1">
-        <v>49431549</v>
+        <v>49431548</v>
       </c>
     </row>
     <row r="908" spans="1:6" x14ac:dyDescent="0.25">
@@ -18752,7 +18752,7 @@
         <v>21</v>
       </c>
       <c r="F909" s="1">
-        <v>263068217</v>
+        <v>263137038</v>
       </c>
     </row>
     <row r="910" spans="1:6" x14ac:dyDescent="0.25">
@@ -18772,7 +18772,7 @@
         <v>9</v>
       </c>
       <c r="F910" s="1">
-        <v>14299891</v>
+        <v>14323070</v>
       </c>
     </row>
     <row r="911" spans="1:6" x14ac:dyDescent="0.25">
@@ -18812,7 +18812,7 @@
         <v>21</v>
       </c>
       <c r="F912" s="1">
-        <v>26716285</v>
+        <v>26710790</v>
       </c>
     </row>
     <row r="913" spans="1:6" x14ac:dyDescent="0.25">
@@ -18832,7 +18832,7 @@
         <v>9</v>
       </c>
       <c r="F913" s="1">
-        <v>5906902</v>
+        <v>5906785</v>
       </c>
     </row>
     <row r="914" spans="1:6" x14ac:dyDescent="0.25">
@@ -18872,7 +18872,7 @@
         <v>9</v>
       </c>
       <c r="F915" s="1">
-        <v>55001461</v>
+        <v>55001236</v>
       </c>
     </row>
     <row r="916" spans="1:6" x14ac:dyDescent="0.25">
@@ -18912,7 +18912,7 @@
         <v>21</v>
       </c>
       <c r="F917" s="1">
-        <v>271801573</v>
+        <v>271852519</v>
       </c>
     </row>
     <row r="918" spans="1:6" x14ac:dyDescent="0.25">
@@ -18932,7 +18932,7 @@
         <v>9</v>
       </c>
       <c r="F918" s="1">
-        <v>15110199</v>
+        <v>15136364</v>
       </c>
     </row>
     <row r="919" spans="1:6" x14ac:dyDescent="0.25">
@@ -18972,7 +18972,7 @@
         <v>21</v>
       </c>
       <c r="F920" s="1">
-        <v>27454471</v>
+        <v>27461265</v>
       </c>
     </row>
     <row r="921" spans="1:6" x14ac:dyDescent="0.25">
@@ -18992,7 +18992,7 @@
         <v>9</v>
       </c>
       <c r="F921" s="1">
-        <v>6099693</v>
+        <v>6099485</v>
       </c>
     </row>
     <row r="922" spans="1:6" x14ac:dyDescent="0.25">
@@ -19072,7 +19072,7 @@
         <v>21</v>
       </c>
       <c r="F925" s="1">
-        <v>269038114</v>
+        <v>268965663</v>
       </c>
     </row>
     <row r="926" spans="1:6" x14ac:dyDescent="0.25">
@@ -19092,7 +19092,7 @@
         <v>9</v>
       </c>
       <c r="F926" s="1">
-        <v>15734091</v>
+        <v>15693883</v>
       </c>
     </row>
     <row r="927" spans="1:6" x14ac:dyDescent="0.25">
@@ -19132,7 +19132,7 @@
         <v>21</v>
       </c>
       <c r="F928" s="1">
-        <v>28102799</v>
+        <v>28114078</v>
       </c>
     </row>
     <row r="929" spans="1:6" x14ac:dyDescent="0.25">
@@ -19152,7 +19152,7 @@
         <v>9</v>
       </c>
       <c r="F929" s="1">
-        <v>6489979</v>
+        <v>6493619</v>
       </c>
     </row>
     <row r="930" spans="1:6" x14ac:dyDescent="0.25">
@@ -19232,7 +19232,7 @@
         <v>21</v>
       </c>
       <c r="F933" s="1">
-        <v>266688072</v>
+        <v>266668566</v>
       </c>
     </row>
     <row r="934" spans="1:6" x14ac:dyDescent="0.25">
@@ -19252,7 +19252,7 @@
         <v>9</v>
       </c>
       <c r="F934" s="1">
-        <v>16021956</v>
+        <v>16001974</v>
       </c>
     </row>
     <row r="935" spans="1:6" x14ac:dyDescent="0.25">
@@ -19292,7 +19292,7 @@
         <v>21</v>
       </c>
       <c r="F936" s="1">
-        <v>27273042</v>
+        <v>27305997</v>
       </c>
     </row>
     <row r="937" spans="1:6" x14ac:dyDescent="0.25">
@@ -19312,7 +19312,7 @@
         <v>9</v>
       </c>
       <c r="F937" s="1">
-        <v>6293926</v>
+        <v>6296823</v>
       </c>
     </row>
     <row r="938" spans="1:6" x14ac:dyDescent="0.25">
@@ -19392,7 +19392,7 @@
         <v>21</v>
       </c>
       <c r="F941" s="1">
-        <v>276135883</v>
+        <v>276322185</v>
       </c>
     </row>
     <row r="942" spans="1:6" x14ac:dyDescent="0.25">
@@ -19412,7 +19412,7 @@
         <v>9</v>
       </c>
       <c r="F942" s="1">
-        <v>16929432</v>
+        <v>17000402</v>
       </c>
     </row>
     <row r="943" spans="1:6" x14ac:dyDescent="0.25">
@@ -19452,7 +19452,7 @@
         <v>21</v>
       </c>
       <c r="F944" s="1">
-        <v>28634307</v>
+        <v>28704271</v>
       </c>
     </row>
     <row r="945" spans="1:6" x14ac:dyDescent="0.25">
@@ -19472,7 +19472,7 @@
         <v>9</v>
       </c>
       <c r="F945" s="1">
-        <v>6647848</v>
+        <v>6652901</v>
       </c>
     </row>
     <row r="946" spans="1:6" x14ac:dyDescent="0.25">
@@ -19492,7 +19492,7 @@
         <v>21</v>
       </c>
       <c r="F946" s="1">
-        <v>81947218</v>
+        <v>81947413</v>
       </c>
     </row>
     <row r="947" spans="1:6" x14ac:dyDescent="0.25">
@@ -19552,7 +19552,7 @@
         <v>21</v>
       </c>
       <c r="F949" s="1">
-        <v>268958505</v>
+        <v>268093946</v>
       </c>
     </row>
     <row r="950" spans="1:6" x14ac:dyDescent="0.25">
@@ -19572,7 +19572,7 @@
         <v>9</v>
       </c>
       <c r="F950" s="1">
-        <v>16864281</v>
+        <v>16948763</v>
       </c>
     </row>
     <row r="951" spans="1:6" x14ac:dyDescent="0.25">
@@ -19612,7 +19612,7 @@
         <v>21</v>
       </c>
       <c r="F952" s="1">
-        <v>28568367</v>
+        <v>28668657</v>
       </c>
     </row>
     <row r="953" spans="1:6" x14ac:dyDescent="0.25">
@@ -19632,7 +19632,7 @@
         <v>9</v>
       </c>
       <c r="F953" s="1">
-        <v>6600498</v>
+        <v>6604270</v>
       </c>
     </row>
     <row r="954" spans="1:6" x14ac:dyDescent="0.25">
@@ -19652,7 +19652,7 @@
         <v>21</v>
       </c>
       <c r="F954" s="1">
-        <v>78632398</v>
+        <v>78632396</v>
       </c>
     </row>
     <row r="955" spans="1:6" x14ac:dyDescent="0.25">
@@ -19672,7 +19672,7 @@
         <v>9</v>
       </c>
       <c r="F955" s="1">
-        <v>49117310</v>
+        <v>49117305</v>
       </c>
     </row>
     <row r="956" spans="1:6" x14ac:dyDescent="0.25">
@@ -19712,7 +19712,7 @@
         <v>21</v>
       </c>
       <c r="F957" s="1">
-        <v>282704033</v>
+        <v>283076601</v>
       </c>
     </row>
     <row r="958" spans="1:6" x14ac:dyDescent="0.25">
@@ -19732,7 +19732,7 @@
         <v>9</v>
       </c>
       <c r="F958" s="1">
-        <v>17948677</v>
+        <v>18080340</v>
       </c>
     </row>
     <row r="959" spans="1:6" x14ac:dyDescent="0.25">
@@ -19772,7 +19772,7 @@
         <v>21</v>
       </c>
       <c r="F960" s="1">
-        <v>30076112</v>
+        <v>30177458</v>
       </c>
     </row>
     <row r="961" spans="1:6" x14ac:dyDescent="0.25">
@@ -19792,7 +19792,7 @@
         <v>9</v>
       </c>
       <c r="F961" s="1">
-        <v>6711190</v>
+        <v>6714146</v>
       </c>
     </row>
     <row r="962" spans="1:6" x14ac:dyDescent="0.25">
@@ -19812,7 +19812,7 @@
         <v>21</v>
       </c>
       <c r="F962" s="1">
-        <v>79151038</v>
+        <v>79161052</v>
       </c>
     </row>
     <row r="963" spans="1:6" x14ac:dyDescent="0.25">
@@ -19872,7 +19872,7 @@
         <v>21</v>
       </c>
       <c r="F965" s="1">
-        <v>279852238</v>
+        <v>280359787</v>
       </c>
     </row>
     <row r="966" spans="1:6" x14ac:dyDescent="0.25">
@@ -19892,7 +19892,7 @@
         <v>9</v>
       </c>
       <c r="F966" s="1">
-        <v>17254118</v>
+        <v>17373876</v>
       </c>
     </row>
     <row r="967" spans="1:6" x14ac:dyDescent="0.25">
@@ -19932,7 +19932,7 @@
         <v>21</v>
       </c>
       <c r="F968" s="1">
-        <v>30158441</v>
+        <v>30224700</v>
       </c>
     </row>
     <row r="969" spans="1:6" x14ac:dyDescent="0.25">
@@ -19952,7 +19952,7 @@
         <v>9</v>
       </c>
       <c r="F969" s="1">
-        <v>6693788</v>
+        <v>6696109</v>
       </c>
     </row>
     <row r="970" spans="1:6" x14ac:dyDescent="0.25">
@@ -20032,7 +20032,7 @@
         <v>21</v>
       </c>
       <c r="F973" s="1">
-        <v>253118827</v>
+        <v>253515639</v>
       </c>
     </row>
     <row r="974" spans="1:6" x14ac:dyDescent="0.25">
@@ -20052,7 +20052,7 @@
         <v>9</v>
       </c>
       <c r="F974" s="1">
-        <v>16281775</v>
+        <v>16356645</v>
       </c>
     </row>
     <row r="975" spans="1:6" x14ac:dyDescent="0.25">
@@ -20092,7 +20092,7 @@
         <v>21</v>
       </c>
       <c r="F976" s="1">
-        <v>27082778</v>
+        <v>27132332</v>
       </c>
     </row>
     <row r="977" spans="1:6" x14ac:dyDescent="0.25">
@@ -20112,7 +20112,7 @@
         <v>9</v>
       </c>
       <c r="F977" s="1">
-        <v>5891833</v>
+        <v>5893821</v>
       </c>
     </row>
     <row r="978" spans="1:6" x14ac:dyDescent="0.25">
@@ -20192,7 +20192,7 @@
         <v>21</v>
       </c>
       <c r="F981" s="1">
-        <v>282301667</v>
+        <v>283149785</v>
       </c>
     </row>
     <row r="982" spans="1:6" x14ac:dyDescent="0.25">
@@ -20212,7 +20212,7 @@
         <v>9</v>
       </c>
       <c r="F982" s="1">
-        <v>18303672</v>
+        <v>18378554</v>
       </c>
     </row>
     <row r="983" spans="1:6" x14ac:dyDescent="0.25">
@@ -20252,7 +20252,7 @@
         <v>21</v>
       </c>
       <c r="F984" s="1">
-        <v>30854437</v>
+        <v>30938477</v>
       </c>
     </row>
     <row r="985" spans="1:6" x14ac:dyDescent="0.25">
@@ -20272,7 +20272,7 @@
         <v>9</v>
       </c>
       <c r="F985" s="1">
-        <v>6910228</v>
+        <v>6915073</v>
       </c>
     </row>
     <row r="986" spans="1:6" x14ac:dyDescent="0.25">
@@ -20292,7 +20292,7 @@
         <v>21</v>
       </c>
       <c r="F986" s="1">
-        <v>76526542</v>
+        <v>76526592</v>
       </c>
     </row>
     <row r="987" spans="1:6" x14ac:dyDescent="0.25">
@@ -20312,7 +20312,7 @@
         <v>9</v>
       </c>
       <c r="F987" s="1">
-        <v>48563298</v>
+        <v>48563296</v>
       </c>
     </row>
     <row r="988" spans="1:6" x14ac:dyDescent="0.25">
@@ -20352,7 +20352,7 @@
         <v>21</v>
       </c>
       <c r="F989" s="1">
-        <v>271790533</v>
+        <v>272246587</v>
       </c>
     </row>
     <row r="990" spans="1:6" x14ac:dyDescent="0.25">
@@ -20372,7 +20372,7 @@
         <v>9</v>
       </c>
       <c r="F990" s="1">
-        <v>18512610</v>
+        <v>18561576</v>
       </c>
     </row>
     <row r="991" spans="1:6" x14ac:dyDescent="0.25">
@@ -20412,7 +20412,7 @@
         <v>21</v>
       </c>
       <c r="F992" s="1">
-        <v>30525338</v>
+        <v>30619961</v>
       </c>
     </row>
     <row r="993" spans="1:6" x14ac:dyDescent="0.25">
@@ -20432,7 +20432,7 @@
         <v>9</v>
       </c>
       <c r="F993" s="1">
-        <v>7287445</v>
+        <v>7292903</v>
       </c>
     </row>
     <row r="994" spans="1:6" x14ac:dyDescent="0.25">
@@ -20452,7 +20452,7 @@
         <v>21</v>
       </c>
       <c r="F994" s="1">
-        <v>79033082</v>
+        <v>79033108</v>
       </c>
     </row>
     <row r="995" spans="1:6" x14ac:dyDescent="0.25">
@@ -20472,7 +20472,7 @@
         <v>9</v>
       </c>
       <c r="F995" s="1">
-        <v>48112943</v>
+        <v>48112942</v>
       </c>
     </row>
     <row r="996" spans="1:6" x14ac:dyDescent="0.25">
@@ -20512,7 +20512,7 @@
         <v>21</v>
       </c>
       <c r="F997" s="1">
-        <v>277323057</v>
+        <v>277778087</v>
       </c>
     </row>
     <row r="998" spans="1:6" x14ac:dyDescent="0.25">
@@ -20532,7 +20532,7 @@
         <v>9</v>
       </c>
       <c r="F998" s="1">
-        <v>18803109</v>
+        <v>18803807</v>
       </c>
     </row>
     <row r="999" spans="1:6" x14ac:dyDescent="0.25">
@@ -20572,7 +20572,7 @@
         <v>21</v>
       </c>
       <c r="F1000" s="1">
-        <v>30734433</v>
+        <v>30904305</v>
       </c>
     </row>
     <row r="1001" spans="1:6" x14ac:dyDescent="0.25">
@@ -20592,7 +20592,7 @@
         <v>9</v>
       </c>
       <c r="F1001" s="1">
-        <v>7479474</v>
+        <v>7496997</v>
       </c>
     </row>
     <row r="1002" spans="1:6" x14ac:dyDescent="0.25">
@@ -20612,7 +20612,7 @@
         <v>21</v>
       </c>
       <c r="F1002" s="1">
-        <v>79227403</v>
+        <v>79226646</v>
       </c>
     </row>
     <row r="1003" spans="1:6" x14ac:dyDescent="0.25">
@@ -20672,7 +20672,7 @@
         <v>21</v>
       </c>
       <c r="F1005" s="1">
-        <v>264866601</v>
+        <v>265224240</v>
       </c>
     </row>
     <row r="1006" spans="1:6" x14ac:dyDescent="0.25">
@@ -20692,7 +20692,7 @@
         <v>9</v>
       </c>
       <c r="F1006" s="1">
-        <v>17746744</v>
+        <v>17628388</v>
       </c>
     </row>
     <row r="1007" spans="1:6" x14ac:dyDescent="0.25">
@@ -20732,7 +20732,7 @@
         <v>21</v>
       </c>
       <c r="F1008" s="1">
-        <v>29740493</v>
+        <v>29913135</v>
       </c>
     </row>
     <row r="1009" spans="1:6" x14ac:dyDescent="0.25">
@@ -20752,7 +20752,7 @@
         <v>9</v>
       </c>
       <c r="F1009" s="1">
-        <v>7077646</v>
+        <v>7108884</v>
       </c>
     </row>
     <row r="1010" spans="1:6" x14ac:dyDescent="0.25">
@@ -20772,7 +20772,7 @@
         <v>21</v>
       </c>
       <c r="F1010" s="1">
-        <v>92295362</v>
+        <v>92295975</v>
       </c>
     </row>
     <row r="1011" spans="1:6" x14ac:dyDescent="0.25">
@@ -20832,7 +20832,7 @@
         <v>21</v>
       </c>
       <c r="F1013" s="1">
-        <v>277038852</v>
+        <v>277358368</v>
       </c>
     </row>
     <row r="1014" spans="1:6" x14ac:dyDescent="0.25">
@@ -20852,7 +20852,7 @@
         <v>9</v>
       </c>
       <c r="F1014" s="1">
-        <v>19221276</v>
+        <v>19170934</v>
       </c>
     </row>
     <row r="1015" spans="1:6" x14ac:dyDescent="0.25">
@@ -20892,7 +20892,7 @@
         <v>21</v>
       </c>
       <c r="F1016" s="1">
-        <v>30227758</v>
+        <v>30371938</v>
       </c>
     </row>
     <row r="1017" spans="1:6" x14ac:dyDescent="0.25">
@@ -20912,7 +20912,7 @@
         <v>9</v>
       </c>
       <c r="F1017" s="1">
-        <v>7128041</v>
+        <v>7141943</v>
       </c>
     </row>
     <row r="1018" spans="1:6" x14ac:dyDescent="0.25">
@@ -20932,7 +20932,7 @@
         <v>21</v>
       </c>
       <c r="F1018" s="1">
-        <v>98154189</v>
+        <v>98156517</v>
       </c>
     </row>
     <row r="1019" spans="1:6" x14ac:dyDescent="0.25">
@@ -20952,7 +20952,7 @@
         <v>9</v>
       </c>
       <c r="F1019" s="1">
-        <v>61079045</v>
+        <v>61085060</v>
       </c>
     </row>
     <row r="1020" spans="1:6" x14ac:dyDescent="0.25">
@@ -20992,7 +20992,7 @@
         <v>21</v>
       </c>
       <c r="F1021" s="1">
-        <v>277560251</v>
+        <v>277847924</v>
       </c>
     </row>
     <row r="1022" spans="1:6" x14ac:dyDescent="0.25">
@@ -21012,7 +21012,7 @@
         <v>9</v>
       </c>
       <c r="F1022" s="1">
-        <v>20379252</v>
+        <v>20362594</v>
       </c>
     </row>
     <row r="1023" spans="1:6" x14ac:dyDescent="0.25">
@@ -21052,7 +21052,7 @@
         <v>21</v>
       </c>
       <c r="F1024" s="1">
-        <v>30500437</v>
+        <v>30870746</v>
       </c>
     </row>
     <row r="1025" spans="1:6" x14ac:dyDescent="0.25">
@@ -21072,7 +21072,7 @@
         <v>9</v>
       </c>
       <c r="F1025" s="1">
-        <v>7251741</v>
+        <v>7329048</v>
       </c>
     </row>
     <row r="1026" spans="1:6" x14ac:dyDescent="0.25">
@@ -21092,7 +21092,7 @@
         <v>21</v>
       </c>
       <c r="F1026" s="1">
-        <v>88125215</v>
+        <v>88625538</v>
       </c>
     </row>
     <row r="1027" spans="1:6" x14ac:dyDescent="0.25">
@@ -21112,7 +21112,7 @@
         <v>9</v>
       </c>
       <c r="F1027" s="1">
-        <v>54125969</v>
+        <v>54372189</v>
       </c>
     </row>
     <row r="1028" spans="1:6" x14ac:dyDescent="0.25">
@@ -21152,7 +21152,7 @@
         <v>21</v>
       </c>
       <c r="F1029" s="1">
-        <v>257449791</v>
+        <v>259300940</v>
       </c>
     </row>
     <row r="1030" spans="1:6" x14ac:dyDescent="0.25">
@@ -21172,7 +21172,7 @@
         <v>9</v>
       </c>
       <c r="F1030" s="1">
-        <v>19703309</v>
+        <v>20026557</v>
       </c>
     </row>
     <row r="1031" spans="1:6" x14ac:dyDescent="0.25">
@@ -21212,7 +21212,7 @@
         <v>21</v>
       </c>
       <c r="F1032" s="1">
-        <v>29587249</v>
+        <v>29946775</v>
       </c>
     </row>
     <row r="1033" spans="1:6" x14ac:dyDescent="0.25">
@@ -21232,7 +21232,7 @@
         <v>9</v>
       </c>
       <c r="F1033" s="1">
-        <v>6724361</v>
+        <v>6791293</v>
       </c>
     </row>
     <row r="1034" spans="1:6" x14ac:dyDescent="0.25">
@@ -21252,7 +21252,7 @@
         <v>21</v>
       </c>
       <c r="F1034" s="1">
-        <v>85522528</v>
+        <v>86491684</v>
       </c>
     </row>
     <row r="1035" spans="1:6" x14ac:dyDescent="0.25">
@@ -21272,7 +21272,7 @@
         <v>9</v>
       </c>
       <c r="F1035" s="1">
-        <v>54418437</v>
+        <v>54677226</v>
       </c>
     </row>
     <row r="1036" spans="1:6" x14ac:dyDescent="0.25">
@@ -21292,7 +21292,7 @@
         <v>24</v>
       </c>
       <c r="F1036" s="1">
-        <v>26621740</v>
+        <v>26660260</v>
       </c>
     </row>
     <row r="1037" spans="1:6" x14ac:dyDescent="0.25">
@@ -21312,7 +21312,7 @@
         <v>21</v>
       </c>
       <c r="F1037" s="1">
-        <v>278456975</v>
+        <v>282212748</v>
       </c>
     </row>
     <row r="1038" spans="1:6" x14ac:dyDescent="0.25">
@@ -21332,7 +21332,7 @@
         <v>9</v>
       </c>
       <c r="F1038" s="1">
-        <v>20395123</v>
+        <v>20961816</v>
       </c>
     </row>
     <row r="1039" spans="1:6" x14ac:dyDescent="0.25">
@@ -21372,7 +21372,7 @@
         <v>21</v>
       </c>
       <c r="F1040" s="1">
-        <v>30020019</v>
+        <v>30462408</v>
       </c>
     </row>
     <row r="1041" spans="1:6" x14ac:dyDescent="0.25">
@@ -21392,7 +21392,7 @@
         <v>9</v>
       </c>
       <c r="F1041" s="1">
-        <v>6819590</v>
+        <v>6888927</v>
       </c>
     </row>
     <row r="1042" spans="1:6" x14ac:dyDescent="0.25">
@@ -21412,7 +21412,7 @@
         <v>21</v>
       </c>
       <c r="F1042" s="1">
-        <v>90135013</v>
+        <v>90600046</v>
       </c>
     </row>
     <row r="1043" spans="1:6" x14ac:dyDescent="0.25">
@@ -21432,7 +21432,7 @@
         <v>9</v>
       </c>
       <c r="F1043" s="1">
-        <v>58516018</v>
+        <v>58951854</v>
       </c>
     </row>
     <row r="1044" spans="1:6" x14ac:dyDescent="0.25">
@@ -21452,7 +21452,7 @@
         <v>24</v>
       </c>
       <c r="F1044" s="1">
-        <v>26484994</v>
+        <v>26932688</v>
       </c>
     </row>
     <row r="1045" spans="1:6" x14ac:dyDescent="0.25">
@@ -21472,7 +21472,7 @@
         <v>21</v>
       </c>
       <c r="F1045" s="1">
-        <v>258384408</v>
+        <v>262366647</v>
       </c>
     </row>
     <row r="1046" spans="1:6" x14ac:dyDescent="0.25">
@@ -21492,7 +21492,7 @@
         <v>9</v>
       </c>
       <c r="F1046" s="1">
-        <v>19479741</v>
+        <v>19929091</v>
       </c>
     </row>
     <row r="1047" spans="1:6" x14ac:dyDescent="0.25">
@@ -21532,7 +21532,7 @@
         <v>21</v>
       </c>
       <c r="F1048" s="1">
-        <v>28619181</v>
+        <v>29025612</v>
       </c>
     </row>
     <row r="1049" spans="1:6" x14ac:dyDescent="0.25">
@@ -21552,7 +21552,7 @@
         <v>9</v>
       </c>
       <c r="F1049" s="1">
-        <v>6738026</v>
+        <v>6879751</v>
       </c>
     </row>
     <row r="1050" spans="1:6" x14ac:dyDescent="0.25">
@@ -21572,7 +21572,7 @@
         <v>21</v>
       </c>
       <c r="F1050" s="1">
-        <v>91713980</v>
+        <v>92378448</v>
       </c>
     </row>
     <row r="1051" spans="1:6" x14ac:dyDescent="0.25">
@@ -21592,7 +21592,7 @@
         <v>9</v>
       </c>
       <c r="F1051" s="1">
-        <v>59280853</v>
+        <v>59997511</v>
       </c>
     </row>
     <row r="1052" spans="1:6" x14ac:dyDescent="0.25">
@@ -21612,7 +21612,7 @@
         <v>24</v>
       </c>
       <c r="F1052" s="1">
-        <v>27991052</v>
+        <v>28361627</v>
       </c>
     </row>
     <row r="1053" spans="1:6" x14ac:dyDescent="0.25">
@@ -21632,7 +21632,7 @@
         <v>21</v>
       </c>
       <c r="F1053" s="1">
-        <v>261425046</v>
+        <v>271234924</v>
       </c>
     </row>
     <row r="1054" spans="1:6" x14ac:dyDescent="0.25">
@@ -21652,7 +21652,7 @@
         <v>9</v>
       </c>
       <c r="F1054" s="1">
-        <v>20137821</v>
+        <v>20796604</v>
       </c>
     </row>
     <row r="1055" spans="1:6" x14ac:dyDescent="0.25">
@@ -21692,7 +21692,7 @@
         <v>21</v>
       </c>
       <c r="F1056" s="1">
-        <v>28499359</v>
+        <v>29518415</v>
       </c>
     </row>
     <row r="1057" spans="1:6" x14ac:dyDescent="0.25">
@@ -21712,7 +21712,167 @@
         <v>9</v>
       </c>
       <c r="F1057" s="1">
-        <v>6400582</v>
+        <v>6801491</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1058" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1058" s="7">
+        <v>2019</v>
+      </c>
+      <c r="C1058" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1058" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1058" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1058" s="1">
+        <v>93853280</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1059" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1059" s="7">
+        <v>2019</v>
+      </c>
+      <c r="C1059" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1059" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1059" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1059" s="1">
+        <v>59202613</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1060" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1060" s="7">
+        <v>2019</v>
+      </c>
+      <c r="C1060" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1060" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1060" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1060" s="1">
+        <v>28977593</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1061" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1061" s="7">
+        <v>2019</v>
+      </c>
+      <c r="C1061" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1061" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1061" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1061" s="1">
+        <v>264838586</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1062" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1062" s="7">
+        <v>2019</v>
+      </c>
+      <c r="C1062" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1062" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1062" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1062" s="1">
+        <v>20659375</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1063" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1063" s="7">
+        <v>2019</v>
+      </c>
+      <c r="C1063" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1063" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1063" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1063" s="1">
+        <v>1150322</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1064" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1064" s="7">
+        <v>2019</v>
+      </c>
+      <c r="C1064" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1064" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1064" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1064" s="1">
+        <v>28345225</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1065" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1065" s="7">
+        <v>2019</v>
+      </c>
+      <c r="C1065" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1065" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1065" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1065" s="1">
+        <v>6562191</v>
       </c>
     </row>
   </sheetData>

--- a/src/data-graphql/production_volumes.xlsx
+++ b/src/data-graphql/production_volumes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4262" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294" uniqueCount="25">
   <si>
     <t>Month</t>
   </si>
@@ -559,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1065"/>
+  <dimension ref="A1:F1073"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1032" workbookViewId="0">
-      <selection activeCell="H1055" sqref="H1055"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1079" sqref="D1079"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,7 +612,7 @@
         <v>21</v>
       </c>
       <c r="F2" s="1">
-        <v>248490857</v>
+        <v>248400297</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -632,7 +632,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="1">
-        <v>42606099</v>
+        <v>42599202</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -672,7 +672,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="1">
-        <v>312660129</v>
+        <v>312660017</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -772,7 +772,7 @@
         <v>21</v>
       </c>
       <c r="F10" s="1">
-        <v>235859125</v>
+        <v>235770383</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -792,7 +792,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="1">
-        <v>40962500</v>
+        <v>40956063</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -832,7 +832,7 @@
         <v>21</v>
       </c>
       <c r="F13" s="1">
-        <v>295539278</v>
+        <v>295539166</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -932,7 +932,7 @@
         <v>21</v>
       </c>
       <c r="F18" s="1">
-        <v>247274634</v>
+        <v>247177565</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -952,7 +952,7 @@
         <v>9</v>
       </c>
       <c r="F19" s="1">
-        <v>42829108</v>
+        <v>42822573</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -992,7 +992,7 @@
         <v>21</v>
       </c>
       <c r="F21" s="1">
-        <v>330378708</v>
+        <v>330378607</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1092,7 +1092,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="1">
-        <v>216578009</v>
+        <v>216495713</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1112,7 +1112,7 @@
         <v>9</v>
       </c>
       <c r="F27" s="1">
-        <v>41473344</v>
+        <v>41467617</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1152,7 +1152,7 @@
         <v>21</v>
       </c>
       <c r="F29" s="1">
-        <v>320365374</v>
+        <v>320365275</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1252,7 +1252,7 @@
         <v>21</v>
       </c>
       <c r="F34" s="1">
-        <v>215879011</v>
+        <v>215807069</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1272,7 +1272,7 @@
         <v>9</v>
       </c>
       <c r="F35" s="1">
-        <v>42487377</v>
+        <v>42482211</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1312,7 +1312,7 @@
         <v>21</v>
       </c>
       <c r="F37" s="1">
-        <v>328688164</v>
+        <v>328688069</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1412,7 +1412,7 @@
         <v>21</v>
       </c>
       <c r="F42" s="1">
-        <v>227474811</v>
+        <v>227376555</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1432,7 +1432,7 @@
         <v>9</v>
       </c>
       <c r="F43" s="1">
-        <v>42245273</v>
+        <v>42239694</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1472,7 +1472,7 @@
         <v>21</v>
       </c>
       <c r="F45" s="1">
-        <v>318546837</v>
+        <v>318546756</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1572,7 +1572,7 @@
         <v>21</v>
       </c>
       <c r="F50" s="1">
-        <v>238496588</v>
+        <v>238394832</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1592,7 +1592,7 @@
         <v>9</v>
       </c>
       <c r="F51" s="1">
-        <v>44768936</v>
+        <v>44763309</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1632,7 +1632,7 @@
         <v>21</v>
       </c>
       <c r="F53" s="1">
-        <v>333959923</v>
+        <v>333959816</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1732,7 +1732,7 @@
         <v>21</v>
       </c>
       <c r="F58" s="1">
-        <v>219912312</v>
+        <v>219812954</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1752,7 +1752,7 @@
         <v>9</v>
       </c>
       <c r="F59" s="1">
-        <v>41929189</v>
+        <v>41923938</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1792,7 +1792,7 @@
         <v>21</v>
       </c>
       <c r="F61" s="1">
-        <v>333048372</v>
+        <v>333048280</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1892,7 +1892,7 @@
         <v>21</v>
       </c>
       <c r="F66" s="1">
-        <v>69750474</v>
+        <v>69647740</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -1912,7 +1912,7 @@
         <v>9</v>
       </c>
       <c r="F67" s="1">
-        <v>9582637</v>
+        <v>9577187</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -1952,7 +1952,7 @@
         <v>21</v>
       </c>
       <c r="F69" s="1">
-        <v>307716137</v>
+        <v>307716035</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2052,7 +2052,7 @@
         <v>21</v>
       </c>
       <c r="F74" s="1">
-        <v>141886453</v>
+        <v>141790530</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2072,7 +2072,7 @@
         <v>9</v>
       </c>
       <c r="F75" s="1">
-        <v>27187007</v>
+        <v>27181924</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2112,7 +2112,7 @@
         <v>21</v>
       </c>
       <c r="F77" s="1">
-        <v>335787416</v>
+        <v>335787316</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2212,7 +2212,7 @@
         <v>21</v>
       </c>
       <c r="F82" s="1">
-        <v>165714441</v>
+        <v>165603446</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2232,7 +2232,7 @@
         <v>9</v>
       </c>
       <c r="F83" s="1">
-        <v>34897915</v>
+        <v>34892543</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2272,7 +2272,7 @@
         <v>21</v>
       </c>
       <c r="F85" s="1">
-        <v>333842804</v>
+        <v>333842720</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2372,7 +2372,7 @@
         <v>21</v>
       </c>
       <c r="F90" s="1">
-        <v>182939915</v>
+        <v>182831320</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2392,7 +2392,7 @@
         <v>9</v>
       </c>
       <c r="F91" s="1">
-        <v>39386554</v>
+        <v>39381348</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -2432,7 +2432,7 @@
         <v>21</v>
       </c>
       <c r="F93" s="1">
-        <v>339550361</v>
+        <v>339550275</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -2532,7 +2532,7 @@
         <v>21</v>
       </c>
       <c r="F98" s="1">
-        <v>203622290</v>
+        <v>203532279</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -2552,7 +2552,7 @@
         <v>9</v>
       </c>
       <c r="F99" s="1">
-        <v>41973019</v>
+        <v>41968432</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -2592,7 +2592,7 @@
         <v>21</v>
       </c>
       <c r="F101" s="1">
-        <v>344852891</v>
+        <v>344852736</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -2692,7 +2692,7 @@
         <v>21</v>
       </c>
       <c r="F106" s="1">
-        <v>191804668</v>
+        <v>191727944</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -2712,7 +2712,7 @@
         <v>9</v>
       </c>
       <c r="F107" s="1">
-        <v>39012664</v>
+        <v>39008618</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -2752,7 +2752,7 @@
         <v>21</v>
       </c>
       <c r="F109" s="1">
-        <v>317362492</v>
+        <v>317364090</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -2772,7 +2772,7 @@
         <v>9</v>
       </c>
       <c r="F110" s="1">
-        <v>8022838</v>
+        <v>8022845</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -2852,7 +2852,7 @@
         <v>21</v>
       </c>
       <c r="F114" s="1">
-        <v>213281410</v>
+        <v>213188631</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -2872,7 +2872,7 @@
         <v>9</v>
       </c>
       <c r="F115" s="1">
-        <v>43427740</v>
+        <v>43423086</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -2912,7 +2912,7 @@
         <v>21</v>
       </c>
       <c r="F117" s="1">
-        <v>348465709</v>
+        <v>348488404</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -2932,7 +2932,7 @@
         <v>9</v>
       </c>
       <c r="F118" s="1">
-        <v>8757879</v>
+        <v>8757988</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3012,7 +3012,7 @@
         <v>21</v>
       </c>
       <c r="F122" s="1">
-        <v>207810779</v>
+        <v>207718687</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3032,7 +3032,7 @@
         <v>9</v>
       </c>
       <c r="F123" s="1">
-        <v>46010003</v>
+        <v>46005495</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3072,7 +3072,7 @@
         <v>21</v>
       </c>
       <c r="F125" s="1">
-        <v>331667322</v>
+        <v>331688579</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3092,7 +3092,7 @@
         <v>9</v>
       </c>
       <c r="F126" s="1">
-        <v>8441209</v>
+        <v>8441292</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3172,7 +3172,7 @@
         <v>21</v>
       </c>
       <c r="F130" s="1">
-        <v>211607984</v>
+        <v>211512189</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3192,7 +3192,7 @@
         <v>9</v>
       </c>
       <c r="F131" s="1">
-        <v>50184696</v>
+        <v>50180149</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -3232,7 +3232,7 @@
         <v>21</v>
       </c>
       <c r="F133" s="1">
-        <v>338813614</v>
+        <v>338836333</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -3252,7 +3252,7 @@
         <v>9</v>
       </c>
       <c r="F134" s="1">
-        <v>8681357</v>
+        <v>8681461</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3332,7 +3332,7 @@
         <v>21</v>
       </c>
       <c r="F138" s="1">
-        <v>217591316</v>
+        <v>217496774</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -3352,7 +3352,7 @@
         <v>9</v>
       </c>
       <c r="F139" s="1">
-        <v>48912541</v>
+        <v>48907994</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -3392,7 +3392,7 @@
         <v>21</v>
       </c>
       <c r="F141" s="1">
-        <v>324421326</v>
+        <v>324440210</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -3412,7 +3412,7 @@
         <v>9</v>
       </c>
       <c r="F142" s="1">
-        <v>8389179</v>
+        <v>8389266</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -3452,7 +3452,7 @@
         <v>21</v>
       </c>
       <c r="F144" s="1">
-        <v>23403687</v>
+        <v>23403675</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -3492,7 +3492,7 @@
         <v>21</v>
       </c>
       <c r="F146" s="1">
-        <v>230853923</v>
+        <v>230755180</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -3512,7 +3512,7 @@
         <v>9</v>
       </c>
       <c r="F147" s="1">
-        <v>55929870</v>
+        <v>55925639</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -3552,7 +3552,7 @@
         <v>21</v>
       </c>
       <c r="F149" s="1">
-        <v>319839782</v>
+        <v>319856821</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -3572,7 +3572,7 @@
         <v>9</v>
       </c>
       <c r="F150" s="1">
-        <v>8502519</v>
+        <v>8502606</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -3652,7 +3652,7 @@
         <v>21</v>
       </c>
       <c r="F154" s="1">
-        <v>217192785</v>
+        <v>217092121</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -3672,7 +3672,7 @@
         <v>9</v>
       </c>
       <c r="F155" s="1">
-        <v>55888407</v>
+        <v>55884224</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -3712,7 +3712,7 @@
         <v>21</v>
       </c>
       <c r="F157" s="1">
-        <v>331219116</v>
+        <v>331234425</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -3732,7 +3732,7 @@
         <v>9</v>
       </c>
       <c r="F158" s="1">
-        <v>8556320</v>
+        <v>8556383</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -3812,7 +3812,7 @@
         <v>21</v>
       </c>
       <c r="F162" s="1">
-        <v>206509298</v>
+        <v>206471070</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -3832,7 +3832,7 @@
         <v>9</v>
       </c>
       <c r="F163" s="1">
-        <v>54475256</v>
+        <v>54473596</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -3872,7 +3872,7 @@
         <v>21</v>
       </c>
       <c r="F165" s="1">
-        <v>309654311</v>
+        <v>309667438</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -3892,7 +3892,7 @@
         <v>9</v>
       </c>
       <c r="F166" s="1">
-        <v>8359865</v>
+        <v>8359913</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -3972,7 +3972,7 @@
         <v>21</v>
       </c>
       <c r="F170" s="1">
-        <v>215160066</v>
+        <v>215060894</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -3992,7 +3992,7 @@
         <v>9</v>
       </c>
       <c r="F171" s="1">
-        <v>55603913</v>
+        <v>55599927</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -4032,7 +4032,7 @@
         <v>21</v>
       </c>
       <c r="F173" s="1">
-        <v>337866468</v>
+        <v>337879492</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -4052,7 +4052,7 @@
         <v>9</v>
       </c>
       <c r="F174" s="1">
-        <v>8702033</v>
+        <v>8702089</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -4132,7 +4132,7 @@
         <v>21</v>
       </c>
       <c r="F178" s="1">
-        <v>200249927</v>
+        <v>200143475</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -4152,7 +4152,7 @@
         <v>9</v>
       </c>
       <c r="F179" s="1">
-        <v>48913662</v>
+        <v>48909581</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -4192,7 +4192,7 @@
         <v>21</v>
       </c>
       <c r="F181" s="1">
-        <v>333990734</v>
+        <v>334001648</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -4212,7 +4212,7 @@
         <v>9</v>
       </c>
       <c r="F182" s="1">
-        <v>8584570</v>
+        <v>8584620</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -4292,7 +4292,7 @@
         <v>21</v>
       </c>
       <c r="F186" s="1">
-        <v>207451176</v>
+        <v>207337256</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -4312,7 +4312,7 @@
         <v>9</v>
       </c>
       <c r="F187" s="1">
-        <v>54072783</v>
+        <v>54068445</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -4352,7 +4352,7 @@
         <v>21</v>
       </c>
       <c r="F189" s="1">
-        <v>335530432</v>
+        <v>335541701</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -4372,7 +4372,7 @@
         <v>9</v>
       </c>
       <c r="F190" s="1">
-        <v>8650743</v>
+        <v>8650792</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -4452,7 +4452,7 @@
         <v>21</v>
       </c>
       <c r="F194" s="1">
-        <v>210471485</v>
+        <v>210355483</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -4472,7 +4472,7 @@
         <v>9</v>
       </c>
       <c r="F195" s="1">
-        <v>53337667</v>
+        <v>53333353</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -4512,7 +4512,7 @@
         <v>21</v>
       </c>
       <c r="F197" s="1">
-        <v>335257263</v>
+        <v>335268138</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -4532,7 +4532,7 @@
         <v>9</v>
       </c>
       <c r="F198" s="1">
-        <v>8665947</v>
+        <v>8665984</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -4612,7 +4612,7 @@
         <v>21</v>
       </c>
       <c r="F202" s="1">
-        <v>195269189</v>
+        <v>195164307</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -4632,7 +4632,7 @@
         <v>9</v>
       </c>
       <c r="F203" s="1">
-        <v>49717833</v>
+        <v>49713901</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -4672,7 +4672,7 @@
         <v>21</v>
       </c>
       <c r="F205" s="1">
-        <v>302664532</v>
+        <v>302672916</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -4692,7 +4692,7 @@
         <v>9</v>
       </c>
       <c r="F206" s="1">
-        <v>8036995</v>
+        <v>8037029</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -4772,7 +4772,7 @@
         <v>21</v>
       </c>
       <c r="F210" s="1">
-        <v>217243848</v>
+        <v>217129273</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -4792,7 +4792,7 @@
         <v>9</v>
       </c>
       <c r="F211" s="1">
-        <v>51703864</v>
+        <v>51699886</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -4832,7 +4832,7 @@
         <v>21</v>
       </c>
       <c r="F213" s="1">
-        <v>335918712</v>
+        <v>335927467</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -4852,7 +4852,7 @@
         <v>9</v>
       </c>
       <c r="F214" s="1">
-        <v>9117148</v>
+        <v>9117187</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -4932,7 +4932,7 @@
         <v>21</v>
       </c>
       <c r="F218" s="1">
-        <v>201047323</v>
+        <v>200962353</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -4952,7 +4952,7 @@
         <v>9</v>
       </c>
       <c r="F219" s="1">
-        <v>46379120</v>
+        <v>46376150</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -4992,7 +4992,7 @@
         <v>21</v>
       </c>
       <c r="F221" s="1">
-        <v>327320157</v>
+        <v>327327807</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -5012,7 +5012,7 @@
         <v>9</v>
       </c>
       <c r="F222" s="1">
-        <v>8721028</v>
+        <v>8721054</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -5092,7 +5092,7 @@
         <v>21</v>
       </c>
       <c r="F226" s="1">
-        <v>200016322</v>
+        <v>199927130</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -5112,7 +5112,7 @@
         <v>9</v>
       </c>
       <c r="F227" s="1">
-        <v>49630049</v>
+        <v>49626771</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -5152,7 +5152,7 @@
         <v>21</v>
       </c>
       <c r="F229" s="1">
-        <v>334302782</v>
+        <v>334311802</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -5172,7 +5172,7 @@
         <v>9</v>
       </c>
       <c r="F230" s="1">
-        <v>9178791</v>
+        <v>9178829</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -5252,7 +5252,7 @@
         <v>21</v>
       </c>
       <c r="F234" s="1">
-        <v>185289258</v>
+        <v>185198425</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
@@ -5272,7 +5272,7 @@
         <v>9</v>
       </c>
       <c r="F235" s="1">
-        <v>48245513</v>
+        <v>48242226</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -5312,7 +5312,7 @@
         <v>21</v>
       </c>
       <c r="F237" s="1">
-        <v>310790707</v>
+        <v>310798582</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
@@ -5332,7 +5332,7 @@
         <v>9</v>
       </c>
       <c r="F238" s="1">
-        <v>8799734</v>
+        <v>8799769</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
@@ -5412,7 +5412,7 @@
         <v>21</v>
       </c>
       <c r="F242" s="1">
-        <v>185138751</v>
+        <v>185063545</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -5432,7 +5432,7 @@
         <v>9</v>
       </c>
       <c r="F243" s="1">
-        <v>46380541</v>
+        <v>46378029</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -5472,7 +5472,7 @@
         <v>21</v>
       </c>
       <c r="F245" s="1">
-        <v>328194346</v>
+        <v>328201784</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -5492,7 +5492,7 @@
         <v>9</v>
       </c>
       <c r="F246" s="1">
-        <v>9196602</v>
+        <v>9196635</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -5572,7 +5572,7 @@
         <v>21</v>
       </c>
       <c r="F250" s="1">
-        <v>194095849</v>
+        <v>194060192</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -5592,7 +5592,7 @@
         <v>9</v>
       </c>
       <c r="F251" s="1">
-        <v>49995352</v>
+        <v>49994159</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -5632,7 +5632,7 @@
         <v>21</v>
       </c>
       <c r="F253" s="1">
-        <v>330415043</v>
+        <v>330407469</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -5652,7 +5652,7 @@
         <v>9</v>
       </c>
       <c r="F254" s="1">
-        <v>9204660</v>
+        <v>9204631</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -5732,7 +5732,7 @@
         <v>21</v>
       </c>
       <c r="F258" s="1">
-        <v>183417239</v>
+        <v>183318037</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
@@ -5752,7 +5752,7 @@
         <v>9</v>
       </c>
       <c r="F259" s="1">
-        <v>49465132</v>
+        <v>49461957</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
@@ -5792,7 +5792,7 @@
         <v>21</v>
       </c>
       <c r="F261" s="1">
-        <v>319265720</v>
+        <v>319272558</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
@@ -5812,7 +5812,7 @@
         <v>9</v>
       </c>
       <c r="F262" s="1">
-        <v>8921397</v>
+        <v>8921421</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -5892,7 +5892,7 @@
         <v>21</v>
       </c>
       <c r="F266" s="1">
-        <v>188896511</v>
+        <v>188789221</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
@@ -5912,7 +5912,7 @@
         <v>9</v>
       </c>
       <c r="F267" s="1">
-        <v>50408367</v>
+        <v>50405069</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
@@ -5952,7 +5952,7 @@
         <v>21</v>
       </c>
       <c r="F269" s="1">
-        <v>327800331</v>
+        <v>327806871</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
@@ -5972,7 +5972,7 @@
         <v>9</v>
       </c>
       <c r="F270" s="1">
-        <v>9322637</v>
+        <v>9322656</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
@@ -6052,7 +6052,7 @@
         <v>21</v>
       </c>
       <c r="F274" s="1">
-        <v>175361859</v>
+        <v>175276188</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
@@ -6072,7 +6072,7 @@
         <v>9</v>
       </c>
       <c r="F275" s="1">
-        <v>46258416</v>
+        <v>46255610</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
@@ -6112,7 +6112,7 @@
         <v>21</v>
       </c>
       <c r="F277" s="1">
-        <v>321450180</v>
+        <v>321456499</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
@@ -6132,7 +6132,7 @@
         <v>9</v>
       </c>
       <c r="F278" s="1">
-        <v>9098984</v>
+        <v>9099012</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
@@ -6212,7 +6212,7 @@
         <v>21</v>
       </c>
       <c r="F282" s="1">
-        <v>186383234</v>
+        <v>186272950</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
@@ -6232,7 +6232,7 @@
         <v>9</v>
       </c>
       <c r="F283" s="1">
-        <v>48152607</v>
+        <v>48149278</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
@@ -6272,7 +6272,7 @@
         <v>21</v>
       </c>
       <c r="F285" s="1">
-        <v>332070001</v>
+        <v>332064290</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
@@ -6292,7 +6292,7 @@
         <v>9</v>
       </c>
       <c r="F286" s="1">
-        <v>9183884</v>
+        <v>9183867</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
@@ -6372,7 +6372,7 @@
         <v>21</v>
       </c>
       <c r="F290" s="1">
-        <v>185255392</v>
+        <v>185166665</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
@@ -6392,7 +6392,7 @@
         <v>9</v>
       </c>
       <c r="F291" s="1">
-        <v>50133616</v>
+        <v>50130916</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
@@ -6432,7 +6432,7 @@
         <v>21</v>
       </c>
       <c r="F293" s="1">
-        <v>318850146</v>
+        <v>318855305</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
@@ -6452,7 +6452,7 @@
         <v>9</v>
       </c>
       <c r="F294" s="1">
-        <v>9146041</v>
+        <v>9146057</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
@@ -6532,7 +6532,7 @@
         <v>21</v>
       </c>
       <c r="F298" s="1">
-        <v>158513541</v>
+        <v>158410349</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
@@ -6552,7 +6552,7 @@
         <v>9</v>
       </c>
       <c r="F299" s="1">
-        <v>41099196</v>
+        <v>41096304</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
@@ -6592,7 +6592,7 @@
         <v>21</v>
       </c>
       <c r="F301" s="1">
-        <v>287392450</v>
+        <v>287398131</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
@@ -6612,7 +6612,7 @@
         <v>9</v>
       </c>
       <c r="F302" s="1">
-        <v>8116611</v>
+        <v>8116630</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
@@ -6692,7 +6692,7 @@
         <v>21</v>
       </c>
       <c r="F306" s="1">
-        <v>175605933</v>
+        <v>175490368</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
@@ -6712,7 +6712,7 @@
         <v>9</v>
       </c>
       <c r="F307" s="1">
-        <v>44887140</v>
+        <v>44883969</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
@@ -6752,7 +6752,7 @@
         <v>21</v>
       </c>
       <c r="F309" s="1">
-        <v>325015988</v>
+        <v>325021512</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
@@ -6772,7 +6772,7 @@
         <v>9</v>
       </c>
       <c r="F310" s="1">
-        <v>9492101</v>
+        <v>9492131</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
@@ -6852,7 +6852,7 @@
         <v>21</v>
       </c>
       <c r="F314" s="1">
-        <v>167609936</v>
+        <v>167501234</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
@@ -6872,7 +6872,7 @@
         <v>9</v>
       </c>
       <c r="F315" s="1">
-        <v>42223263</v>
+        <v>42220361</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
@@ -6912,7 +6912,7 @@
         <v>21</v>
       </c>
       <c r="F317" s="1">
-        <v>318088455</v>
+        <v>318093887</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
@@ -6932,7 +6932,7 @@
         <v>9</v>
       </c>
       <c r="F318" s="1">
-        <v>9323222</v>
+        <v>9323241</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
@@ -7012,7 +7012,7 @@
         <v>21</v>
       </c>
       <c r="F322" s="1">
-        <v>169731951</v>
+        <v>169623700</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
@@ -7032,7 +7032,7 @@
         <v>9</v>
       </c>
       <c r="F323" s="1">
-        <v>44365958</v>
+        <v>44363216</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
@@ -7072,7 +7072,7 @@
         <v>21</v>
       </c>
       <c r="F325" s="1">
-        <v>327718711</v>
+        <v>327713066</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
@@ -7092,7 +7092,7 @@
         <v>9</v>
       </c>
       <c r="F326" s="1">
-        <v>9686105</v>
+        <v>9686087</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
@@ -7172,7 +7172,7 @@
         <v>21</v>
       </c>
       <c r="F330" s="1">
-        <v>156185180</v>
+        <v>156091489</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
@@ -7192,7 +7192,7 @@
         <v>9</v>
       </c>
       <c r="F331" s="1">
-        <v>41593383</v>
+        <v>41591064</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
@@ -7232,7 +7232,7 @@
         <v>21</v>
       </c>
       <c r="F333" s="1">
-        <v>314960146</v>
+        <v>314964911</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
@@ -7252,7 +7252,7 @@
         <v>9</v>
       </c>
       <c r="F334" s="1">
-        <v>9361056</v>
+        <v>9361073</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
@@ -7332,7 +7332,7 @@
         <v>21</v>
       </c>
       <c r="F338" s="1">
-        <v>154202603</v>
+        <v>154107957</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
@@ -7352,7 +7352,7 @@
         <v>9</v>
       </c>
       <c r="F339" s="1">
-        <v>39509058</v>
+        <v>39506905</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
@@ -7392,7 +7392,7 @@
         <v>21</v>
       </c>
       <c r="F341" s="1">
-        <v>328130851</v>
+        <v>328135774</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
@@ -7412,7 +7412,7 @@
         <v>9</v>
       </c>
       <c r="F342" s="1">
-        <v>9757479</v>
+        <v>9757490</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
@@ -7492,7 +7492,7 @@
         <v>21</v>
       </c>
       <c r="F346" s="1">
-        <v>156708273</v>
+        <v>156609359</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
@@ -7512,7 +7512,7 @@
         <v>9</v>
       </c>
       <c r="F347" s="1">
-        <v>41368267</v>
+        <v>41365977</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
@@ -7552,7 +7552,7 @@
         <v>21</v>
       </c>
       <c r="F349" s="1">
-        <v>310498696</v>
+        <v>310493499</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
@@ -7572,7 +7572,7 @@
         <v>9</v>
       </c>
       <c r="F350" s="1">
-        <v>9828326</v>
+        <v>9828303</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
@@ -7652,7 +7652,7 @@
         <v>21</v>
       </c>
       <c r="F354" s="1">
-        <v>130201681</v>
+        <v>130107201</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
@@ -7672,7 +7672,7 @@
         <v>9</v>
       </c>
       <c r="F355" s="1">
-        <v>34590114</v>
+        <v>34587957</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
@@ -7712,7 +7712,7 @@
         <v>21</v>
       </c>
       <c r="F357" s="1">
-        <v>314535990</v>
+        <v>314540993</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
@@ -7732,7 +7732,7 @@
         <v>9</v>
       </c>
       <c r="F358" s="1">
-        <v>9552119</v>
+        <v>9552142</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
@@ -7812,7 +7812,7 @@
         <v>21</v>
       </c>
       <c r="F362" s="1">
-        <v>148531805</v>
+        <v>148435373</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
@@ -7832,7 +7832,7 @@
         <v>9</v>
       </c>
       <c r="F363" s="1">
-        <v>41945245</v>
+        <v>41942961</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
@@ -7872,7 +7872,7 @@
         <v>21</v>
       </c>
       <c r="F365" s="1">
-        <v>332615486</v>
+        <v>332620079</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
@@ -7892,7 +7892,7 @@
         <v>9</v>
       </c>
       <c r="F366" s="1">
-        <v>10041599</v>
+        <v>10041612</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
@@ -7932,7 +7932,7 @@
         <v>21</v>
       </c>
       <c r="F368" s="1">
-        <v>26150474</v>
+        <v>26150284</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
@@ -7972,7 +7972,7 @@
         <v>21</v>
       </c>
       <c r="F370" s="1">
-        <v>144252893</v>
+        <v>144154179</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
@@ -7992,7 +7992,7 @@
         <v>9</v>
       </c>
       <c r="F371" s="1">
-        <v>40080822</v>
+        <v>40078448</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
@@ -8032,7 +8032,7 @@
         <v>21</v>
       </c>
       <c r="F373" s="1">
-        <v>323655780</v>
+        <v>323660120</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
@@ -8052,7 +8052,7 @@
         <v>9</v>
       </c>
       <c r="F374" s="1">
-        <v>9934726</v>
+        <v>9934739</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
@@ -8132,7 +8132,7 @@
         <v>21</v>
       </c>
       <c r="F378" s="1">
-        <v>149364160</v>
+        <v>149275347</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
@@ -8152,7 +8152,7 @@
         <v>9</v>
       </c>
       <c r="F379" s="1">
-        <v>40802055</v>
+        <v>40799822</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
@@ -8192,7 +8192,7 @@
         <v>21</v>
       </c>
       <c r="F381" s="1">
-        <v>329242836</v>
+        <v>329247549</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
@@ -8212,7 +8212,7 @@
         <v>9</v>
       </c>
       <c r="F382" s="1">
-        <v>10175621</v>
+        <v>10175638</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
@@ -8292,7 +8292,7 @@
         <v>21</v>
       </c>
       <c r="F386" s="1">
-        <v>146951849</v>
+        <v>146861324</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
@@ -8312,7 +8312,7 @@
         <v>9</v>
       </c>
       <c r="F387" s="1">
-        <v>42373922</v>
+        <v>42371736</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
@@ -8352,7 +8352,7 @@
         <v>21</v>
       </c>
       <c r="F389" s="1">
-        <v>332462200</v>
+        <v>332466354</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
@@ -8372,7 +8372,7 @@
         <v>9</v>
       </c>
       <c r="F390" s="1">
-        <v>10296139</v>
+        <v>10296154</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
@@ -8452,7 +8452,7 @@
         <v>21</v>
       </c>
       <c r="F394" s="1">
-        <v>135261625</v>
+        <v>135190566</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
@@ -8472,7 +8472,7 @@
         <v>9</v>
       </c>
       <c r="F395" s="1">
-        <v>40149333</v>
+        <v>40147713</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
@@ -8512,7 +8512,7 @@
         <v>21</v>
       </c>
       <c r="F397" s="1">
-        <v>308928832</v>
+        <v>308932373</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
@@ -8532,7 +8532,7 @@
         <v>9</v>
       </c>
       <c r="F398" s="1">
-        <v>9761160</v>
+        <v>9761283</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
@@ -8612,7 +8612,7 @@
         <v>21</v>
       </c>
       <c r="F402" s="1">
-        <v>145991170</v>
+        <v>145921157</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
@@ -8632,7 +8632,7 @@
         <v>9</v>
       </c>
       <c r="F403" s="1">
-        <v>43615087</v>
+        <v>43613539</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
@@ -8672,7 +8672,7 @@
         <v>21</v>
       </c>
       <c r="F405" s="1">
-        <v>328366752</v>
+        <v>328372648</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
@@ -8692,7 +8692,7 @@
         <v>9</v>
       </c>
       <c r="F406" s="1">
-        <v>10551851</v>
+        <v>10551745</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
@@ -8772,7 +8772,7 @@
         <v>21</v>
       </c>
       <c r="F410" s="1">
-        <v>137426620</v>
+        <v>137364009</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
@@ -8792,7 +8792,7 @@
         <v>9</v>
       </c>
       <c r="F411" s="1">
-        <v>39321994</v>
+        <v>39320652</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
@@ -8832,7 +8832,7 @@
         <v>21</v>
       </c>
       <c r="F413" s="1">
-        <v>313474984</v>
+        <v>313469577</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
@@ -8852,7 +8852,7 @@
         <v>9</v>
       </c>
       <c r="F414" s="1">
-        <v>10050927</v>
+        <v>10050815</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
@@ -8892,7 +8892,7 @@
         <v>21</v>
       </c>
       <c r="F416" s="1">
-        <v>25580244</v>
+        <v>25576417</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
@@ -8912,7 +8912,7 @@
         <v>9</v>
       </c>
       <c r="F417" s="1">
-        <v>2791276</v>
+        <v>2791309</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
@@ -8932,7 +8932,7 @@
         <v>21</v>
       </c>
       <c r="F418" s="1">
-        <v>136011830</v>
+        <v>135942486</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
@@ -8952,7 +8952,7 @@
         <v>9</v>
       </c>
       <c r="F419" s="1">
-        <v>38823957</v>
+        <v>38822550</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
@@ -8992,7 +8992,7 @@
         <v>21</v>
       </c>
       <c r="F421" s="1">
-        <v>319864300</v>
+        <v>319868850</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
@@ -9012,7 +9012,7 @@
         <v>9</v>
       </c>
       <c r="F422" s="1">
-        <v>10446779</v>
+        <v>10446886</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
@@ -9092,7 +9092,7 @@
         <v>21</v>
       </c>
       <c r="F426" s="1">
-        <v>123875685</v>
+        <v>123806341</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
@@ -9112,7 +9112,7 @@
         <v>9</v>
       </c>
       <c r="F427" s="1">
-        <v>35149077</v>
+        <v>35147763</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
@@ -9152,7 +9152,7 @@
         <v>21</v>
       </c>
       <c r="F429" s="1">
-        <v>307811796</v>
+        <v>307815727</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
@@ -9172,7 +9172,7 @@
         <v>9</v>
       </c>
       <c r="F430" s="1">
-        <v>10146026</v>
+        <v>10146046</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
@@ -9252,7 +9252,7 @@
         <v>21</v>
       </c>
       <c r="F434" s="1">
-        <v>133643140</v>
+        <v>133566813</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
@@ -9272,7 +9272,7 @@
         <v>9</v>
       </c>
       <c r="F435" s="1">
-        <v>40557022</v>
+        <v>40555621</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.25">
@@ -9312,7 +9312,7 @@
         <v>21</v>
       </c>
       <c r="F437" s="1">
-        <v>317209855</v>
+        <v>317214674</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
@@ -9332,7 +9332,7 @@
         <v>9</v>
       </c>
       <c r="F438" s="1">
-        <v>10690476</v>
+        <v>10693254</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
@@ -9372,7 +9372,7 @@
         <v>21</v>
       </c>
       <c r="F440" s="1">
-        <v>26097978</v>
+        <v>26097912</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
@@ -9412,7 +9412,7 @@
         <v>21</v>
       </c>
       <c r="F442" s="1">
-        <v>114398099</v>
+        <v>114347557</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.25">
@@ -9432,7 +9432,7 @@
         <v>9</v>
       </c>
       <c r="F443" s="1">
-        <v>35706152</v>
+        <v>35705207</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
@@ -9472,7 +9472,7 @@
         <v>21</v>
       </c>
       <c r="F445" s="1">
-        <v>311034398</v>
+        <v>311043411</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
@@ -9492,7 +9492,7 @@
         <v>9</v>
       </c>
       <c r="F446" s="1">
-        <v>10783001</v>
+        <v>10792502</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
@@ -9572,7 +9572,7 @@
         <v>21</v>
       </c>
       <c r="F450" s="1">
-        <v>116104496</v>
+        <v>116054042</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
@@ -9592,7 +9592,7 @@
         <v>9</v>
       </c>
       <c r="F451" s="1">
-        <v>37033633</v>
+        <v>37032672</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
@@ -9632,7 +9632,7 @@
         <v>21</v>
       </c>
       <c r="F453" s="1">
-        <v>300058274</v>
+        <v>300056822</v>
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
@@ -9652,7 +9652,7 @@
         <v>9</v>
       </c>
       <c r="F454" s="1">
-        <v>10607307</v>
+        <v>10614518</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
@@ -9732,7 +9732,7 @@
         <v>21</v>
       </c>
       <c r="F458" s="1">
-        <v>132814887</v>
+        <v>132739281</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
@@ -9752,7 +9752,7 @@
         <v>9</v>
       </c>
       <c r="F459" s="1">
-        <v>42877661</v>
+        <v>42876250</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
@@ -9792,7 +9792,7 @@
         <v>21</v>
       </c>
       <c r="F461" s="1">
-        <v>311046785</v>
+        <v>311046011</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
@@ -9812,7 +9812,7 @@
         <v>9</v>
       </c>
       <c r="F462" s="1">
-        <v>11195326</v>
+        <v>11201687</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
@@ -9892,7 +9892,7 @@
         <v>21</v>
       </c>
       <c r="F466" s="1">
-        <v>130735636</v>
+        <v>130675524</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.25">
@@ -9912,7 +9912,7 @@
         <v>9</v>
       </c>
       <c r="F467" s="1">
-        <v>42990902</v>
+        <v>42989707</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
@@ -9952,7 +9952,7 @@
         <v>21</v>
       </c>
       <c r="F469" s="1">
-        <v>300280589</v>
+        <v>300289086</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
@@ -9972,7 +9972,7 @@
         <v>9</v>
       </c>
       <c r="F470" s="1">
-        <v>10894711</v>
+        <v>10900617</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
@@ -10052,7 +10052,7 @@
         <v>21</v>
       </c>
       <c r="F474" s="1">
-        <v>132229754</v>
+        <v>132158780</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
@@ -10072,7 +10072,7 @@
         <v>9</v>
       </c>
       <c r="F475" s="1">
-        <v>44286094</v>
+        <v>44284810</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
@@ -10112,7 +10112,7 @@
         <v>21</v>
       </c>
       <c r="F477" s="1">
-        <v>304664066</v>
+        <v>304671252</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
@@ -10132,7 +10132,7 @@
         <v>9</v>
       </c>
       <c r="F478" s="1">
-        <v>11179396</v>
+        <v>11183708</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
@@ -10172,7 +10172,7 @@
         <v>21</v>
       </c>
       <c r="F480" s="1">
-        <v>26180800</v>
+        <v>26180452</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
@@ -10212,7 +10212,7 @@
         <v>21</v>
       </c>
       <c r="F482" s="1">
-        <v>128904552</v>
+        <v>128828087</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.25">
@@ -10232,7 +10232,7 @@
         <v>9</v>
       </c>
       <c r="F483" s="1">
-        <v>43031713</v>
+        <v>43030409</v>
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.25">
@@ -10272,7 +10272,7 @@
         <v>21</v>
       </c>
       <c r="F485" s="1">
-        <v>297306327</v>
+        <v>297305040</v>
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
@@ -10292,7 +10292,7 @@
         <v>9</v>
       </c>
       <c r="F486" s="1">
-        <v>11020984</v>
+        <v>11024950</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.25">
@@ -10332,7 +10332,7 @@
         <v>21</v>
       </c>
       <c r="F488" s="1">
-        <v>24692322</v>
+        <v>24693283</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
@@ -10372,7 +10372,7 @@
         <v>21</v>
       </c>
       <c r="F490" s="1">
-        <v>113835243</v>
+        <v>113767112</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.25">
@@ -10392,7 +10392,7 @@
         <v>9</v>
       </c>
       <c r="F491" s="1">
-        <v>38455677</v>
+        <v>38447937</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.25">
@@ -10432,7 +10432,7 @@
         <v>21</v>
       </c>
       <c r="F493" s="1">
-        <v>274024920</v>
+        <v>274031891</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
@@ -10452,7 +10452,7 @@
         <v>9</v>
       </c>
       <c r="F494" s="1">
-        <v>10158105</v>
+        <v>10162395</v>
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.25">
@@ -10532,7 +10532,7 @@
         <v>21</v>
       </c>
       <c r="F498" s="1">
-        <v>123267355</v>
+        <v>123165415</v>
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.25">
@@ -10552,7 +10552,7 @@
         <v>9</v>
       </c>
       <c r="F499" s="1">
-        <v>40560521</v>
+        <v>40558691</v>
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.25">
@@ -10592,7 +10592,7 @@
         <v>21</v>
       </c>
       <c r="F501" s="1">
-        <v>303366120</v>
+        <v>303373794</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.25">
@@ -10612,7 +10612,7 @@
         <v>9</v>
       </c>
       <c r="F502" s="1">
-        <v>11498671</v>
+        <v>11502448</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.25">
@@ -10692,7 +10692,7 @@
         <v>21</v>
       </c>
       <c r="F506" s="1">
-        <v>120932384</v>
+        <v>120833683</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
@@ -10712,7 +10712,7 @@
         <v>9</v>
       </c>
       <c r="F507" s="1">
-        <v>41776587</v>
+        <v>41774973</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.25">
@@ -10752,7 +10752,7 @@
         <v>21</v>
       </c>
       <c r="F509" s="1">
-        <v>295036312</v>
+        <v>295043350</v>
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.25">
@@ -10772,7 +10772,7 @@
         <v>9</v>
       </c>
       <c r="F510" s="1">
-        <v>11267703</v>
+        <v>11270943</v>
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.25">
@@ -10812,7 +10812,7 @@
         <v>21</v>
       </c>
       <c r="F512" s="1">
-        <v>25948712</v>
+        <v>25948711</v>
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.25">
@@ -10852,7 +10852,7 @@
         <v>21</v>
       </c>
       <c r="F514" s="1">
-        <v>119056824</v>
+        <v>118972888</v>
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.25">
@@ -10872,7 +10872,7 @@
         <v>9</v>
       </c>
       <c r="F515" s="1">
-        <v>38908112</v>
+        <v>38906640</v>
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.25">
@@ -10912,7 +10912,7 @@
         <v>21</v>
       </c>
       <c r="F517" s="1">
-        <v>297651155</v>
+        <v>297658778</v>
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.25">
@@ -10932,7 +10932,7 @@
         <v>9</v>
       </c>
       <c r="F518" s="1">
-        <v>11517029</v>
+        <v>11520286</v>
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.25">
@@ -10972,7 +10972,7 @@
         <v>21</v>
       </c>
       <c r="F520" s="1">
-        <v>26633972</v>
+        <v>26633123</v>
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.25">
@@ -11012,7 +11012,7 @@
         <v>21</v>
       </c>
       <c r="F522" s="1">
-        <v>109251622</v>
+        <v>109161024</v>
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.25">
@@ -11032,7 +11032,7 @@
         <v>9</v>
       </c>
       <c r="F523" s="1">
-        <v>35323666</v>
+        <v>35322157</v>
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.25">
@@ -11072,7 +11072,7 @@
         <v>21</v>
       </c>
       <c r="F525" s="1">
-        <v>289889674</v>
+        <v>289888128</v>
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.25">
@@ -11092,7 +11092,7 @@
         <v>9</v>
       </c>
       <c r="F526" s="1">
-        <v>11254913</v>
+        <v>11257695</v>
       </c>
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.25">
@@ -11172,7 +11172,7 @@
         <v>21</v>
       </c>
       <c r="F530" s="1">
-        <v>114827811</v>
+        <v>114745856</v>
       </c>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.25">
@@ -11192,7 +11192,7 @@
         <v>9</v>
       </c>
       <c r="F531" s="1">
-        <v>40239484</v>
+        <v>40238092</v>
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.25">
@@ -11232,7 +11232,7 @@
         <v>21</v>
       </c>
       <c r="F533" s="1">
-        <v>298357510</v>
+        <v>298363611</v>
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.25">
@@ -11252,7 +11252,7 @@
         <v>9</v>
       </c>
       <c r="F534" s="1">
-        <v>11736093</v>
+        <v>11738212</v>
       </c>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.25">
@@ -11332,7 +11332,7 @@
         <v>21</v>
       </c>
       <c r="F538" s="1">
-        <v>109227756</v>
+        <v>109136463</v>
       </c>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.25">
@@ -11352,7 +11352,7 @@
         <v>9</v>
       </c>
       <c r="F539" s="1">
-        <v>38446079</v>
+        <v>38444685</v>
       </c>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.25">
@@ -11392,7 +11392,7 @@
         <v>21</v>
       </c>
       <c r="F541" s="1">
-        <v>298407544</v>
+        <v>298415102</v>
       </c>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.25">
@@ -11412,7 +11412,7 @@
         <v>9</v>
       </c>
       <c r="F542" s="1">
-        <v>11775134</v>
+        <v>11778235</v>
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.25">
@@ -11452,7 +11452,7 @@
         <v>21</v>
       </c>
       <c r="F544" s="1">
-        <v>27213900</v>
+        <v>27215917</v>
       </c>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.25">
@@ -11472,7 +11472,7 @@
         <v>9</v>
       </c>
       <c r="F545" s="1">
-        <v>4908753</v>
+        <v>4908747</v>
       </c>
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.25">
@@ -11492,7 +11492,7 @@
         <v>21</v>
       </c>
       <c r="F546" s="1">
-        <v>113723588</v>
+        <v>113630139</v>
       </c>
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.25">
@@ -11512,7 +11512,7 @@
         <v>9</v>
       </c>
       <c r="F547" s="1">
-        <v>41196723</v>
+        <v>41195227</v>
       </c>
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.25">
@@ -11552,7 +11552,7 @@
         <v>21</v>
       </c>
       <c r="F549" s="1">
-        <v>276410258</v>
+        <v>276417070</v>
       </c>
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.25">
@@ -11572,7 +11572,7 @@
         <v>9</v>
       </c>
       <c r="F550" s="1">
-        <v>11498023</v>
+        <v>11500357</v>
       </c>
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.25">
@@ -11652,7 +11652,7 @@
         <v>21</v>
       </c>
       <c r="F554" s="1">
-        <v>107316759</v>
+        <v>107214861</v>
       </c>
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.25">
@@ -11672,7 +11672,7 @@
         <v>9</v>
       </c>
       <c r="F555" s="1">
-        <v>38065462</v>
+        <v>38063826</v>
       </c>
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.25">
@@ -11712,7 +11712,7 @@
         <v>21</v>
       </c>
       <c r="F557" s="1">
-        <v>303755477</v>
+        <v>303762137</v>
       </c>
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.25">
@@ -11732,7 +11732,7 @@
         <v>9</v>
       </c>
       <c r="F558" s="1">
-        <v>11938024</v>
+        <v>11940231</v>
       </c>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.25">
@@ -11812,7 +11812,7 @@
         <v>21</v>
       </c>
       <c r="F562" s="1">
-        <v>113293286</v>
+        <v>113187775</v>
       </c>
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.25">
@@ -11832,7 +11832,7 @@
         <v>9</v>
       </c>
       <c r="F563" s="1">
-        <v>40706468</v>
+        <v>40705178</v>
       </c>
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.25">
@@ -11872,7 +11872,7 @@
         <v>21</v>
       </c>
       <c r="F565" s="1">
-        <v>293450565</v>
+        <v>293456996</v>
       </c>
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.25">
@@ -11892,7 +11892,7 @@
         <v>9</v>
       </c>
       <c r="F566" s="1">
-        <v>11516191</v>
+        <v>11518144</v>
       </c>
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.25">
@@ -11932,7 +11932,7 @@
         <v>21</v>
       </c>
       <c r="F568" s="1">
-        <v>26308996</v>
+        <v>26308985</v>
       </c>
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.25">
@@ -11972,7 +11972,7 @@
         <v>21</v>
       </c>
       <c r="F570" s="1">
-        <v>112196989</v>
+        <v>112086251</v>
       </c>
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.25">
@@ -11992,7 +11992,7 @@
         <v>9</v>
       </c>
       <c r="F571" s="1">
-        <v>41538623</v>
+        <v>41536255</v>
       </c>
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.25">
@@ -12032,7 +12032,7 @@
         <v>21</v>
       </c>
       <c r="F573" s="1">
-        <v>293667414</v>
+        <v>293674418</v>
       </c>
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.25">
@@ -12052,7 +12052,7 @@
         <v>9</v>
       </c>
       <c r="F574" s="1">
-        <v>11796402</v>
+        <v>11798488</v>
       </c>
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.25">
@@ -12132,7 +12132,7 @@
         <v>21</v>
       </c>
       <c r="F578" s="1">
-        <v>107955709</v>
+        <v>107846209</v>
       </c>
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.25">
@@ -12152,7 +12152,7 @@
         <v>9</v>
       </c>
       <c r="F579" s="1">
-        <v>42114541</v>
+        <v>42113286</v>
       </c>
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.25">
@@ -12192,7 +12192,7 @@
         <v>21</v>
       </c>
       <c r="F581" s="1">
-        <v>296097696</v>
+        <v>296096477</v>
       </c>
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.25">
@@ -12212,7 +12212,7 @@
         <v>9</v>
       </c>
       <c r="F582" s="1">
-        <v>12177186</v>
+        <v>12179228</v>
       </c>
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.25">
@@ -12292,7 +12292,7 @@
         <v>21</v>
       </c>
       <c r="F586" s="1">
-        <v>100453964</v>
+        <v>100353787</v>
       </c>
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.25">
@@ -12312,7 +12312,7 @@
         <v>9</v>
       </c>
       <c r="F587" s="1">
-        <v>38742932</v>
+        <v>38741321</v>
       </c>
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.25">
@@ -12352,7 +12352,7 @@
         <v>21</v>
       </c>
       <c r="F589" s="1">
-        <v>268958748</v>
+        <v>268961362</v>
       </c>
     </row>
     <row r="590" spans="1:6" x14ac:dyDescent="0.25">
@@ -12372,7 +12372,7 @@
         <v>9</v>
       </c>
       <c r="F590" s="1">
-        <v>11264285</v>
+        <v>11266046</v>
       </c>
     </row>
     <row r="591" spans="1:6" x14ac:dyDescent="0.25">
@@ -12452,7 +12452,7 @@
         <v>21</v>
       </c>
       <c r="F594" s="1">
-        <v>110399773</v>
+        <v>110289443</v>
       </c>
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.25">
@@ -12472,7 +12472,7 @@
         <v>9</v>
       </c>
       <c r="F595" s="1">
-        <v>42351903</v>
+        <v>42350168</v>
       </c>
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.25">
@@ -12512,7 +12512,7 @@
         <v>21</v>
       </c>
       <c r="F597" s="1">
-        <v>299961901</v>
+        <v>299960840</v>
       </c>
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.25">
@@ -12532,7 +12532,7 @@
         <v>9</v>
       </c>
       <c r="F598" s="1">
-        <v>12835628</v>
+        <v>12837292</v>
       </c>
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.25">
@@ -12612,7 +12612,7 @@
         <v>21</v>
       </c>
       <c r="F602" s="1">
-        <v>110598146</v>
+        <v>110514276</v>
       </c>
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.25">
@@ -12632,7 +12632,7 @@
         <v>9</v>
       </c>
       <c r="F603" s="1">
-        <v>44229003</v>
+        <v>44227660</v>
       </c>
     </row>
     <row r="604" spans="1:6" x14ac:dyDescent="0.25">
@@ -12672,7 +12672,7 @@
         <v>21</v>
       </c>
       <c r="F605" s="1">
-        <v>288603712</v>
+        <v>288582623</v>
       </c>
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.25">
@@ -12692,7 +12692,7 @@
         <v>9</v>
       </c>
       <c r="F606" s="1">
-        <v>12603415</v>
+        <v>12598256</v>
       </c>
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.25">
@@ -12732,7 +12732,7 @@
         <v>21</v>
       </c>
       <c r="F608" s="1">
-        <v>27017866</v>
+        <v>27017519</v>
       </c>
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.25">
@@ -12772,7 +12772,7 @@
         <v>21</v>
       </c>
       <c r="F610" s="1">
-        <v>116318512</v>
+        <v>116217080</v>
       </c>
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.25">
@@ -12792,7 +12792,7 @@
         <v>9</v>
       </c>
       <c r="F611" s="1">
-        <v>45567184</v>
+        <v>45565727</v>
       </c>
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.25">
@@ -12832,7 +12832,7 @@
         <v>21</v>
       </c>
       <c r="F613" s="1">
-        <v>294862938</v>
+        <v>294854928</v>
       </c>
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.25">
@@ -12852,7 +12852,7 @@
         <v>9</v>
       </c>
       <c r="F614" s="1">
-        <v>12986938</v>
+        <v>12984974</v>
       </c>
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.25">
@@ -12932,7 +12932,7 @@
         <v>21</v>
       </c>
       <c r="F618" s="1">
-        <v>112472505</v>
+        <v>112379162</v>
       </c>
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.25">
@@ -12952,7 +12952,7 @@
         <v>9</v>
       </c>
       <c r="F619" s="1">
-        <v>44050592</v>
+        <v>44049253</v>
       </c>
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.25">
@@ -12992,7 +12992,7 @@
         <v>21</v>
       </c>
       <c r="F621" s="1">
-        <v>285958501</v>
+        <v>285952607</v>
       </c>
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.25">
@@ -13012,7 +13012,7 @@
         <v>9</v>
       </c>
       <c r="F622" s="1">
-        <v>12754656</v>
+        <v>12754164</v>
       </c>
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.25">
@@ -13092,7 +13092,7 @@
         <v>21</v>
       </c>
       <c r="F626" s="1">
-        <v>115206785</v>
+        <v>115113151</v>
       </c>
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.25">
@@ -13112,7 +13112,7 @@
         <v>9</v>
       </c>
       <c r="F627" s="1">
-        <v>45972010</v>
+        <v>45970676</v>
       </c>
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.25">
@@ -13152,7 +13152,7 @@
         <v>21</v>
       </c>
       <c r="F629" s="1">
-        <v>293292009</v>
+        <v>293287621</v>
       </c>
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.25">
@@ -13172,7 +13172,7 @@
         <v>9</v>
       </c>
       <c r="F630" s="1">
-        <v>13482380</v>
+        <v>13482203</v>
       </c>
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.25">
@@ -13252,7 +13252,7 @@
         <v>21</v>
       </c>
       <c r="F634" s="1">
-        <v>116220000</v>
+        <v>116125580</v>
       </c>
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.25">
@@ -13272,7 +13272,7 @@
         <v>9</v>
       </c>
       <c r="F635" s="1">
-        <v>46296265</v>
+        <v>46294946</v>
       </c>
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.25">
@@ -13312,7 +13312,7 @@
         <v>21</v>
       </c>
       <c r="F637" s="1">
-        <v>288269159</v>
+        <v>288267371</v>
       </c>
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.25">
@@ -13332,7 +13332,7 @@
         <v>9</v>
       </c>
       <c r="F638" s="1">
-        <v>13327684</v>
+        <v>13329504</v>
       </c>
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.25">
@@ -13412,7 +13412,7 @@
         <v>21</v>
       </c>
       <c r="F642" s="1">
-        <v>111807367</v>
+        <v>111711056</v>
       </c>
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.25">
@@ -13432,7 +13432,7 @@
         <v>9</v>
       </c>
       <c r="F643" s="1">
-        <v>44313124</v>
+        <v>44311808</v>
       </c>
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.25">
@@ -13472,7 +13472,7 @@
         <v>21</v>
       </c>
       <c r="F645" s="1">
-        <v>283752444</v>
+        <v>283753710</v>
       </c>
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.25">
@@ -13492,7 +13492,7 @@
         <v>9</v>
       </c>
       <c r="F646" s="1">
-        <v>12954072</v>
+        <v>12955267</v>
       </c>
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.25">
@@ -13572,7 +13572,7 @@
         <v>21</v>
       </c>
       <c r="F650" s="1">
-        <v>116032514</v>
+        <v>115940523</v>
       </c>
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.25">
@@ -13592,7 +13592,7 @@
         <v>9</v>
       </c>
       <c r="F651" s="1">
-        <v>45953851</v>
+        <v>45952554</v>
       </c>
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.25">
@@ -13632,7 +13632,7 @@
         <v>21</v>
       </c>
       <c r="F653" s="1">
-        <v>292879105</v>
+        <v>292870139</v>
       </c>
     </row>
     <row r="654" spans="1:6" x14ac:dyDescent="0.25">
@@ -13652,7 +13652,7 @@
         <v>9</v>
       </c>
       <c r="F654" s="1">
-        <v>14142687</v>
+        <v>14143316</v>
       </c>
     </row>
     <row r="655" spans="1:6" x14ac:dyDescent="0.25">
@@ -13732,7 +13732,7 @@
         <v>21</v>
       </c>
       <c r="F658" s="1">
-        <v>106651377</v>
+        <v>106568390</v>
       </c>
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.25">
@@ -13752,7 +13752,7 @@
         <v>9</v>
       </c>
       <c r="F659" s="1">
-        <v>43284793</v>
+        <v>43283388</v>
       </c>
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.25">
@@ -13792,7 +13792,7 @@
         <v>21</v>
       </c>
       <c r="F661" s="1">
-        <v>286046402</v>
+        <v>286048531</v>
       </c>
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.25">
@@ -13812,7 +13812,7 @@
         <v>9</v>
       </c>
       <c r="F662" s="1">
-        <v>13754557</v>
+        <v>13755857</v>
       </c>
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.25">
@@ -13892,7 +13892,7 @@
         <v>21</v>
       </c>
       <c r="F666" s="1">
-        <v>112968887</v>
+        <v>112857650</v>
       </c>
     </row>
     <row r="667" spans="1:6" x14ac:dyDescent="0.25">
@@ -13912,7 +13912,7 @@
         <v>9</v>
       </c>
       <c r="F667" s="1">
-        <v>46730255</v>
+        <v>46728295</v>
       </c>
     </row>
     <row r="668" spans="1:6" x14ac:dyDescent="0.25">
@@ -13952,7 +13952,7 @@
         <v>21</v>
       </c>
       <c r="F669" s="1">
-        <v>292986170</v>
+        <v>293345892</v>
       </c>
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="0.25">
@@ -13972,7 +13972,7 @@
         <v>9</v>
       </c>
       <c r="F670" s="1">
-        <v>14756412</v>
+        <v>14759815</v>
       </c>
     </row>
     <row r="671" spans="1:6" x14ac:dyDescent="0.25">
@@ -14052,7 +14052,7 @@
         <v>21</v>
       </c>
       <c r="F674" s="1">
-        <v>113288046</v>
+        <v>113177311</v>
       </c>
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.25">
@@ -14072,7 +14072,7 @@
         <v>9</v>
       </c>
       <c r="F675" s="1">
-        <v>46706115</v>
+        <v>46704345</v>
       </c>
     </row>
     <row r="676" spans="1:6" x14ac:dyDescent="0.25">
@@ -14112,7 +14112,7 @@
         <v>21</v>
       </c>
       <c r="F677" s="1">
-        <v>288472413</v>
+        <v>288830425</v>
       </c>
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.25">
@@ -14132,7 +14132,7 @@
         <v>9</v>
       </c>
       <c r="F678" s="1">
-        <v>14704704</v>
+        <v>14708501</v>
       </c>
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.25">
@@ -14212,7 +14212,7 @@
         <v>21</v>
       </c>
       <c r="F682" s="1">
-        <v>100508072</v>
+        <v>100408062</v>
       </c>
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.25">
@@ -14232,7 +14232,7 @@
         <v>9</v>
       </c>
       <c r="F683" s="1">
-        <v>42330333</v>
+        <v>42328764</v>
       </c>
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.25">
@@ -14272,7 +14272,7 @@
         <v>21</v>
       </c>
       <c r="F685" s="1">
-        <v>262976716</v>
+        <v>262977142</v>
       </c>
     </row>
     <row r="686" spans="1:6" x14ac:dyDescent="0.25">
@@ -14292,7 +14292,7 @@
         <v>9</v>
       </c>
       <c r="F686" s="1">
-        <v>13647581</v>
+        <v>13648369</v>
       </c>
     </row>
     <row r="687" spans="1:6" x14ac:dyDescent="0.25">
@@ -14372,7 +14372,7 @@
         <v>21</v>
       </c>
       <c r="F690" s="1">
-        <v>101992368</v>
+        <v>101877918</v>
       </c>
     </row>
     <row r="691" spans="1:6" x14ac:dyDescent="0.25">
@@ -14392,7 +14392,7 @@
         <v>9</v>
       </c>
       <c r="F691" s="1">
-        <v>44237876</v>
+        <v>44235889</v>
       </c>
     </row>
     <row r="692" spans="1:6" x14ac:dyDescent="0.25">
@@ -14432,7 +14432,7 @@
         <v>21</v>
       </c>
       <c r="F693" s="1">
-        <v>294805521</v>
+        <v>294803499</v>
       </c>
     </row>
     <row r="694" spans="1:6" x14ac:dyDescent="0.25">
@@ -14452,7 +14452,7 @@
         <v>9</v>
       </c>
       <c r="F694" s="1">
-        <v>15781122</v>
+        <v>15781751</v>
       </c>
     </row>
     <row r="695" spans="1:6" x14ac:dyDescent="0.25">
@@ -14532,7 +14532,7 @@
         <v>21</v>
       </c>
       <c r="F698" s="1">
-        <v>113075702</v>
+        <v>112969456</v>
       </c>
     </row>
     <row r="699" spans="1:6" x14ac:dyDescent="0.25">
@@ -14552,7 +14552,7 @@
         <v>9</v>
       </c>
       <c r="F699" s="1">
-        <v>46467616</v>
+        <v>46465744</v>
       </c>
     </row>
     <row r="700" spans="1:6" x14ac:dyDescent="0.25">
@@ -14592,7 +14592,7 @@
         <v>21</v>
       </c>
       <c r="F701" s="1">
-        <v>287779254</v>
+        <v>287778703</v>
       </c>
     </row>
     <row r="702" spans="1:6" x14ac:dyDescent="0.25">
@@ -14612,7 +14612,7 @@
         <v>9</v>
       </c>
       <c r="F702" s="1">
-        <v>15379566</v>
+        <v>15375701</v>
       </c>
     </row>
     <row r="703" spans="1:6" x14ac:dyDescent="0.25">
@@ -14652,7 +14652,7 @@
         <v>21</v>
       </c>
       <c r="F704" s="1">
-        <v>25602183</v>
+        <v>25606737</v>
       </c>
     </row>
     <row r="705" spans="1:6" x14ac:dyDescent="0.25">
@@ -14692,7 +14692,7 @@
         <v>21</v>
       </c>
       <c r="F706" s="1">
-        <v>117224384</v>
+        <v>117130602</v>
       </c>
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.25">
@@ -14712,7 +14712,7 @@
         <v>9</v>
       </c>
       <c r="F707" s="1">
-        <v>45005001</v>
+        <v>45003423</v>
       </c>
     </row>
     <row r="708" spans="1:6" x14ac:dyDescent="0.25">
@@ -14752,7 +14752,7 @@
         <v>21</v>
       </c>
       <c r="F709" s="1">
-        <v>292458900</v>
+        <v>292486306</v>
       </c>
     </row>
     <row r="710" spans="1:6" x14ac:dyDescent="0.25">
@@ -14772,7 +14772,7 @@
         <v>9</v>
       </c>
       <c r="F710" s="1">
-        <v>15599743</v>
+        <v>15598860</v>
       </c>
     </row>
     <row r="711" spans="1:6" x14ac:dyDescent="0.25">
@@ -14852,7 +14852,7 @@
         <v>21</v>
       </c>
       <c r="F714" s="1">
-        <v>109793692</v>
+        <v>109720004</v>
       </c>
     </row>
     <row r="715" spans="1:6" x14ac:dyDescent="0.25">
@@ -14872,7 +14872,7 @@
         <v>9</v>
       </c>
       <c r="F715" s="1">
-        <v>43144973</v>
+        <v>43143702</v>
       </c>
     </row>
     <row r="716" spans="1:6" x14ac:dyDescent="0.25">
@@ -14912,7 +14912,7 @@
         <v>21</v>
       </c>
       <c r="F717" s="1">
-        <v>283354176</v>
+        <v>283408531</v>
       </c>
     </row>
     <row r="718" spans="1:6" x14ac:dyDescent="0.25">
@@ -14932,7 +14932,7 @@
         <v>9</v>
       </c>
       <c r="F718" s="1">
-        <v>15190968</v>
+        <v>15187080</v>
       </c>
     </row>
     <row r="719" spans="1:6" x14ac:dyDescent="0.25">
@@ -15012,7 +15012,7 @@
         <v>21</v>
       </c>
       <c r="F722" s="1">
-        <v>121272614</v>
+        <v>121174446</v>
       </c>
     </row>
     <row r="723" spans="1:6" x14ac:dyDescent="0.25">
@@ -15032,7 +15032,7 @@
         <v>9</v>
       </c>
       <c r="F723" s="1">
-        <v>49230594</v>
+        <v>49229007</v>
       </c>
     </row>
     <row r="724" spans="1:6" x14ac:dyDescent="0.25">
@@ -15072,7 +15072,7 @@
         <v>21</v>
       </c>
       <c r="F725" s="1">
-        <v>289799938</v>
+        <v>289811987</v>
       </c>
     </row>
     <row r="726" spans="1:6" x14ac:dyDescent="0.25">
@@ -15092,7 +15092,7 @@
         <v>9</v>
       </c>
       <c r="F726" s="1">
-        <v>15209576</v>
+        <v>15205652</v>
       </c>
     </row>
     <row r="727" spans="1:6" x14ac:dyDescent="0.25">
@@ -15172,7 +15172,7 @@
         <v>21</v>
       </c>
       <c r="F730" s="1">
-        <v>123399474</v>
+        <v>123307637</v>
       </c>
     </row>
     <row r="731" spans="1:6" x14ac:dyDescent="0.25">
@@ -15192,7 +15192,7 @@
         <v>9</v>
       </c>
       <c r="F731" s="1">
-        <v>51148888</v>
+        <v>51147491</v>
       </c>
     </row>
     <row r="732" spans="1:6" x14ac:dyDescent="0.25">
@@ -15232,7 +15232,7 @@
         <v>21</v>
       </c>
       <c r="F733" s="1">
-        <v>289724608</v>
+        <v>289730884</v>
       </c>
     </row>
     <row r="734" spans="1:6" x14ac:dyDescent="0.25">
@@ -15252,7 +15252,7 @@
         <v>9</v>
       </c>
       <c r="F734" s="1">
-        <v>15055899</v>
+        <v>15051695</v>
       </c>
     </row>
     <row r="735" spans="1:6" x14ac:dyDescent="0.25">
@@ -15332,7 +15332,7 @@
         <v>21</v>
       </c>
       <c r="F738" s="1">
-        <v>120540000</v>
+        <v>120441529</v>
       </c>
     </row>
     <row r="739" spans="1:6" x14ac:dyDescent="0.25">
@@ -15352,7 +15352,7 @@
         <v>9</v>
       </c>
       <c r="F739" s="1">
-        <v>50454051</v>
+        <v>50452516</v>
       </c>
     </row>
     <row r="740" spans="1:6" x14ac:dyDescent="0.25">
@@ -15392,7 +15392,7 @@
         <v>21</v>
       </c>
       <c r="F741" s="1">
-        <v>281523476</v>
+        <v>281534467</v>
       </c>
     </row>
     <row r="742" spans="1:6" x14ac:dyDescent="0.25">
@@ -15412,7 +15412,7 @@
         <v>9</v>
       </c>
       <c r="F742" s="1">
-        <v>14440582</v>
+        <v>14438039</v>
       </c>
     </row>
     <row r="743" spans="1:6" x14ac:dyDescent="0.25">
@@ -15492,7 +15492,7 @@
         <v>21</v>
       </c>
       <c r="F746" s="1">
-        <v>115401695</v>
+        <v>115298447</v>
       </c>
     </row>
     <row r="747" spans="1:6" x14ac:dyDescent="0.25">
@@ -15512,7 +15512,7 @@
         <v>9</v>
       </c>
       <c r="F747" s="1">
-        <v>49587954</v>
+        <v>49586306</v>
       </c>
     </row>
     <row r="748" spans="1:6" x14ac:dyDescent="0.25">
@@ -15552,7 +15552,7 @@
         <v>21</v>
       </c>
       <c r="F749" s="1">
-        <v>289622233</v>
+        <v>289642429</v>
       </c>
     </row>
     <row r="750" spans="1:6" x14ac:dyDescent="0.25">
@@ -15572,7 +15572,7 @@
         <v>9</v>
       </c>
       <c r="F750" s="1">
-        <v>14689369</v>
+        <v>14683287</v>
       </c>
     </row>
     <row r="751" spans="1:6" x14ac:dyDescent="0.25">
@@ -15652,7 +15652,7 @@
         <v>21</v>
       </c>
       <c r="F754" s="1">
-        <v>105735295</v>
+        <v>105630621</v>
       </c>
     </row>
     <row r="755" spans="1:6" x14ac:dyDescent="0.25">
@@ -15672,7 +15672,7 @@
         <v>9</v>
       </c>
       <c r="F755" s="1">
-        <v>46343176</v>
+        <v>46341443</v>
       </c>
     </row>
     <row r="756" spans="1:6" x14ac:dyDescent="0.25">
@@ -15712,7 +15712,7 @@
         <v>21</v>
       </c>
       <c r="F757" s="1">
-        <v>281715770</v>
+        <v>281726883</v>
       </c>
     </row>
     <row r="758" spans="1:6" x14ac:dyDescent="0.25">
@@ -15732,7 +15732,7 @@
         <v>9</v>
       </c>
       <c r="F758" s="1">
-        <v>14454573</v>
+        <v>14447003</v>
       </c>
     </row>
     <row r="759" spans="1:6" x14ac:dyDescent="0.25">
@@ -15812,7 +15812,7 @@
         <v>21</v>
       </c>
       <c r="F762" s="1">
-        <v>112701896</v>
+        <v>112595853</v>
       </c>
     </row>
     <row r="763" spans="1:6" x14ac:dyDescent="0.25">
@@ -15832,7 +15832,7 @@
         <v>9</v>
       </c>
       <c r="F763" s="1">
-        <v>50388549</v>
+        <v>50386806</v>
       </c>
     </row>
     <row r="764" spans="1:6" x14ac:dyDescent="0.25">
@@ -15872,7 +15872,7 @@
         <v>21</v>
       </c>
       <c r="F765" s="1">
-        <v>283416865</v>
+        <v>283430028</v>
       </c>
     </row>
     <row r="766" spans="1:6" x14ac:dyDescent="0.25">
@@ -15892,7 +15892,7 @@
         <v>9</v>
       </c>
       <c r="F766" s="1">
-        <v>13976923</v>
+        <v>13969642</v>
       </c>
     </row>
     <row r="767" spans="1:6" x14ac:dyDescent="0.25">
@@ -15972,7 +15972,7 @@
         <v>21</v>
       </c>
       <c r="F770" s="1">
-        <v>109681329</v>
+        <v>109567603</v>
       </c>
     </row>
     <row r="771" spans="1:6" x14ac:dyDescent="0.25">
@@ -15992,7 +15992,7 @@
         <v>9</v>
       </c>
       <c r="F771" s="1">
-        <v>50022019</v>
+        <v>50020201</v>
       </c>
     </row>
     <row r="772" spans="1:6" x14ac:dyDescent="0.25">
@@ -16032,7 +16032,7 @@
         <v>21</v>
       </c>
       <c r="F773" s="1">
-        <v>277652599</v>
+        <v>277660908</v>
       </c>
     </row>
     <row r="774" spans="1:6" x14ac:dyDescent="0.25">
@@ -16052,7 +16052,7 @@
         <v>9</v>
       </c>
       <c r="F774" s="1">
-        <v>14001258</v>
+        <v>13994438</v>
       </c>
     </row>
     <row r="775" spans="1:6" x14ac:dyDescent="0.25">
@@ -16132,7 +16132,7 @@
         <v>21</v>
       </c>
       <c r="F778" s="1">
-        <v>101591666</v>
+        <v>101487877</v>
       </c>
     </row>
     <row r="779" spans="1:6" x14ac:dyDescent="0.25">
@@ -16152,7 +16152,7 @@
         <v>9</v>
       </c>
       <c r="F779" s="1">
-        <v>45504807</v>
+        <v>45503443</v>
       </c>
     </row>
     <row r="780" spans="1:6" x14ac:dyDescent="0.25">
@@ -16192,7 +16192,7 @@
         <v>21</v>
       </c>
       <c r="F781" s="1">
-        <v>261664352</v>
+        <v>261680521</v>
       </c>
     </row>
     <row r="782" spans="1:6" x14ac:dyDescent="0.25">
@@ -16212,7 +16212,7 @@
         <v>9</v>
       </c>
       <c r="F782" s="1">
-        <v>13515232</v>
+        <v>13508103</v>
       </c>
     </row>
     <row r="783" spans="1:6" x14ac:dyDescent="0.25">
@@ -16272,7 +16272,7 @@
         <v>9</v>
       </c>
       <c r="F785" s="1">
-        <v>4800999</v>
+        <v>4800887</v>
       </c>
     </row>
     <row r="786" spans="1:6" x14ac:dyDescent="0.25">
@@ -16292,7 +16292,7 @@
         <v>21</v>
       </c>
       <c r="F786" s="1">
-        <v>111965628</v>
+        <v>111857217</v>
       </c>
     </row>
     <row r="787" spans="1:6" x14ac:dyDescent="0.25">
@@ -16312,7 +16312,7 @@
         <v>9</v>
       </c>
       <c r="F787" s="1">
-        <v>50567539</v>
+        <v>50565023</v>
       </c>
     </row>
     <row r="788" spans="1:6" x14ac:dyDescent="0.25">
@@ -16352,7 +16352,7 @@
         <v>21</v>
       </c>
       <c r="F789" s="1">
-        <v>282798312</v>
+        <v>282808889</v>
       </c>
     </row>
     <row r="790" spans="1:6" x14ac:dyDescent="0.25">
@@ -16372,7 +16372,7 @@
         <v>9</v>
       </c>
       <c r="F790" s="1">
-        <v>14429394</v>
+        <v>14421675</v>
       </c>
     </row>
     <row r="791" spans="1:6" x14ac:dyDescent="0.25">
@@ -16432,7 +16432,7 @@
         <v>9</v>
       </c>
       <c r="F793" s="1">
-        <v>5345511</v>
+        <v>5345416</v>
       </c>
     </row>
     <row r="794" spans="1:6" x14ac:dyDescent="0.25">
@@ -16452,7 +16452,7 @@
         <v>21</v>
       </c>
       <c r="F794" s="1">
-        <v>102156913</v>
+        <v>102051620</v>
       </c>
     </row>
     <row r="795" spans="1:6" x14ac:dyDescent="0.25">
@@ -16472,7 +16472,7 @@
         <v>9</v>
       </c>
       <c r="F795" s="1">
-        <v>47770403</v>
+        <v>47768826</v>
       </c>
     </row>
     <row r="796" spans="1:6" x14ac:dyDescent="0.25">
@@ -16512,7 +16512,7 @@
         <v>21</v>
       </c>
       <c r="F797" s="1">
-        <v>269930453</v>
+        <v>269932209</v>
       </c>
     </row>
     <row r="798" spans="1:6" x14ac:dyDescent="0.25">
@@ -16532,7 +16532,7 @@
         <v>9</v>
       </c>
       <c r="F798" s="1">
-        <v>13636319</v>
+        <v>13629960</v>
       </c>
     </row>
     <row r="799" spans="1:6" x14ac:dyDescent="0.25">
@@ -16592,7 +16592,7 @@
         <v>9</v>
       </c>
       <c r="F801" s="1">
-        <v>4914472</v>
+        <v>4914473</v>
       </c>
     </row>
     <row r="802" spans="1:6" x14ac:dyDescent="0.25">
@@ -16612,7 +16612,7 @@
         <v>21</v>
       </c>
       <c r="F802" s="1">
-        <v>111172615</v>
+        <v>111066850</v>
       </c>
     </row>
     <row r="803" spans="1:6" x14ac:dyDescent="0.25">
@@ -16632,7 +16632,7 @@
         <v>9</v>
       </c>
       <c r="F803" s="1">
-        <v>50009629</v>
+        <v>50008180</v>
       </c>
     </row>
     <row r="804" spans="1:6" x14ac:dyDescent="0.25">
@@ -16672,7 +16672,7 @@
         <v>21</v>
       </c>
       <c r="F805" s="1">
-        <v>271624644</v>
+        <v>271621899</v>
       </c>
     </row>
     <row r="806" spans="1:6" x14ac:dyDescent="0.25">
@@ -16692,7 +16692,7 @@
         <v>9</v>
       </c>
       <c r="F806" s="1">
-        <v>13712690</v>
+        <v>13706443</v>
       </c>
     </row>
     <row r="807" spans="1:6" x14ac:dyDescent="0.25">
@@ -16752,7 +16752,7 @@
         <v>9</v>
       </c>
       <c r="F809" s="1">
-        <v>4902404</v>
+        <v>4902316</v>
       </c>
     </row>
     <row r="810" spans="1:6" x14ac:dyDescent="0.25">
@@ -16772,7 +16772,7 @@
         <v>21</v>
       </c>
       <c r="F810" s="1">
-        <v>98049134</v>
+        <v>97957559</v>
       </c>
     </row>
     <row r="811" spans="1:6" x14ac:dyDescent="0.25">
@@ -16792,7 +16792,7 @@
         <v>9</v>
       </c>
       <c r="F811" s="1">
-        <v>47085876</v>
+        <v>47084648</v>
       </c>
     </row>
     <row r="812" spans="1:6" x14ac:dyDescent="0.25">
@@ -16832,7 +16832,7 @@
         <v>21</v>
       </c>
       <c r="F813" s="1">
-        <v>266058787</v>
+        <v>266053328</v>
       </c>
     </row>
     <row r="814" spans="1:6" x14ac:dyDescent="0.25">
@@ -16852,7 +16852,7 @@
         <v>9</v>
       </c>
       <c r="F814" s="1">
-        <v>13171758</v>
+        <v>13165105</v>
       </c>
     </row>
     <row r="815" spans="1:6" x14ac:dyDescent="0.25">
@@ -16912,7 +16912,7 @@
         <v>9</v>
       </c>
       <c r="F817" s="1">
-        <v>4701752</v>
+        <v>4701753</v>
       </c>
     </row>
     <row r="818" spans="1:6" x14ac:dyDescent="0.25">
@@ -16932,7 +16932,7 @@
         <v>21</v>
       </c>
       <c r="F818" s="1">
-        <v>103362188</v>
+        <v>103297618</v>
       </c>
     </row>
     <row r="819" spans="1:6" x14ac:dyDescent="0.25">
@@ -16952,7 +16952,7 @@
         <v>9</v>
       </c>
       <c r="F819" s="1">
-        <v>49150434</v>
+        <v>49149480</v>
       </c>
     </row>
     <row r="820" spans="1:6" x14ac:dyDescent="0.25">
@@ -16992,7 +16992,7 @@
         <v>21</v>
       </c>
       <c r="F821" s="1">
-        <v>260709544</v>
+        <v>260708405</v>
       </c>
     </row>
     <row r="822" spans="1:6" x14ac:dyDescent="0.25">
@@ -17012,7 +17012,7 @@
         <v>9</v>
       </c>
       <c r="F822" s="1">
-        <v>13727371</v>
+        <v>13719454</v>
       </c>
     </row>
     <row r="823" spans="1:6" x14ac:dyDescent="0.25">
@@ -17072,7 +17072,7 @@
         <v>9</v>
       </c>
       <c r="F825" s="1">
-        <v>4954352</v>
+        <v>4954359</v>
       </c>
     </row>
     <row r="826" spans="1:6" x14ac:dyDescent="0.25">
@@ -17092,7 +17092,7 @@
         <v>21</v>
       </c>
       <c r="F826" s="1">
-        <v>106467138</v>
+        <v>106372060</v>
       </c>
     </row>
     <row r="827" spans="1:6" x14ac:dyDescent="0.25">
@@ -17112,7 +17112,7 @@
         <v>9</v>
       </c>
       <c r="F827" s="1">
-        <v>50733425</v>
+        <v>50732184</v>
       </c>
     </row>
     <row r="828" spans="1:6" x14ac:dyDescent="0.25">
@@ -17152,7 +17152,7 @@
         <v>21</v>
       </c>
       <c r="F829" s="1">
-        <v>263716320</v>
+        <v>263714214</v>
       </c>
     </row>
     <row r="830" spans="1:6" x14ac:dyDescent="0.25">
@@ -17172,7 +17172,7 @@
         <v>9</v>
       </c>
       <c r="F830" s="1">
-        <v>13516245</v>
+        <v>13509237</v>
       </c>
     </row>
     <row r="831" spans="1:6" x14ac:dyDescent="0.25">
@@ -17232,7 +17232,7 @@
         <v>9</v>
       </c>
       <c r="F833" s="1">
-        <v>4793594</v>
+        <v>4793602</v>
       </c>
     </row>
     <row r="834" spans="1:6" x14ac:dyDescent="0.25">
@@ -17252,7 +17252,7 @@
         <v>21</v>
       </c>
       <c r="F834" s="1">
-        <v>98243357</v>
+        <v>98150270</v>
       </c>
     </row>
     <row r="835" spans="1:6" x14ac:dyDescent="0.25">
@@ -17272,7 +17272,7 @@
         <v>9</v>
       </c>
       <c r="F835" s="1">
-        <v>45795150</v>
+        <v>45793921</v>
       </c>
     </row>
     <row r="836" spans="1:6" x14ac:dyDescent="0.25">
@@ -17312,7 +17312,7 @@
         <v>21</v>
       </c>
       <c r="F837" s="1">
-        <v>267954516</v>
+        <v>267948742</v>
       </c>
     </row>
     <row r="838" spans="1:6" x14ac:dyDescent="0.25">
@@ -17332,7 +17332,7 @@
         <v>9</v>
       </c>
       <c r="F838" s="1">
-        <v>13003925</v>
+        <v>12996619</v>
       </c>
     </row>
     <row r="839" spans="1:6" x14ac:dyDescent="0.25">
@@ -17372,7 +17372,7 @@
         <v>21</v>
       </c>
       <c r="F840" s="1">
-        <v>26092909</v>
+        <v>26092845</v>
       </c>
     </row>
     <row r="841" spans="1:6" x14ac:dyDescent="0.25">
@@ -17392,7 +17392,7 @@
         <v>9</v>
       </c>
       <c r="F841" s="1">
-        <v>4711464</v>
+        <v>4711466</v>
       </c>
     </row>
     <row r="842" spans="1:6" x14ac:dyDescent="0.25">
@@ -17412,7 +17412,7 @@
         <v>21</v>
       </c>
       <c r="F842" s="1">
-        <v>104864403</v>
+        <v>104779777</v>
       </c>
     </row>
     <row r="843" spans="1:6" x14ac:dyDescent="0.25">
@@ -17432,7 +17432,7 @@
         <v>9</v>
       </c>
       <c r="F843" s="1">
-        <v>50360211</v>
+        <v>50359021</v>
       </c>
     </row>
     <row r="844" spans="1:6" x14ac:dyDescent="0.25">
@@ -17472,7 +17472,7 @@
         <v>21</v>
       </c>
       <c r="F845" s="1">
-        <v>280400874</v>
+        <v>280399171</v>
       </c>
     </row>
     <row r="846" spans="1:6" x14ac:dyDescent="0.25">
@@ -17492,7 +17492,7 @@
         <v>9</v>
       </c>
       <c r="F846" s="1">
-        <v>14108907</v>
+        <v>14101487</v>
       </c>
     </row>
     <row r="847" spans="1:6" x14ac:dyDescent="0.25">
@@ -17552,7 +17552,7 @@
         <v>9</v>
       </c>
       <c r="F849" s="1">
-        <v>5442287</v>
+        <v>5442295</v>
       </c>
     </row>
     <row r="850" spans="1:6" x14ac:dyDescent="0.25">
@@ -17572,7 +17572,7 @@
         <v>21</v>
       </c>
       <c r="F850" s="1">
-        <v>102199690</v>
+        <v>102108657</v>
       </c>
     </row>
     <row r="851" spans="1:6" x14ac:dyDescent="0.25">
@@ -17592,7 +17592,7 @@
         <v>9</v>
       </c>
       <c r="F851" s="1">
-        <v>51137537</v>
+        <v>51136196</v>
       </c>
     </row>
     <row r="852" spans="1:6" x14ac:dyDescent="0.25">
@@ -17632,7 +17632,7 @@
         <v>21</v>
       </c>
       <c r="F853" s="1">
-        <v>268607020</v>
+        <v>268604845</v>
       </c>
     </row>
     <row r="854" spans="1:6" x14ac:dyDescent="0.25">
@@ -17652,7 +17652,7 @@
         <v>9</v>
       </c>
       <c r="F854" s="1">
-        <v>13548686</v>
+        <v>13541724</v>
       </c>
     </row>
     <row r="855" spans="1:6" x14ac:dyDescent="0.25">
@@ -17712,7 +17712,7 @@
         <v>9</v>
       </c>
       <c r="F857" s="1">
-        <v>5064383</v>
+        <v>5064390</v>
       </c>
     </row>
     <row r="858" spans="1:6" x14ac:dyDescent="0.25">
@@ -17732,7 +17732,7 @@
         <v>21</v>
       </c>
       <c r="F858" s="1">
-        <v>108173646</v>
+        <v>108063562</v>
       </c>
     </row>
     <row r="859" spans="1:6" x14ac:dyDescent="0.25">
@@ -17752,7 +17752,7 @@
         <v>9</v>
       </c>
       <c r="F859" s="1">
-        <v>54386288</v>
+        <v>54384734</v>
       </c>
     </row>
     <row r="860" spans="1:6" x14ac:dyDescent="0.25">
@@ -17792,7 +17792,7 @@
         <v>21</v>
       </c>
       <c r="F861" s="1">
-        <v>272609048</v>
+        <v>272612898</v>
       </c>
     </row>
     <row r="862" spans="1:6" x14ac:dyDescent="0.25">
@@ -17812,7 +17812,7 @@
         <v>9</v>
       </c>
       <c r="F862" s="1">
-        <v>13617644</v>
+        <v>13611890</v>
       </c>
     </row>
     <row r="863" spans="1:6" x14ac:dyDescent="0.25">
@@ -17872,7 +17872,7 @@
         <v>9</v>
       </c>
       <c r="F865" s="1">
-        <v>5262129</v>
+        <v>5262136</v>
       </c>
     </row>
     <row r="866" spans="1:6" x14ac:dyDescent="0.25">
@@ -17892,7 +17892,7 @@
         <v>21</v>
       </c>
       <c r="F866" s="1">
-        <v>106459067</v>
+        <v>106355363</v>
       </c>
     </row>
     <row r="867" spans="1:6" x14ac:dyDescent="0.25">
@@ -17912,7 +17912,7 @@
         <v>9</v>
       </c>
       <c r="F867" s="1">
-        <v>54839205</v>
+        <v>54837731</v>
       </c>
     </row>
     <row r="868" spans="1:6" x14ac:dyDescent="0.25">
@@ -17952,7 +17952,7 @@
         <v>21</v>
       </c>
       <c r="F869" s="1">
-        <v>266529984</v>
+        <v>266522255</v>
       </c>
     </row>
     <row r="870" spans="1:6" x14ac:dyDescent="0.25">
@@ -17972,7 +17972,7 @@
         <v>9</v>
       </c>
       <c r="F870" s="1">
-        <v>13692539</v>
+        <v>13685566</v>
       </c>
     </row>
     <row r="871" spans="1:6" x14ac:dyDescent="0.25">
@@ -18012,7 +18012,7 @@
         <v>21</v>
       </c>
       <c r="F872" s="1">
-        <v>25558286</v>
+        <v>25553260</v>
       </c>
     </row>
     <row r="873" spans="1:6" x14ac:dyDescent="0.25">
@@ -18032,7 +18032,7 @@
         <v>9</v>
       </c>
       <c r="F873" s="1">
-        <v>5436088</v>
+        <v>5436095</v>
       </c>
     </row>
     <row r="874" spans="1:6" x14ac:dyDescent="0.25">
@@ -18052,7 +18052,7 @@
         <v>21</v>
       </c>
       <c r="F874" s="1">
-        <v>93180035</v>
+        <v>93083522</v>
       </c>
     </row>
     <row r="875" spans="1:6" x14ac:dyDescent="0.25">
@@ -18072,7 +18072,7 @@
         <v>9</v>
       </c>
       <c r="F875" s="1">
-        <v>49593007</v>
+        <v>49591622</v>
       </c>
     </row>
     <row r="876" spans="1:6" x14ac:dyDescent="0.25">
@@ -18112,7 +18112,7 @@
         <v>21</v>
       </c>
       <c r="F877" s="1">
-        <v>244198117</v>
+        <v>244201899</v>
       </c>
     </row>
     <row r="878" spans="1:6" x14ac:dyDescent="0.25">
@@ -18132,7 +18132,7 @@
         <v>9</v>
       </c>
       <c r="F878" s="1">
-        <v>13062404</v>
+        <v>13060952</v>
       </c>
     </row>
     <row r="879" spans="1:6" x14ac:dyDescent="0.25">
@@ -18172,7 +18172,7 @@
         <v>21</v>
       </c>
       <c r="F880" s="1">
-        <v>23331732</v>
+        <v>23331802</v>
       </c>
     </row>
     <row r="881" spans="1:6" x14ac:dyDescent="0.25">
@@ -18192,7 +18192,7 @@
         <v>9</v>
       </c>
       <c r="F881" s="1">
-        <v>5057055</v>
+        <v>5057432</v>
       </c>
     </row>
     <row r="882" spans="1:6" x14ac:dyDescent="0.25">
@@ -18212,7 +18212,7 @@
         <v>21</v>
       </c>
       <c r="F882" s="1">
-        <v>106424414</v>
+        <v>106318023</v>
       </c>
     </row>
     <row r="883" spans="1:6" x14ac:dyDescent="0.25">
@@ -18232,7 +18232,7 @@
         <v>9</v>
       </c>
       <c r="F883" s="1">
-        <v>55603463</v>
+        <v>55601946</v>
       </c>
     </row>
     <row r="884" spans="1:6" x14ac:dyDescent="0.25">
@@ -18272,7 +18272,7 @@
         <v>21</v>
       </c>
       <c r="F885" s="1">
-        <v>273435469</v>
+        <v>273451468</v>
       </c>
     </row>
     <row r="886" spans="1:6" x14ac:dyDescent="0.25">
@@ -18292,7 +18292,7 @@
         <v>9</v>
       </c>
       <c r="F886" s="1">
-        <v>14897370</v>
+        <v>14895743</v>
       </c>
     </row>
     <row r="887" spans="1:6" x14ac:dyDescent="0.25">
@@ -18332,7 +18332,7 @@
         <v>21</v>
       </c>
       <c r="F888" s="1">
-        <v>26107770</v>
+        <v>26160381</v>
       </c>
     </row>
     <row r="889" spans="1:6" x14ac:dyDescent="0.25">
@@ -18352,7 +18352,7 @@
         <v>9</v>
       </c>
       <c r="F889" s="1">
-        <v>5741519</v>
+        <v>5751592</v>
       </c>
     </row>
     <row r="890" spans="1:6" x14ac:dyDescent="0.25">
@@ -18372,7 +18372,7 @@
         <v>21</v>
       </c>
       <c r="F890" s="1">
-        <v>95410646</v>
+        <v>95309587</v>
       </c>
     </row>
     <row r="891" spans="1:6" x14ac:dyDescent="0.25">
@@ -18392,7 +18392,7 @@
         <v>9</v>
       </c>
       <c r="F891" s="1">
-        <v>50484258</v>
+        <v>50482824</v>
       </c>
     </row>
     <row r="892" spans="1:6" x14ac:dyDescent="0.25">
@@ -18432,7 +18432,7 @@
         <v>21</v>
       </c>
       <c r="F893" s="1">
-        <v>266031345</v>
+        <v>266047947</v>
       </c>
     </row>
     <row r="894" spans="1:6" x14ac:dyDescent="0.25">
@@ -18452,7 +18452,7 @@
         <v>9</v>
       </c>
       <c r="F894" s="1">
-        <v>14503200</v>
+        <v>14501483</v>
       </c>
     </row>
     <row r="895" spans="1:6" x14ac:dyDescent="0.25">
@@ -18492,7 +18492,7 @@
         <v>21</v>
       </c>
       <c r="F896" s="1">
-        <v>25504112</v>
+        <v>25541415</v>
       </c>
     </row>
     <row r="897" spans="1:6" x14ac:dyDescent="0.25">
@@ -18512,7 +18512,7 @@
         <v>9</v>
       </c>
       <c r="F897" s="1">
-        <v>5592614</v>
+        <v>5599055</v>
       </c>
     </row>
     <row r="898" spans="1:6" x14ac:dyDescent="0.25">
@@ -18532,7 +18532,7 @@
         <v>21</v>
       </c>
       <c r="F898" s="1">
-        <v>99480009</v>
+        <v>99384245</v>
       </c>
     </row>
     <row r="899" spans="1:6" x14ac:dyDescent="0.25">
@@ -18552,7 +18552,7 @@
         <v>9</v>
       </c>
       <c r="F899" s="1">
-        <v>52785368</v>
+        <v>52785907</v>
       </c>
     </row>
     <row r="900" spans="1:6" x14ac:dyDescent="0.25">
@@ -18592,7 +18592,7 @@
         <v>21</v>
       </c>
       <c r="F901" s="1">
-        <v>268794373</v>
+        <v>268807768</v>
       </c>
     </row>
     <row r="902" spans="1:6" x14ac:dyDescent="0.25">
@@ -18612,7 +18612,7 @@
         <v>9</v>
       </c>
       <c r="F902" s="1">
-        <v>15460236</v>
+        <v>15437327</v>
       </c>
     </row>
     <row r="903" spans="1:6" x14ac:dyDescent="0.25">
@@ -18652,7 +18652,7 @@
         <v>21</v>
       </c>
       <c r="F904" s="1">
-        <v>27128939</v>
+        <v>27165977</v>
       </c>
     </row>
     <row r="905" spans="1:6" x14ac:dyDescent="0.25">
@@ -18672,7 +18672,7 @@
         <v>9</v>
       </c>
       <c r="F905" s="1">
-        <v>5784967</v>
+        <v>5790371</v>
       </c>
     </row>
     <row r="906" spans="1:6" x14ac:dyDescent="0.25">
@@ -18692,7 +18692,7 @@
         <v>21</v>
       </c>
       <c r="F906" s="1">
-        <v>90698924</v>
+        <v>90625884</v>
       </c>
     </row>
     <row r="907" spans="1:6" x14ac:dyDescent="0.25">
@@ -18712,7 +18712,7 @@
         <v>9</v>
       </c>
       <c r="F907" s="1">
-        <v>49431548</v>
+        <v>49430561</v>
       </c>
     </row>
     <row r="908" spans="1:6" x14ac:dyDescent="0.25">
@@ -18752,7 +18752,7 @@
         <v>21</v>
       </c>
       <c r="F909" s="1">
-        <v>263137038</v>
+        <v>263145186</v>
       </c>
     </row>
     <row r="910" spans="1:6" x14ac:dyDescent="0.25">
@@ -18772,7 +18772,7 @@
         <v>9</v>
       </c>
       <c r="F910" s="1">
-        <v>14323070</v>
+        <v>14322327</v>
       </c>
     </row>
     <row r="911" spans="1:6" x14ac:dyDescent="0.25">
@@ -18812,7 +18812,7 @@
         <v>21</v>
       </c>
       <c r="F912" s="1">
-        <v>26710790</v>
+        <v>26741101</v>
       </c>
     </row>
     <row r="913" spans="1:6" x14ac:dyDescent="0.25">
@@ -18832,7 +18832,7 @@
         <v>9</v>
       </c>
       <c r="F913" s="1">
-        <v>5906785</v>
+        <v>5911108</v>
       </c>
     </row>
     <row r="914" spans="1:6" x14ac:dyDescent="0.25">
@@ -18852,7 +18852,7 @@
         <v>21</v>
       </c>
       <c r="F914" s="1">
-        <v>97923677</v>
+        <v>97841805</v>
       </c>
     </row>
     <row r="915" spans="1:6" x14ac:dyDescent="0.25">
@@ -18872,7 +18872,7 @@
         <v>9</v>
       </c>
       <c r="F915" s="1">
-        <v>55001236</v>
+        <v>55000182</v>
       </c>
     </row>
     <row r="916" spans="1:6" x14ac:dyDescent="0.25">
@@ -18912,7 +18912,7 @@
         <v>21</v>
       </c>
       <c r="F917" s="1">
-        <v>271852519</v>
+        <v>271810475</v>
       </c>
     </row>
     <row r="918" spans="1:6" x14ac:dyDescent="0.25">
@@ -18932,7 +18932,7 @@
         <v>9</v>
       </c>
       <c r="F918" s="1">
-        <v>15136364</v>
+        <v>15142652</v>
       </c>
     </row>
     <row r="919" spans="1:6" x14ac:dyDescent="0.25">
@@ -18972,7 +18972,7 @@
         <v>21</v>
       </c>
       <c r="F920" s="1">
-        <v>27461265</v>
+        <v>27493689</v>
       </c>
     </row>
     <row r="921" spans="1:6" x14ac:dyDescent="0.25">
@@ -18992,7 +18992,7 @@
         <v>9</v>
       </c>
       <c r="F921" s="1">
-        <v>6099485</v>
+        <v>6103276</v>
       </c>
     </row>
     <row r="922" spans="1:6" x14ac:dyDescent="0.25">
@@ -19012,7 +19012,7 @@
         <v>21</v>
       </c>
       <c r="F922" s="1">
-        <v>92864568</v>
+        <v>92781497</v>
       </c>
     </row>
     <row r="923" spans="1:6" x14ac:dyDescent="0.25">
@@ -19032,7 +19032,7 @@
         <v>9</v>
       </c>
       <c r="F923" s="1">
-        <v>53808590</v>
+        <v>53807479</v>
       </c>
     </row>
     <row r="924" spans="1:6" x14ac:dyDescent="0.25">
@@ -19072,7 +19072,7 @@
         <v>21</v>
       </c>
       <c r="F925" s="1">
-        <v>268965663</v>
+        <v>268673846</v>
       </c>
     </row>
     <row r="926" spans="1:6" x14ac:dyDescent="0.25">
@@ -19092,7 +19092,7 @@
         <v>9</v>
       </c>
       <c r="F926" s="1">
-        <v>15693883</v>
+        <v>15694857</v>
       </c>
     </row>
     <row r="927" spans="1:6" x14ac:dyDescent="0.25">
@@ -19132,7 +19132,7 @@
         <v>21</v>
       </c>
       <c r="F928" s="1">
-        <v>28114078</v>
+        <v>28141368</v>
       </c>
     </row>
     <row r="929" spans="1:6" x14ac:dyDescent="0.25">
@@ -19152,7 +19152,7 @@
         <v>9</v>
       </c>
       <c r="F929" s="1">
-        <v>6493619</v>
+        <v>6496754</v>
       </c>
     </row>
     <row r="930" spans="1:6" x14ac:dyDescent="0.25">
@@ -19172,7 +19172,7 @@
         <v>21</v>
       </c>
       <c r="F930" s="1">
-        <v>88562161</v>
+        <v>88478296</v>
       </c>
     </row>
     <row r="931" spans="1:6" x14ac:dyDescent="0.25">
@@ -19192,7 +19192,7 @@
         <v>9</v>
       </c>
       <c r="F931" s="1">
-        <v>51298842</v>
+        <v>51297753</v>
       </c>
     </row>
     <row r="932" spans="1:6" x14ac:dyDescent="0.25">
@@ -19232,7 +19232,7 @@
         <v>21</v>
       </c>
       <c r="F933" s="1">
-        <v>266668566</v>
+        <v>266432267</v>
       </c>
     </row>
     <row r="934" spans="1:6" x14ac:dyDescent="0.25">
@@ -19252,7 +19252,7 @@
         <v>9</v>
       </c>
       <c r="F934" s="1">
-        <v>16001974</v>
+        <v>15976015</v>
       </c>
     </row>
     <row r="935" spans="1:6" x14ac:dyDescent="0.25">
@@ -19292,7 +19292,7 @@
         <v>21</v>
       </c>
       <c r="F936" s="1">
-        <v>27305997</v>
+        <v>27330790</v>
       </c>
     </row>
     <row r="937" spans="1:6" x14ac:dyDescent="0.25">
@@ -19312,7 +19312,7 @@
         <v>9</v>
       </c>
       <c r="F937" s="1">
-        <v>6296823</v>
+        <v>6299539</v>
       </c>
     </row>
     <row r="938" spans="1:6" x14ac:dyDescent="0.25">
@@ -19332,7 +19332,7 @@
         <v>21</v>
       </c>
       <c r="F938" s="1">
-        <v>80771902</v>
+        <v>80697584</v>
       </c>
     </row>
     <row r="939" spans="1:6" x14ac:dyDescent="0.25">
@@ -19352,7 +19352,7 @@
         <v>9</v>
       </c>
       <c r="F939" s="1">
-        <v>46472754</v>
+        <v>46471685</v>
       </c>
     </row>
     <row r="940" spans="1:6" x14ac:dyDescent="0.25">
@@ -19392,7 +19392,7 @@
         <v>21</v>
       </c>
       <c r="F941" s="1">
-        <v>276322185</v>
+        <v>276007274</v>
       </c>
     </row>
     <row r="942" spans="1:6" x14ac:dyDescent="0.25">
@@ -19412,7 +19412,7 @@
         <v>9</v>
       </c>
       <c r="F942" s="1">
-        <v>17000402</v>
+        <v>16979223</v>
       </c>
     </row>
     <row r="943" spans="1:6" x14ac:dyDescent="0.25">
@@ -19452,7 +19452,7 @@
         <v>21</v>
       </c>
       <c r="F944" s="1">
-        <v>28704271</v>
+        <v>28726065</v>
       </c>
     </row>
     <row r="945" spans="1:6" x14ac:dyDescent="0.25">
@@ -19472,7 +19472,7 @@
         <v>9</v>
       </c>
       <c r="F945" s="1">
-        <v>6652901</v>
+        <v>6654870</v>
       </c>
     </row>
     <row r="946" spans="1:6" x14ac:dyDescent="0.25">
@@ -19492,7 +19492,7 @@
         <v>21</v>
       </c>
       <c r="F946" s="1">
-        <v>81947413</v>
+        <v>81864924</v>
       </c>
     </row>
     <row r="947" spans="1:6" x14ac:dyDescent="0.25">
@@ -19512,7 +19512,7 @@
         <v>9</v>
       </c>
       <c r="F947" s="1">
-        <v>51450318</v>
+        <v>51449088</v>
       </c>
     </row>
     <row r="948" spans="1:6" x14ac:dyDescent="0.25">
@@ -19552,7 +19552,7 @@
         <v>21</v>
       </c>
       <c r="F949" s="1">
-        <v>268093946</v>
+        <v>262655585</v>
       </c>
     </row>
     <row r="950" spans="1:6" x14ac:dyDescent="0.25">
@@ -19572,7 +19572,7 @@
         <v>9</v>
       </c>
       <c r="F950" s="1">
-        <v>16948763</v>
+        <v>16884119</v>
       </c>
     </row>
     <row r="951" spans="1:6" x14ac:dyDescent="0.25">
@@ -19612,7 +19612,7 @@
         <v>21</v>
       </c>
       <c r="F952" s="1">
-        <v>28668657</v>
+        <v>28786517</v>
       </c>
     </row>
     <row r="953" spans="1:6" x14ac:dyDescent="0.25">
@@ -19632,7 +19632,7 @@
         <v>9</v>
       </c>
       <c r="F953" s="1">
-        <v>6604270</v>
+        <v>6601279</v>
       </c>
     </row>
     <row r="954" spans="1:6" x14ac:dyDescent="0.25">
@@ -19652,7 +19652,7 @@
         <v>21</v>
       </c>
       <c r="F954" s="1">
-        <v>78632396</v>
+        <v>78555058</v>
       </c>
     </row>
     <row r="955" spans="1:6" x14ac:dyDescent="0.25">
@@ -19672,7 +19672,7 @@
         <v>9</v>
       </c>
       <c r="F955" s="1">
-        <v>49117305</v>
+        <v>49116024</v>
       </c>
     </row>
     <row r="956" spans="1:6" x14ac:dyDescent="0.25">
@@ -19712,7 +19712,7 @@
         <v>21</v>
       </c>
       <c r="F957" s="1">
-        <v>283076601</v>
+        <v>276427895</v>
       </c>
     </row>
     <row r="958" spans="1:6" x14ac:dyDescent="0.25">
@@ -19732,7 +19732,7 @@
         <v>9</v>
       </c>
       <c r="F958" s="1">
-        <v>18080340</v>
+        <v>18009560</v>
       </c>
     </row>
     <row r="959" spans="1:6" x14ac:dyDescent="0.25">
@@ -19772,7 +19772,7 @@
         <v>21</v>
       </c>
       <c r="F960" s="1">
-        <v>30177458</v>
+        <v>30552848</v>
       </c>
     </row>
     <row r="961" spans="1:6" x14ac:dyDescent="0.25">
@@ -19792,7 +19792,7 @@
         <v>9</v>
       </c>
       <c r="F961" s="1">
-        <v>6714146</v>
+        <v>6718241</v>
       </c>
     </row>
     <row r="962" spans="1:6" x14ac:dyDescent="0.25">
@@ -19812,7 +19812,7 @@
         <v>21</v>
       </c>
       <c r="F962" s="1">
-        <v>79161052</v>
+        <v>79073891</v>
       </c>
     </row>
     <row r="963" spans="1:6" x14ac:dyDescent="0.25">
@@ -19832,7 +19832,7 @@
         <v>9</v>
       </c>
       <c r="F963" s="1">
-        <v>51243958</v>
+        <v>51242542</v>
       </c>
     </row>
     <row r="964" spans="1:6" x14ac:dyDescent="0.25">
@@ -19872,7 +19872,7 @@
         <v>21</v>
       </c>
       <c r="F965" s="1">
-        <v>280359787</v>
+        <v>273904760</v>
       </c>
     </row>
     <row r="966" spans="1:6" x14ac:dyDescent="0.25">
@@ -19892,7 +19892,7 @@
         <v>9</v>
       </c>
       <c r="F966" s="1">
-        <v>17373876</v>
+        <v>17332040</v>
       </c>
     </row>
     <row r="967" spans="1:6" x14ac:dyDescent="0.25">
@@ -19932,7 +19932,7 @@
         <v>21</v>
       </c>
       <c r="F968" s="1">
-        <v>30224700</v>
+        <v>30502434</v>
       </c>
     </row>
     <row r="969" spans="1:6" x14ac:dyDescent="0.25">
@@ -19952,7 +19952,7 @@
         <v>9</v>
       </c>
       <c r="F969" s="1">
-        <v>6696109</v>
+        <v>6698850</v>
       </c>
     </row>
     <row r="970" spans="1:6" x14ac:dyDescent="0.25">
@@ -19972,7 +19972,7 @@
         <v>21</v>
       </c>
       <c r="F970" s="1">
-        <v>75051759</v>
+        <v>74987317</v>
       </c>
     </row>
     <row r="971" spans="1:6" x14ac:dyDescent="0.25">
@@ -19992,7 +19992,7 @@
         <v>9</v>
       </c>
       <c r="F971" s="1">
-        <v>48390299</v>
+        <v>48389238</v>
       </c>
     </row>
     <row r="972" spans="1:6" x14ac:dyDescent="0.25">
@@ -20032,7 +20032,7 @@
         <v>21</v>
       </c>
       <c r="F973" s="1">
-        <v>253515639</v>
+        <v>246488479</v>
       </c>
     </row>
     <row r="974" spans="1:6" x14ac:dyDescent="0.25">
@@ -20052,7 +20052,7 @@
         <v>9</v>
       </c>
       <c r="F974" s="1">
-        <v>16356645</v>
+        <v>16310091</v>
       </c>
     </row>
     <row r="975" spans="1:6" x14ac:dyDescent="0.25">
@@ -20092,7 +20092,7 @@
         <v>21</v>
       </c>
       <c r="F976" s="1">
-        <v>27132332</v>
+        <v>27420008</v>
       </c>
     </row>
     <row r="977" spans="1:6" x14ac:dyDescent="0.25">
@@ -20112,7 +20112,7 @@
         <v>9</v>
       </c>
       <c r="F977" s="1">
-        <v>5893821</v>
+        <v>5889118</v>
       </c>
     </row>
     <row r="978" spans="1:6" x14ac:dyDescent="0.25">
@@ -20132,7 +20132,7 @@
         <v>21</v>
       </c>
       <c r="F978" s="1">
-        <v>83629141</v>
+        <v>83560798</v>
       </c>
     </row>
     <row r="979" spans="1:6" x14ac:dyDescent="0.25">
@@ -20152,7 +20152,7 @@
         <v>9</v>
       </c>
       <c r="F979" s="1">
-        <v>52632101</v>
+        <v>52630981</v>
       </c>
     </row>
     <row r="980" spans="1:6" x14ac:dyDescent="0.25">
@@ -20192,7 +20192,7 @@
         <v>21</v>
       </c>
       <c r="F981" s="1">
-        <v>283149785</v>
+        <v>277278977</v>
       </c>
     </row>
     <row r="982" spans="1:6" x14ac:dyDescent="0.25">
@@ -20212,7 +20212,7 @@
         <v>9</v>
       </c>
       <c r="F982" s="1">
-        <v>18378554</v>
+        <v>18334341</v>
       </c>
     </row>
     <row r="983" spans="1:6" x14ac:dyDescent="0.25">
@@ -20252,7 +20252,7 @@
         <v>21</v>
       </c>
       <c r="F984" s="1">
-        <v>30938477</v>
+        <v>31291967</v>
       </c>
     </row>
     <row r="985" spans="1:6" x14ac:dyDescent="0.25">
@@ -20272,7 +20272,7 @@
         <v>9</v>
       </c>
       <c r="F985" s="1">
-        <v>6915073</v>
+        <v>6942466</v>
       </c>
     </row>
     <row r="986" spans="1:6" x14ac:dyDescent="0.25">
@@ -20292,7 +20292,7 @@
         <v>21</v>
       </c>
       <c r="F986" s="1">
-        <v>76526592</v>
+        <v>76442714</v>
       </c>
     </row>
     <row r="987" spans="1:6" x14ac:dyDescent="0.25">
@@ -20312,7 +20312,7 @@
         <v>9</v>
       </c>
       <c r="F987" s="1">
-        <v>48563296</v>
+        <v>48561951</v>
       </c>
     </row>
     <row r="988" spans="1:6" x14ac:dyDescent="0.25">
@@ -20352,7 +20352,7 @@
         <v>21</v>
       </c>
       <c r="F989" s="1">
-        <v>272246587</v>
+        <v>267083980</v>
       </c>
     </row>
     <row r="990" spans="1:6" x14ac:dyDescent="0.25">
@@ -20372,7 +20372,7 @@
         <v>9</v>
       </c>
       <c r="F990" s="1">
-        <v>18561576</v>
+        <v>18525528</v>
       </c>
     </row>
     <row r="991" spans="1:6" x14ac:dyDescent="0.25">
@@ -20412,7 +20412,7 @@
         <v>21</v>
       </c>
       <c r="F992" s="1">
-        <v>30619961</v>
+        <v>31009738</v>
       </c>
     </row>
     <row r="993" spans="1:6" x14ac:dyDescent="0.25">
@@ -20432,7 +20432,7 @@
         <v>9</v>
       </c>
       <c r="F993" s="1">
-        <v>7292903</v>
+        <v>7342771</v>
       </c>
     </row>
     <row r="994" spans="1:6" x14ac:dyDescent="0.25">
@@ -20452,7 +20452,7 @@
         <v>21</v>
       </c>
       <c r="F994" s="1">
-        <v>79033108</v>
+        <v>78954120</v>
       </c>
     </row>
     <row r="995" spans="1:6" x14ac:dyDescent="0.25">
@@ -20472,7 +20472,7 @@
         <v>9</v>
       </c>
       <c r="F995" s="1">
-        <v>48112942</v>
+        <v>48111671</v>
       </c>
     </row>
     <row r="996" spans="1:6" x14ac:dyDescent="0.25">
@@ -20512,7 +20512,7 @@
         <v>21</v>
       </c>
       <c r="F997" s="1">
-        <v>277778087</v>
+        <v>272482032</v>
       </c>
     </row>
     <row r="998" spans="1:6" x14ac:dyDescent="0.25">
@@ -20532,7 +20532,7 @@
         <v>9</v>
       </c>
       <c r="F998" s="1">
-        <v>18803807</v>
+        <v>18724948</v>
       </c>
     </row>
     <row r="999" spans="1:6" x14ac:dyDescent="0.25">
@@ -20572,7 +20572,7 @@
         <v>21</v>
       </c>
       <c r="F1000" s="1">
-        <v>30904305</v>
+        <v>31245170</v>
       </c>
     </row>
     <row r="1001" spans="1:6" x14ac:dyDescent="0.25">
@@ -20592,7 +20592,7 @@
         <v>9</v>
       </c>
       <c r="F1001" s="1">
-        <v>7496997</v>
+        <v>7516093</v>
       </c>
     </row>
     <row r="1002" spans="1:6" x14ac:dyDescent="0.25">
@@ -20612,7 +20612,7 @@
         <v>21</v>
       </c>
       <c r="F1002" s="1">
-        <v>79226646</v>
+        <v>79174605</v>
       </c>
     </row>
     <row r="1003" spans="1:6" x14ac:dyDescent="0.25">
@@ -20632,7 +20632,7 @@
         <v>9</v>
       </c>
       <c r="F1003" s="1">
-        <v>50370913</v>
+        <v>50369170</v>
       </c>
     </row>
     <row r="1004" spans="1:6" x14ac:dyDescent="0.25">
@@ -20672,7 +20672,7 @@
         <v>21</v>
       </c>
       <c r="F1005" s="1">
-        <v>265224240</v>
+        <v>260145548</v>
       </c>
     </row>
     <row r="1006" spans="1:6" x14ac:dyDescent="0.25">
@@ -20692,7 +20692,7 @@
         <v>9</v>
       </c>
       <c r="F1006" s="1">
-        <v>17628388</v>
+        <v>17526673</v>
       </c>
     </row>
     <row r="1007" spans="1:6" x14ac:dyDescent="0.25">
@@ -20732,7 +20732,7 @@
         <v>21</v>
       </c>
       <c r="F1008" s="1">
-        <v>29913135</v>
+        <v>30228753</v>
       </c>
     </row>
     <row r="1009" spans="1:6" x14ac:dyDescent="0.25">
@@ -20752,7 +20752,7 @@
         <v>9</v>
       </c>
       <c r="F1009" s="1">
-        <v>7108884</v>
+        <v>7131539</v>
       </c>
     </row>
     <row r="1010" spans="1:6" x14ac:dyDescent="0.25">
@@ -20772,7 +20772,7 @@
         <v>21</v>
       </c>
       <c r="F1010" s="1">
-        <v>92295975</v>
+        <v>92179310</v>
       </c>
     </row>
     <row r="1011" spans="1:6" x14ac:dyDescent="0.25">
@@ -20792,7 +20792,7 @@
         <v>9</v>
       </c>
       <c r="F1011" s="1">
-        <v>58351967</v>
+        <v>58349544</v>
       </c>
     </row>
     <row r="1012" spans="1:6" x14ac:dyDescent="0.25">
@@ -20832,7 +20832,7 @@
         <v>21</v>
       </c>
       <c r="F1013" s="1">
-        <v>277358368</v>
+        <v>272382746</v>
       </c>
     </row>
     <row r="1014" spans="1:6" x14ac:dyDescent="0.25">
@@ -20852,7 +20852,7 @@
         <v>9</v>
       </c>
       <c r="F1014" s="1">
-        <v>19170934</v>
+        <v>19083466</v>
       </c>
     </row>
     <row r="1015" spans="1:6" x14ac:dyDescent="0.25">
@@ -20892,7 +20892,7 @@
         <v>21</v>
       </c>
       <c r="F1016" s="1">
-        <v>30371938</v>
+        <v>30713072</v>
       </c>
     </row>
     <row r="1017" spans="1:6" x14ac:dyDescent="0.25">
@@ -20912,7 +20912,7 @@
         <v>9</v>
       </c>
       <c r="F1017" s="1">
-        <v>7141943</v>
+        <v>7175220</v>
       </c>
     </row>
     <row r="1018" spans="1:6" x14ac:dyDescent="0.25">
@@ -20932,7 +20932,7 @@
         <v>21</v>
       </c>
       <c r="F1018" s="1">
-        <v>98156517</v>
+        <v>98079413</v>
       </c>
     </row>
     <row r="1019" spans="1:6" x14ac:dyDescent="0.25">
@@ -20952,7 +20952,7 @@
         <v>9</v>
       </c>
       <c r="F1019" s="1">
-        <v>61085060</v>
+        <v>61083902</v>
       </c>
     </row>
     <row r="1020" spans="1:6" x14ac:dyDescent="0.25">
@@ -20992,7 +20992,7 @@
         <v>21</v>
       </c>
       <c r="F1021" s="1">
-        <v>277847924</v>
+        <v>272485633</v>
       </c>
     </row>
     <row r="1022" spans="1:6" x14ac:dyDescent="0.25">
@@ -21012,7 +21012,7 @@
         <v>9</v>
       </c>
       <c r="F1022" s="1">
-        <v>20362594</v>
+        <v>20276543</v>
       </c>
     </row>
     <row r="1023" spans="1:6" x14ac:dyDescent="0.25">
@@ -21052,7 +21052,7 @@
         <v>21</v>
       </c>
       <c r="F1024" s="1">
-        <v>30870746</v>
+        <v>31235120</v>
       </c>
     </row>
     <row r="1025" spans="1:6" x14ac:dyDescent="0.25">
@@ -21072,7 +21072,7 @@
         <v>9</v>
       </c>
       <c r="F1025" s="1">
-        <v>7329048</v>
+        <v>7364545</v>
       </c>
     </row>
     <row r="1026" spans="1:6" x14ac:dyDescent="0.25">
@@ -21092,7 +21092,7 @@
         <v>21</v>
       </c>
       <c r="F1026" s="1">
-        <v>88625538</v>
+        <v>88561291</v>
       </c>
     </row>
     <row r="1027" spans="1:6" x14ac:dyDescent="0.25">
@@ -21112,7 +21112,7 @@
         <v>9</v>
       </c>
       <c r="F1027" s="1">
-        <v>54372189</v>
+        <v>54371122</v>
       </c>
     </row>
     <row r="1028" spans="1:6" x14ac:dyDescent="0.25">
@@ -21152,7 +21152,7 @@
         <v>21</v>
       </c>
       <c r="F1029" s="1">
-        <v>259300940</v>
+        <v>264395930</v>
       </c>
     </row>
     <row r="1030" spans="1:6" x14ac:dyDescent="0.25">
@@ -21172,7 +21172,7 @@
         <v>9</v>
       </c>
       <c r="F1030" s="1">
-        <v>20026557</v>
+        <v>20122692</v>
       </c>
     </row>
     <row r="1031" spans="1:6" x14ac:dyDescent="0.25">
@@ -21212,7 +21212,7 @@
         <v>21</v>
       </c>
       <c r="F1032" s="1">
-        <v>29946775</v>
+        <v>30312983</v>
       </c>
     </row>
     <row r="1033" spans="1:6" x14ac:dyDescent="0.25">
@@ -21232,7 +21232,7 @@
         <v>9</v>
       </c>
       <c r="F1033" s="1">
-        <v>6791293</v>
+        <v>7010678</v>
       </c>
     </row>
     <row r="1034" spans="1:6" x14ac:dyDescent="0.25">
@@ -21252,7 +21252,7 @@
         <v>21</v>
       </c>
       <c r="F1034" s="1">
-        <v>86491684</v>
+        <v>86432047</v>
       </c>
     </row>
     <row r="1035" spans="1:6" x14ac:dyDescent="0.25">
@@ -21272,7 +21272,7 @@
         <v>9</v>
       </c>
       <c r="F1035" s="1">
-        <v>54677226</v>
+        <v>54676145</v>
       </c>
     </row>
     <row r="1036" spans="1:6" x14ac:dyDescent="0.25">
@@ -21312,7 +21312,7 @@
         <v>21</v>
       </c>
       <c r="F1037" s="1">
-        <v>282212748</v>
+        <v>279762890</v>
       </c>
     </row>
     <row r="1038" spans="1:6" x14ac:dyDescent="0.25">
@@ -21332,7 +21332,7 @@
         <v>9</v>
       </c>
       <c r="F1038" s="1">
-        <v>20961816</v>
+        <v>21238373</v>
       </c>
     </row>
     <row r="1039" spans="1:6" x14ac:dyDescent="0.25">
@@ -21372,7 +21372,7 @@
         <v>21</v>
       </c>
       <c r="F1040" s="1">
-        <v>30462408</v>
+        <v>30929101</v>
       </c>
     </row>
     <row r="1041" spans="1:6" x14ac:dyDescent="0.25">
@@ -21392,7 +21392,7 @@
         <v>9</v>
       </c>
       <c r="F1041" s="1">
-        <v>6888927</v>
+        <v>7165974</v>
       </c>
     </row>
     <row r="1042" spans="1:6" x14ac:dyDescent="0.25">
@@ -21412,7 +21412,7 @@
         <v>21</v>
       </c>
       <c r="F1042" s="1">
-        <v>90600046</v>
+        <v>90525909</v>
       </c>
     </row>
     <row r="1043" spans="1:6" x14ac:dyDescent="0.25">
@@ -21432,7 +21432,7 @@
         <v>9</v>
       </c>
       <c r="F1043" s="1">
-        <v>58951854</v>
+        <v>58950493</v>
       </c>
     </row>
     <row r="1044" spans="1:6" x14ac:dyDescent="0.25">
@@ -21472,7 +21472,7 @@
         <v>21</v>
       </c>
       <c r="F1045" s="1">
-        <v>262366647</v>
+        <v>261731081</v>
       </c>
     </row>
     <row r="1046" spans="1:6" x14ac:dyDescent="0.25">
@@ -21492,7 +21492,7 @@
         <v>9</v>
       </c>
       <c r="F1046" s="1">
-        <v>19929091</v>
+        <v>20275970</v>
       </c>
     </row>
     <row r="1047" spans="1:6" x14ac:dyDescent="0.25">
@@ -21532,7 +21532,7 @@
         <v>21</v>
       </c>
       <c r="F1048" s="1">
-        <v>29025612</v>
+        <v>29468217</v>
       </c>
     </row>
     <row r="1049" spans="1:6" x14ac:dyDescent="0.25">
@@ -21552,7 +21552,7 @@
         <v>9</v>
       </c>
       <c r="F1049" s="1">
-        <v>6879751</v>
+        <v>7067731</v>
       </c>
     </row>
     <row r="1050" spans="1:6" x14ac:dyDescent="0.25">
@@ -21572,7 +21572,7 @@
         <v>21</v>
       </c>
       <c r="F1050" s="1">
-        <v>92378448</v>
+        <v>92316866</v>
       </c>
     </row>
     <row r="1051" spans="1:6" x14ac:dyDescent="0.25">
@@ -21592,7 +21592,7 @@
         <v>9</v>
       </c>
       <c r="F1051" s="1">
-        <v>59997511</v>
+        <v>59997059</v>
       </c>
     </row>
     <row r="1052" spans="1:6" x14ac:dyDescent="0.25">
@@ -21632,7 +21632,7 @@
         <v>21</v>
       </c>
       <c r="F1053" s="1">
-        <v>271234924</v>
+        <v>270747986</v>
       </c>
     </row>
     <row r="1054" spans="1:6" x14ac:dyDescent="0.25">
@@ -21652,7 +21652,7 @@
         <v>9</v>
       </c>
       <c r="F1054" s="1">
-        <v>20796604</v>
+        <v>21110763</v>
       </c>
     </row>
     <row r="1055" spans="1:6" x14ac:dyDescent="0.25">
@@ -21692,7 +21692,7 @@
         <v>21</v>
       </c>
       <c r="F1056" s="1">
-        <v>29518415</v>
+        <v>29966788</v>
       </c>
     </row>
     <row r="1057" spans="1:6" x14ac:dyDescent="0.25">
@@ -21712,7 +21712,7 @@
         <v>9</v>
       </c>
       <c r="F1057" s="1">
-        <v>6801491</v>
+        <v>6999707</v>
       </c>
     </row>
     <row r="1058" spans="1:6" x14ac:dyDescent="0.25">
@@ -21732,7 +21732,7 @@
         <v>21</v>
       </c>
       <c r="F1058" s="1">
-        <v>93853280</v>
+        <v>94214940</v>
       </c>
     </row>
     <row r="1059" spans="1:6" x14ac:dyDescent="0.25">
@@ -21752,7 +21752,7 @@
         <v>9</v>
       </c>
       <c r="F1059" s="1">
-        <v>59202613</v>
+        <v>59848631</v>
       </c>
     </row>
     <row r="1060" spans="1:6" x14ac:dyDescent="0.25">
@@ -21792,7 +21792,7 @@
         <v>21</v>
       </c>
       <c r="F1061" s="1">
-        <v>264838586</v>
+        <v>267802181</v>
       </c>
     </row>
     <row r="1062" spans="1:6" x14ac:dyDescent="0.25">
@@ -21812,7 +21812,7 @@
         <v>9</v>
       </c>
       <c r="F1062" s="1">
-        <v>20659375</v>
+        <v>21146950</v>
       </c>
     </row>
     <row r="1063" spans="1:6" x14ac:dyDescent="0.25">
@@ -21852,7 +21852,7 @@
         <v>21</v>
       </c>
       <c r="F1064" s="1">
-        <v>28345225</v>
+        <v>28888398</v>
       </c>
     </row>
     <row r="1065" spans="1:6" x14ac:dyDescent="0.25">
@@ -21872,7 +21872,167 @@
         <v>9</v>
       </c>
       <c r="F1065" s="1">
-        <v>6562191</v>
+        <v>6725389</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1066" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1066" s="7">
+        <v>2019</v>
+      </c>
+      <c r="C1066" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1066" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1066" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1066" s="1">
+        <v>80293368</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1067" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1067" s="7">
+        <v>2019</v>
+      </c>
+      <c r="C1067" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1067" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1067" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1067" s="1">
+        <v>48912966</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1068" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1068" s="7">
+        <v>2019</v>
+      </c>
+      <c r="C1068" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1068" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1068" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1068" s="1">
+        <v>22819637</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1069" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1069" s="7">
+        <v>2019</v>
+      </c>
+      <c r="C1069" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1069" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1069" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1069" s="1">
+        <v>241356172</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1070" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1070" s="7">
+        <v>2019</v>
+      </c>
+      <c r="C1070" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1070" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1070" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1070" s="1">
+        <v>19002149</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1071" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1071" s="7">
+        <v>2019</v>
+      </c>
+      <c r="C1071" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1071" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1071" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1071" s="1">
+        <v>1113086</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1072" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1072" s="7">
+        <v>2019</v>
+      </c>
+      <c r="C1072" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1072" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1072" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1072" s="1">
+        <v>25376357</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1073" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1073" s="7">
+        <v>2019</v>
+      </c>
+      <c r="C1073" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1073" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1073" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1073" s="1">
+        <v>5747989</v>
       </c>
     </row>
   </sheetData>

--- a/src/data-graphql/production_volumes.xlsx
+++ b/src/data-graphql/production_volumes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Isemibnas01\onrr\SHARE\NRRD\Data\2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mentastc\Documents\GitHub\doi-extractives-data\src\data-graphql\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -536,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1081"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A1047" workbookViewId="0">
+      <selection activeCell="H1078" sqref="H1078"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21980,13 +21980,13 @@
       <c r="C1072" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1072" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1072" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1072" s="8">
+      <c r="D1072" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1072" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1072" s="9">
         <v>25622939.410871997</v>
       </c>
     </row>
@@ -22000,13 +22000,13 @@
       <c r="C1073" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1073" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1073" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1073" s="8">
+      <c r="D1073" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1073" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1073" s="9">
         <v>5947699.9094679998</v>
       </c>
     </row>
@@ -22020,13 +22020,13 @@
       <c r="C1074" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1074" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1074" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1074" s="8">
+      <c r="D1074" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1074" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1074" s="9">
         <v>94243257.760961995</v>
       </c>
     </row>
@@ -22040,13 +22040,13 @@
       <c r="C1075" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1075" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1075" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1075" s="8">
+      <c r="D1075" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1075" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1075" s="9">
         <v>59154063.83901</v>
       </c>
     </row>
@@ -22057,7 +22057,7 @@
       <c r="B1076" s="6">
         <v>2019</v>
       </c>
-      <c r="C1076" s="4" t="s">
+      <c r="C1076" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D1076" s="4" t="s">
@@ -22080,13 +22080,13 @@
       <c r="C1077" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1077" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1077" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1077" s="8">
+      <c r="D1077" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1077" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1077" s="9">
         <v>271559636.02770197</v>
       </c>
     </row>
@@ -22100,13 +22100,13 @@
       <c r="C1078" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1078" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1078" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1078" s="8">
+      <c r="D1078" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1078" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1078" s="9">
         <v>21951668.853908997</v>
       </c>
     </row>
@@ -22140,13 +22140,13 @@
       <c r="C1080" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1080" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1080" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1080" s="8">
+      <c r="D1080" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1080" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1080" s="9">
         <v>29063441.331801005</v>
       </c>
     </row>
@@ -22160,13 +22160,13 @@
       <c r="C1081" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1081" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1081" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1081" s="8">
+      <c r="D1081" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1081" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1081" s="9">
         <v>6720610.6272520004</v>
       </c>
     </row>
